--- a/data/nzd0014/nzd0014.xlsx
+++ b/data/nzd0014/nzd0014.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3983,6 +3983,22 @@
       <c r="D211" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>371.5242857142857</v>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -3997,7 +4013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B267"/>
+  <dimension ref="A1:B268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6675,6 +6691,16 @@
       </c>
       <c r="B267" t="n">
         <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -6843,28 +6869,28 @@
         <v>0.1709</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04334943992186158</v>
+        <v>0.04176699769988955</v>
       </c>
       <c r="J2" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K2" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001399223795263693</v>
+        <v>0.001312220547289522</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105800719906965</v>
+        <v>7.078926063395213</v>
       </c>
       <c r="N2" t="n">
-        <v>79.33744989925459</v>
+        <v>78.95715795530592</v>
       </c>
       <c r="O2" t="n">
-        <v>8.907157228838761</v>
+        <v>8.885784037174544</v>
       </c>
       <c r="P2" t="n">
-        <v>372.1385136616538</v>
+        <v>372.1527362606867</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -6923,7 +6949,7 @@
         <v>-1.659637569881489</v>
       </c>
       <c r="J3" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K3" t="n">
         <v>94</v>
@@ -6978,7 +7004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11124,6 +11150,24 @@
         </is>
       </c>
     </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>-34.724559889987965,173.09248718099514</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0014/nzd0014.xlsx
+++ b/data/nzd0014/nzd0014.xlsx
@@ -6714,7 +6714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6805,35 +6805,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -6892,27 +6897,28 @@
       <c r="P2" t="n">
         <v>372.1527362606867</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.0885333592061 -34.72531378355838, 173.09841884187497 -34.72342860624765)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.0885333592061</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.72531378355838</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.098418841875</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.72342860624765</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.0934761005406</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.72437119490301</v>
       </c>
     </row>
@@ -6969,27 +6975,28 @@
       <c r="P3" t="n">
         <v>442.9379292550908</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.08873186567183 -34.72602102561176, 173.09861739974139 -34.724135843635665)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.0887318656718</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.72602102561176</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.0986173997414</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.72413584363566</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.0936746327066</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.72507843462371</v>
       </c>
     </row>

--- a/data/nzd0014/nzd0014.xlsx
+++ b/data/nzd0014/nzd0014.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3997,6 +3997,76 @@
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>373.4042857142857</v>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>343.2685714285714</v>
+      </c>
+      <c r="C214" t="n">
+        <v>432.91</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>353.8242857142857</v>
+      </c>
+      <c r="C215" t="n">
+        <v>408.41</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>369.7342857142857</v>
+      </c>
+      <c r="C216" t="n">
+        <v>370.78</v>
+      </c>
+      <c r="D216" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -4013,7 +4083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B268"/>
+  <dimension ref="A1:B272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6701,6 +6771,46 @@
       </c>
       <c r="B268" t="n">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -6874,28 +6984,28 @@
         <v>0.1709</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04176699769988955</v>
+        <v>-0.004856488847298948</v>
       </c>
       <c r="J2" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K2" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001312220547289522</v>
+        <v>1.715595077922405e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>7.078926063395213</v>
+        <v>7.202331724628753</v>
       </c>
       <c r="N2" t="n">
-        <v>78.95715795530592</v>
+        <v>83.49060782328989</v>
       </c>
       <c r="O2" t="n">
-        <v>8.885784037174544</v>
+        <v>9.137319509751746</v>
       </c>
       <c r="P2" t="n">
-        <v>372.1527362606867</v>
+        <v>372.5766034192832</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -6952,28 +7062,28 @@
         <v>0.0103</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.659637569881489</v>
+        <v>-1.639490389937831</v>
       </c>
       <c r="J3" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K3" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1159465248378402</v>
+        <v>0.1183492984432047</v>
       </c>
       <c r="M3" t="n">
-        <v>27.93275357444028</v>
+        <v>27.80519809956721</v>
       </c>
       <c r="N3" t="n">
-        <v>1193.1622204393</v>
+        <v>1176.698714014845</v>
       </c>
       <c r="O3" t="n">
-        <v>34.54218030812907</v>
+        <v>34.30304234342553</v>
       </c>
       <c r="P3" t="n">
-        <v>442.9379292550908</v>
+        <v>442.7518476380461</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -7011,7 +7121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11175,6 +11285,90 @@
         </is>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>-34.72455607478346,173.09250718807724</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>-34.724617230724284,173.09218648162664</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>-34.72514255155904,173.09333899510582</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>-34.7245958095714,173.09229881635534</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>-34.725192272349815,173.0930782629901</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>-34.72456352254666,173.09246813169722</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>-34.72526863833902,173.0926777991341</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0014/nzd0014.xlsx
+++ b/data/nzd0014/nzd0014.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4067,6 +4067,24 @@
         <v>370.78</v>
       </c>
       <c r="D216" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>374.8</v>
+      </c>
+      <c r="C217" t="n">
+        <v>366.23</v>
+      </c>
+      <c r="D217" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -4083,7 +4101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B272"/>
+  <dimension ref="A1:B273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6811,6 +6829,16 @@
       </c>
       <c r="B272" t="n">
         <v>-0.18</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -6984,28 +7012,28 @@
         <v>0.1709</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.004856488847298948</v>
+        <v>-0.002782822519046604</v>
       </c>
       <c r="J2" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K2" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L2" t="n">
-        <v>1.715595077922405e-05</v>
+        <v>5.687319059921592e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>7.202331724628753</v>
+        <v>7.1776049150363</v>
       </c>
       <c r="N2" t="n">
-        <v>83.49060782328989</v>
+        <v>83.11169495050626</v>
       </c>
       <c r="O2" t="n">
-        <v>9.137319509751746</v>
+        <v>9.116561574985727</v>
       </c>
       <c r="P2" t="n">
-        <v>372.5766034192832</v>
+        <v>372.5576137505545</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -7062,28 +7090,28 @@
         <v>0.0103</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.639490389937831</v>
+        <v>-1.702979252333723</v>
       </c>
       <c r="J3" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K3" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1183492984432047</v>
+        <v>0.1276655067569686</v>
       </c>
       <c r="M3" t="n">
-        <v>27.80519809956721</v>
+        <v>27.82794709927223</v>
       </c>
       <c r="N3" t="n">
-        <v>1176.698714014845</v>
+        <v>1176.329507311761</v>
       </c>
       <c r="O3" t="n">
-        <v>34.30304234342553</v>
+        <v>34.29766037664611</v>
       </c>
       <c r="P3" t="n">
-        <v>442.7518476380461</v>
+        <v>443.3534596254094</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -7121,7 +7149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11369,6 +11397,28 @@
         </is>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>-34.724553242368884,173.0925220413581</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>-34.7252778719796,173.09262937733155</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0014/nzd0014.xlsx
+++ b/data/nzd0014/nzd0014.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0014/nzd0014.xlsx
+++ b/data/nzd0014/nzd0014.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D217"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4085,6 +4085,22 @@
         <v>366.23</v>
       </c>
       <c r="D217" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>383.8271428571429</v>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -4101,7 +4117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B273"/>
+  <dimension ref="A1:B274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6839,6 +6855,16 @@
       </c>
       <c r="B273" t="n">
         <v>-0.21</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -7012,28 +7038,28 @@
         <v>0.1709</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.002782822519046604</v>
+        <v>0.00716313800286602</v>
       </c>
       <c r="J2" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K2" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L2" t="n">
-        <v>5.687319059921592e-06</v>
+        <v>3.77753761301447e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>7.1776049150363</v>
+        <v>7.19409849320206</v>
       </c>
       <c r="N2" t="n">
-        <v>83.11169495050626</v>
+        <v>83.32251275617242</v>
       </c>
       <c r="O2" t="n">
-        <v>9.116561574985727</v>
+        <v>9.128116605092883</v>
       </c>
       <c r="P2" t="n">
-        <v>372.5576137505545</v>
+        <v>372.4661051735722</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -7093,7 +7119,7 @@
         <v>-1.702979252333723</v>
       </c>
       <c r="J3" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K3" t="n">
         <v>98</v>
@@ -7149,7 +7175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D217"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11419,6 +11445,24 @@
         </is>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>-34.72453492295182,173.09261810876626</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0014/nzd0014.xlsx
+++ b/data/nzd0014/nzd0014.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4101,6 +4101,24 @@
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>374.0685714285714</v>
+      </c>
+      <c r="C219" t="n">
+        <v>351.85</v>
+      </c>
+      <c r="D219" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -4117,7 +4135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B274"/>
+  <dimension ref="A1:B276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6865,6 +6883,26 @@
       </c>
       <c r="B274" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>-0.36</v>
       </c>
     </row>
   </sheetData>
@@ -7038,28 +7076,28 @@
         <v>0.1709</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00716313800286602</v>
+        <v>0.008397099072341213</v>
       </c>
       <c r="J2" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K2" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L2" t="n">
-        <v>3.77753761301447e-05</v>
+        <v>5.241686523327349e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>7.19409849320206</v>
+        <v>7.165953425802142</v>
       </c>
       <c r="N2" t="n">
-        <v>83.32251275617242</v>
+        <v>82.93143278069829</v>
       </c>
       <c r="O2" t="n">
-        <v>9.128116605092883</v>
+        <v>9.106669686592255</v>
       </c>
       <c r="P2" t="n">
-        <v>372.4661051735722</v>
+        <v>372.4546989580028</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -7116,28 +7154,28 @@
         <v>0.0103</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.702979252333723</v>
+        <v>-1.789389596915002</v>
       </c>
       <c r="J3" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K3" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1276655067569686</v>
+        <v>0.1392813809119565</v>
       </c>
       <c r="M3" t="n">
-        <v>27.82794709927223</v>
+        <v>27.96055768327599</v>
       </c>
       <c r="N3" t="n">
-        <v>1176.329507311761</v>
+        <v>1186.408377955641</v>
       </c>
       <c r="O3" t="n">
-        <v>34.29766037664611</v>
+        <v>34.44427932118251</v>
       </c>
       <c r="P3" t="n">
-        <v>443.3534596254094</v>
+        <v>444.1798966986823</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -7175,7 +7213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11463,6 +11501,28 @@
         </is>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>-34.7245547267051,173.0925142574485</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>-34.72530705421601,173.09247634308005</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0014/nzd0014.xlsx
+++ b/data/nzd0014/nzd0014.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D219"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4119,6 +4119,42 @@
         <v>351.85</v>
       </c>
       <c r="D219" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>375.9785714285715</v>
+      </c>
+      <c r="C220" t="n">
+        <v>377.88</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>381.5271428571429</v>
+      </c>
+      <c r="C221" t="n">
+        <v>366.63</v>
+      </c>
+      <c r="D221" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -4135,7 +4171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B276"/>
+  <dimension ref="A1:B278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6903,6 +6939,26 @@
       </c>
       <c r="B276" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -7076,28 +7132,28 @@
         <v>0.1709</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008397099072341213</v>
+        <v>0.01872330256356583</v>
       </c>
       <c r="J2" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K2" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L2" t="n">
-        <v>5.241686523327349e-05</v>
+        <v>0.0002642611904708492</v>
       </c>
       <c r="M2" t="n">
-        <v>7.165953425802142</v>
+        <v>7.150935577501188</v>
       </c>
       <c r="N2" t="n">
-        <v>82.93143278069829</v>
+        <v>82.55699044316474</v>
       </c>
       <c r="O2" t="n">
-        <v>9.106669686592255</v>
+        <v>9.08608774133096</v>
       </c>
       <c r="P2" t="n">
-        <v>372.4546989580028</v>
+        <v>372.3590546536616</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -7154,28 +7210,28 @@
         <v>0.0103</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.789389596915002</v>
+        <v>-1.877366107938466</v>
       </c>
       <c r="J3" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K3" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1392813809119565</v>
+        <v>0.1547389560599077</v>
       </c>
       <c r="M3" t="n">
-        <v>27.96055768327599</v>
+        <v>27.83325350331103</v>
       </c>
       <c r="N3" t="n">
-        <v>1186.408377955641</v>
+        <v>1175.648381294784</v>
       </c>
       <c r="O3" t="n">
-        <v>34.44427932118251</v>
+        <v>34.28772931085965</v>
       </c>
       <c r="P3" t="n">
-        <v>444.1798966986823</v>
+        <v>445.0228986232729</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -7213,7 +7269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D219"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11523,6 +11579,50 @@
         </is>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>-34.72455085061513,173.09253458378996</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>-34.725254229762555,173.0927533584088</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>-34.72453959051107,173.09259363202918</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>-34.72527706023174,173.09263363419373</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0014/nzd0014.xlsx
+++ b/data/nzd0014/nzd0014.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>372.7071428571429</v>
+        <v>372.71</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>381.8957142857143</v>
+        <v>381.9</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373.4542857142857</v>
+        <v>373.45</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>386.3514285714285</v>
+        <v>386.35</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>366.5914285714285</v>
+        <v>366.59</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>374.3142857142857</v>
+        <v>374.31</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.8471428571429</v>
+        <v>376.85</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>382.9457142857143</v>
+        <v>382.95</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>376.2671428571429</v>
+        <v>376.27</v>
       </c>
       <c r="C10" t="n">
         <v>476.5</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>371.3542857142857</v>
+        <v>371.35</v>
       </c>
       <c r="C11" t="n">
         <v>452.4</v>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>359.1242857142857</v>
+        <v>359.12</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.4357142857143</v>
+        <v>376.44</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>363.0857142857143</v>
+        <v>363.09</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>358.4928571428572</v>
+        <v>358.49</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>360.0628571428572</v>
+        <v>360.06</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>357.4314285714286</v>
+        <v>357.43</v>
       </c>
       <c r="C18" t="n">
         <v>454.39</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>379.2414285714286</v>
+        <v>379.24</v>
       </c>
       <c r="C19" t="n">
         <v>457.8</v>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.4714285714285</v>
+        <v>376.47</v>
       </c>
       <c r="C20" t="n">
         <v>417.89</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>364.6628571428572</v>
+        <v>364.66</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.7728571428572</v>
+        <v>373.77</v>
       </c>
       <c r="C22" t="n">
         <v>389.48</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>372.8885714285714</v>
+        <v>372.89</v>
       </c>
       <c r="C24" t="n">
         <v>463.22</v>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>382.2528571428572</v>
+        <v>382.25</v>
       </c>
       <c r="C25" t="n">
         <v>483.09</v>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>378.5542857142857</v>
+        <v>378.55</v>
       </c>
       <c r="C26" t="n">
         <v>490.19</v>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>375.4314285714286</v>
+        <v>375.43</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.8371428571429</v>
+        <v>376.84</v>
       </c>
       <c r="C29" t="n">
         <v>434.25</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>347.6914285714286</v>
+        <v>347.69</v>
       </c>
       <c r="C30" t="n">
         <v>409.52</v>
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>375.5871428571429</v>
+        <v>375.59</v>
       </c>
       <c r="C31" t="n">
         <v>424.68</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>357.0171428571429</v>
+        <v>357.02</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>370.4042857142857</v>
+        <v>370.4</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>370.7528571428572</v>
+        <v>370.75</v>
       </c>
       <c r="C35" t="n">
         <v>417.49</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>389.3814285714286</v>
+        <v>389.38</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>383.8642857142857</v>
+        <v>383.86</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.4985714285714</v>
+        <v>382.5</v>
       </c>
       <c r="C38" t="n">
         <v>403.77</v>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>370.1242857142857</v>
+        <v>370.12</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>383.5857142857143</v>
+        <v>383.59</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>388.2028571428572</v>
+        <v>388.2</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>372.9385714285714</v>
+        <v>372.94</v>
       </c>
       <c r="C42" t="n">
         <v>380.37</v>
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>364.3942857142857</v>
+        <v>364.39</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>388.0242857142857</v>
+        <v>388.02</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>374.5271428571429</v>
+        <v>374.53</v>
       </c>
       <c r="C46" t="n">
         <v>364.21</v>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>367.5385714285715</v>
+        <v>367.54</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>365.8642857142857</v>
+        <v>365.86</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>383.8014285714286</v>
+        <v>383.8</v>
       </c>
       <c r="C49" t="n">
         <v>336.51</v>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>379.6614285714285</v>
+        <v>379.66</v>
       </c>
       <c r="C51" t="n">
         <v>436.06</v>
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>372.7028571428572</v>
+        <v>372.7</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>387.2957142857143</v>
+        <v>387.3</v>
       </c>
       <c r="C53" t="n">
         <v>456.39</v>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>384.0142857142857</v>
+        <v>384.01</v>
       </c>
       <c r="C54" t="n">
         <v>486.84</v>
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>365.4028571428572</v>
+        <v>365.4</v>
       </c>
       <c r="C55" t="n">
         <v>446.63</v>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>377.5428571428571</v>
+        <v>377.54</v>
       </c>
       <c r="C56" t="n">
         <v>427.08</v>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>360.6042857142857</v>
+        <v>360.6</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>381.1157142857143</v>
+        <v>381.12</v>
       </c>
       <c r="C58" t="n">
         <v>442.8</v>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>374.0542857142857</v>
+        <v>374.05</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>368.7257142857143</v>
+        <v>368.73</v>
       </c>
       <c r="C60" t="n">
         <v>412.45</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>372.6157142857143</v>
+        <v>372.62</v>
       </c>
       <c r="C61" t="n">
         <v>407.64</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>362.2685714285714</v>
+        <v>362.27</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>356.6728571428571</v>
+        <v>356.67</v>
       </c>
       <c r="C63" t="n">
         <v>419.04</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>376.1628571428572</v>
+        <v>376.16</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>372.2142857142857</v>
+        <v>372.21</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>360.2542857142857</v>
+        <v>360.25</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>360.0871428571429</v>
+        <v>360.09</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>375.1814285714286</v>
+        <v>375.18</v>
       </c>
       <c r="C70" t="n">
         <v>410.51</v>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>377.8428571428572</v>
+        <v>377.84</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>375.0342857142857</v>
+        <v>375.03</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>365.5957142857143</v>
+        <v>365.6</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>353.6585714285715</v>
+        <v>353.66</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>374.3285714285714</v>
+        <v>374.33</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>375.7628571428572</v>
+        <v>375.76</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>400.1271428571428</v>
+        <v>400.13</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>350.2328571428571</v>
+        <v>350.23</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>375.9957142857143</v>
+        <v>376</v>
       </c>
       <c r="C83" t="n">
         <v>426.42</v>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>366.0685714285714</v>
+        <v>366.07</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>361.1914285714286</v>
+        <v>361.19</v>
       </c>
       <c r="C85" t="n">
         <v>448.32</v>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>372.7728571428572</v>
+        <v>372.77</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>361.0628571428572</v>
+        <v>361.06</v>
       </c>
       <c r="C87" t="n">
         <v>422.66</v>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>364.5242857142857</v>
+        <v>364.52</v>
       </c>
       <c r="C88" t="n">
         <v>419.23</v>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>373.3885714285714</v>
+        <v>373.39</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>382.5671428571428</v>
+        <v>382.57</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>374.5885714285714</v>
+        <v>374.59</v>
       </c>
       <c r="C91" t="n">
         <v>390.58</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>378.3385714285714</v>
+        <v>378.34</v>
       </c>
       <c r="C92" t="n">
         <v>404.7</v>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>369.2842857142857</v>
+        <v>369.28</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>359.5214285714285</v>
+        <v>359.52</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>356.6228571428572</v>
+        <v>356.62</v>
       </c>
       <c r="C95" t="n">
         <v>421.53</v>
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>370.3171428571428</v>
+        <v>370.32</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>366.6342857142857</v>
+        <v>366.63</v>
       </c>
       <c r="C98" t="n">
         <v>428.75</v>
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>363.1171428571428</v>
+        <v>363.12</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>383.4557142857143</v>
+        <v>383.46</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>375.6742857142857</v>
+        <v>375.67</v>
       </c>
       <c r="C102" t="n">
         <v>431.1</v>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>377.5557142857143</v>
+        <v>377.56</v>
       </c>
       <c r="C104" t="n">
         <v>429.71</v>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>368.0357142857143</v>
+        <v>368.04</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>360.5285714285715</v>
+        <v>360.53</v>
       </c>
       <c r="C106" t="n">
         <v>462.13</v>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>378.3485714285715</v>
+        <v>378.35</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>380.1914285714286</v>
+        <v>380.19</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>380.5314285714285</v>
+        <v>380.53</v>
       </c>
       <c r="C109" t="n">
         <v>454.43</v>
@@ -2311,7 +2311,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>378.5557142857143</v>
+        <v>378.56</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>378.3271428571429</v>
+        <v>378.33</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>376.0657142857143</v>
+        <v>376.07</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>383.1014285714285</v>
+        <v>383.1</v>
       </c>
       <c r="C115" t="n">
         <v>453.1</v>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>383.4314285714286</v>
+        <v>383.43</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>384.4342857142857</v>
+        <v>384.43</v>
       </c>
       <c r="C118" t="n">
         <v>427.5</v>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>383.9742857142857</v>
+        <v>383.97</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>360.9771428571429</v>
+        <v>360.98</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>380.2528571428572</v>
+        <v>380.25</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>366.8157142857143</v>
+        <v>366.82</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>378.6628571428572</v>
+        <v>378.66</v>
       </c>
       <c r="C123" t="n">
         <v>399.26</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>372.2871428571429</v>
+        <v>372.29</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>383.6057142857143</v>
+        <v>383.61</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
@@ -2541,7 +2541,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>371.2242857142857</v>
+        <v>371.22</v>
       </c>
       <c r="C126" t="n">
         <v>381.86</v>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>373.5942857142857</v>
+        <v>373.59</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>371.0828571428572</v>
+        <v>371.08</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>355.7485714285714</v>
+        <v>355.75</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>373.6657142857143</v>
+        <v>373.67</v>
       </c>
       <c r="C133" t="n">
         <v>385.8</v>
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>371.2414285714286</v>
+        <v>371.24</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>364.6728571428571</v>
+        <v>364.67</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>377.2442857142857</v>
+        <v>377.24</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
@@ -2723,7 +2723,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>370.2157142857143</v>
+        <v>370.22</v>
       </c>
       <c r="C137" t="n">
         <v>377.41</v>
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>378.4457142857143</v>
+        <v>378.45</v>
       </c>
       <c r="C138" t="n">
         <v>410.1</v>
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>371.9014285714285</v>
+        <v>371.9</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>374.3185714285714</v>
+        <v>374.32</v>
       </c>
       <c r="C141" t="n">
         <v>377.45</v>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>367.7157142857143</v>
+        <v>367.72</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>370.9957142857143</v>
+        <v>371</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>373.3771428571428</v>
+        <v>373.38</v>
       </c>
       <c r="C145" t="n">
         <v>378.42</v>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>367.2085714285714</v>
+        <v>367.21</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>370.4971428571428</v>
+        <v>370.5</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>378.2185714285715</v>
+        <v>378.22</v>
       </c>
       <c r="C148" t="n">
         <v>388.04</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>375.3685714285714</v>
+        <v>375.37</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
@@ -2941,7 +2941,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>370.6228571428572</v>
+        <v>370.62</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>368.3771428571428</v>
+        <v>368.38</v>
       </c>
       <c r="C151" t="n">
         <v>411.99</v>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>361.4171428571429</v>
+        <v>361.42</v>
       </c>
       <c r="C152" t="n">
         <v>462.38</v>
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>359.0757142857143</v>
+        <v>359.08</v>
       </c>
       <c r="C153" t="n">
         <v>487.4</v>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>364.4871428571428</v>
+        <v>364.49</v>
       </c>
       <c r="C154" t="n">
         <v>459.81</v>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>371.2914285714286</v>
+        <v>371.29</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
@@ -3061,7 +3061,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>385.2942857142857</v>
+        <v>385.29</v>
       </c>
       <c r="C157" t="n">
         <v>496.08</v>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>377.7228571428572</v>
+        <v>377.72</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>381.7442857142857</v>
+        <v>381.74</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>378.9714285714285</v>
+        <v>378.97</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>376.3071428571428</v>
+        <v>376.31</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>357.2357142857143</v>
+        <v>357.24</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
@@ -3175,7 +3175,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>364.7342857142857</v>
+        <v>364.73</v>
       </c>
       <c r="C164" t="n">
         <v>452.72</v>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>357.9471428571428</v>
+        <v>357.95</v>
       </c>
       <c r="C165" t="n">
         <v>482.27</v>
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>372.5228571428572</v>
+        <v>372.52</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>377.4842857142857</v>
+        <v>377.48</v>
       </c>
       <c r="C169" t="n">
         <v>413.61</v>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>371.9642857142857</v>
+        <v>371.96</v>
       </c>
       <c r="C170" t="n">
         <v>387.58</v>
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>358.5042857142857</v>
+        <v>358.5</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>375.9071428571429</v>
+        <v>375.91</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>384.2142857142857</v>
+        <v>384.21</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
@@ -3345,7 +3345,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>370.9685714285715</v>
+        <v>370.97</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>375.7185714285715</v>
+        <v>375.72</v>
       </c>
       <c r="C175" t="n">
         <v>372.97</v>
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>365.7414285714286</v>
+        <v>365.74</v>
       </c>
       <c r="C176" t="n">
         <v>364.93</v>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>373.4371428571428</v>
+        <v>373.44</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>369.2214285714285</v>
+        <v>369.22</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>372.5585714285714</v>
+        <v>372.56</v>
       </c>
       <c r="C180" t="n">
         <v>354.46</v>
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>372.1028571428572</v>
+        <v>372.1</v>
       </c>
       <c r="C181" t="n">
         <v>366.13</v>
@@ -3483,7 +3483,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>371.5971428571429</v>
+        <v>371.6</v>
       </c>
       <c r="C182" t="n">
         <v>389.92</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>373.0185714285714</v>
+        <v>373.02</v>
       </c>
       <c r="C183" t="n">
         <v>389.47</v>
@@ -3519,7 +3519,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>369.1957142857143</v>
+        <v>369.2</v>
       </c>
       <c r="C184" t="n">
         <v>363.26</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>384.9885714285714</v>
+        <v>384.99</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
@@ -3553,7 +3553,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>378.7828571428572</v>
+        <v>378.78</v>
       </c>
       <c r="C186" t="n">
         <v>363.91</v>
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>380.6128571428572</v>
+        <v>380.61</v>
       </c>
       <c r="C187" t="n">
         <v>403.36</v>
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>381.4328571428572</v>
+        <v>381.43</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>376.4471428571428</v>
+        <v>376.45</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>372.9657142857143</v>
+        <v>372.97</v>
       </c>
       <c r="C192" t="n">
         <v>412.23</v>
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>380.9842857142857</v>
+        <v>380.98</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>383.4671428571429</v>
+        <v>383.47</v>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>363.0028571428572</v>
+        <v>363</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>381.9814285714286</v>
+        <v>381.98</v>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>381.5328571428572</v>
+        <v>381.53</v>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>360.1457142857143</v>
+        <v>360.15</v>
       </c>
       <c r="C200" t="n">
         <v>357.24</v>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>378.5114285714286</v>
+        <v>378.51</v>
       </c>
       <c r="C201" t="n">
         <v>382.16</v>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>379.2228571428572</v>
+        <v>379.22</v>
       </c>
       <c r="C202" t="n">
         <v>411.2</v>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>380.7428571428572</v>
+        <v>380.74</v>
       </c>
       <c r="C203" t="n">
         <v>373.28</v>
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>365.9514285714286</v>
+        <v>365.95</v>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
@@ -3875,7 +3875,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>381.9685714285715</v>
+        <v>381.97</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>376.0042857142857</v>
+        <v>376</v>
       </c>
       <c r="C206" t="n">
         <v>382.68</v>
@@ -3909,7 +3909,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>376.6971428571428</v>
+        <v>376.7</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>381.4257142857143</v>
+        <v>381.43</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>366.2442857142857</v>
+        <v>366.24</v>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>353.0742857142857</v>
+        <v>353.07</v>
       </c>
       <c r="C211" t="n">
         <v>450.45</v>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>371.5242857142857</v>
+        <v>371.52</v>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>373.4042857142857</v>
+        <v>373.4</v>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
@@ -4025,7 +4025,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>343.2685714285714</v>
+        <v>343.27</v>
       </c>
       <c r="C214" t="n">
         <v>432.91</v>
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>353.8242857142857</v>
+        <v>353.82</v>
       </c>
       <c r="C215" t="n">
         <v>408.41</v>
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>369.7342857142857</v>
+        <v>369.73</v>
       </c>
       <c r="C216" t="n">
         <v>370.78</v>
@@ -4097,7 +4097,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>383.8271428571429</v>
+        <v>383.83</v>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
@@ -4113,7 +4113,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>374.0685714285714</v>
+        <v>374.07</v>
       </c>
       <c r="C219" t="n">
         <v>351.85</v>
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>375.9785714285715</v>
+        <v>375.98</v>
       </c>
       <c r="C220" t="n">
         <v>377.88</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>381.5271428571429</v>
+        <v>381.53</v>
       </c>
       <c r="C221" t="n">
         <v>366.63</v>
@@ -7132,7 +7132,7 @@
         <v>0.1709</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01872330256356583</v>
+        <v>0.01874337809980859</v>
       </c>
       <c r="J2" t="n">
         <v>220</v>
@@ -7141,19 +7141,19 @@
         <v>210</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002642611904708492</v>
+        <v>0.0002648221685296326</v>
       </c>
       <c r="M2" t="n">
-        <v>7.150935577501188</v>
+        <v>7.151166085980697</v>
       </c>
       <c r="N2" t="n">
-        <v>82.55699044316474</v>
+        <v>82.5588205282918</v>
       </c>
       <c r="O2" t="n">
-        <v>9.08608774133096</v>
+        <v>9.086188448865222</v>
       </c>
       <c r="P2" t="n">
-        <v>372.3590546536616</v>
+        <v>372.358477219704</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-34.72455748954052,173.0924997690379</t>
+          <t>-34.72455748374235,173.09249979944377</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-34.72453884254228,173.09259755438848</t>
+          <t>-34.72453883384497,173.0925975999973</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-34.72455597331522,173.09250772018044</t>
+          <t>-34.7245559820125,173.09250767457158</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-34.72452980022739,173.0926449723621</t>
+          <t>-34.7245298031265,173.09264495715914</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-34.72456990053551,173.09243468520035</t>
+          <t>-34.72456990343459,173.09243466999737</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-34.72455422806095,173.09251687235565</t>
+          <t>-34.72455423675824,173.09251682674682</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -7415,7 +7415,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-34.72454908796428,173.09254382718171</t>
+          <t>-34.72454908216608,173.09254385758763</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-34.72453671170026,173.0926087285512</t>
+          <t>-34.72453670300294,173.09260877416003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-34.72455026499766,173.0925376547853</t>
+          <t>-34.724550259199475,173.09253768519116</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-34.724560234979705,173.09248537184402</t>
+          <t>-34.72456024367697,173.09248532623516</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-34.724585054020466,173.09235521934374</t>
+          <t>-34.724585062717665,173.09235517373483</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-34.724549922904245,173.09253944873305</t>
+          <t>-34.72454991420695,173.09253949434188</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-34.724577014881376,173.09239737714734</t>
+          <t>-34.724577006184134,173.0923974227562</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-34.724586335410905,173.09234849963536</t>
+          <t>-34.724586341209054,173.09234846922948</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -7589,7 +7589,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-34.724583149328524,173.09236520768815</t>
+          <t>-34.72458315512668,173.09236517728223</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-34.724588489421635,173.09233720383557</t>
+          <t>-34.72458849232071,173.0923371886326</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-34.724544229074404,173.09256930731877</t>
+          <t>-34.7245442319735,173.09256929211583</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-34.72454985042682,173.0925398288067</t>
+          <t>-34.72454985332592,173.09253981360376</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-34.724573814296875,173.09241416121108</t>
+          <t>-34.72457382009503,173.09241413080517</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-34.72455532681746,173.09251111043807</t>
+          <t>-34.724555332615644,173.09251108003218</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-34.72455712135584,173.0925016998125</t>
+          <t>-34.72455711845676,173.09250171501546</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-34.724538117766194,173.09260135512415</t>
+          <t>-34.72453812356441,173.09260132471826</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-34.72454562354155,173.09256199470218</t>
+          <t>-34.72454563223885,173.09256194909335</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-34.72455196096885,173.0925287610611</t>
+          <t>-34.72455196386796,173.09252874585812</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -7833,7 +7833,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-34.72454910825795,173.09254372076109</t>
+          <t>-34.72454910245976,173.09254375116697</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7855,7 +7855,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-34.72460825524774,173.09223355002186</t>
+          <t>-34.7246082581468,173.09223353481892</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-34.724551644967434,173.09253041818235</t>
+          <t>-34.72455163916924,173.09253044858826</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-34.724589330152334,173.0923327949768</t>
+          <t>-34.72458932435418,173.0923328253827</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-34.72456216287419,173.09247526188153</t>
+          <t>-34.72456217157147,173.0924752162727</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-34.724561455496456,173.09247897140168</t>
+          <t>-34.724561461294634,173.09247894099576</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-34.724523651210816,173.0926772177945</t>
+          <t>-34.72452365410992,173.09267720259155</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-34.724534847575036,173.09261850404272</t>
+          <t>-34.724534856272356,173.0926184584339</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-34.724537619120184,173.09260397003027</t>
+          <t>-34.72453761622107,173.0926039852332</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-34.72456273109556,173.09247228210305</t>
+          <t>-34.72456273979283,173.0924722364942</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-34.724535412900806,173.09261553946914</t>
+          <t>-34.7245354042035,173.09261558507797</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-34.72452604297923,173.09266467537086</t>
+          <t>-34.72452604877746,173.092664644965</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -8087,7 +8087,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-34.72455701988762,173.09250223191574</t>
+          <t>-34.724557016988534,173.0925022471187</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-34.72457435932411,173.0924113030554</t>
+          <t>-34.72457436802135,173.0924112574465</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -8127,7 +8127,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-34.72452640536828,173.0926627750036</t>
+          <t>-34.724526414065615,173.09266272939476</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-34.72455379609593,173.09251913759496</t>
+          <t>-34.72455379029773,173.09251916800088</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-34.72456797844257,173.09244476475882</t>
+          <t>-34.72456797554348,173.09244477996177</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-34.72457137616892,173.09242694689647</t>
+          <t>-34.724571384866174,173.0924269012876</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-34.72453497513574,173.09261783511332</t>
+          <t>-34.72453497803484,173.09261781991037</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-34.72454337673875,173.09257377698452</t>
+          <t>-34.72454337963785,173.09257376178155</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-34.724557498237814,173.09249972342903</t>
+          <t>-34.72455750403599,173.09249969302311</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-34.724527883915265,173.09265502150492</t>
+          <t>-34.72452787521794,173.09265506711372</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-34.72453454316882,173.09262010035155</t>
+          <t>-34.72453455186615,173.09262005474275</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-34.724572312572555,173.09242203634201</t>
+          <t>-34.72457231837073,173.0924220059361</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-34.72454767610363,173.09255123101659</t>
+          <t>-34.72454768190181,173.0925512006107</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-34.72458205057893,173.0923709696096</t>
+          <t>-34.724582059276145,173.0923709240007</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-34.724540425452815,173.0925892535815</t>
+          <t>-34.72454041675551,173.09258929919034</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -8429,7 +8429,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-34.72455475569604,173.09251410541899</t>
+          <t>-34.724554764393325,173.09251405981016</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -8447,7 +8447,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-34.72456556930226,173.09245739841285</t>
+          <t>-34.72456556060499,173.0924574440217</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-34.72455767508241,173.09249879604909</t>
+          <t>-34.72455766638513,173.09249884165794</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -8491,7 +8491,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-34.72457867315431,173.0923886810558</t>
+          <t>-34.72457867025524,173.09238869625875</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -8509,7 +8509,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-34.72459002882839,173.09232913106305</t>
+          <t>-34.724590034626544,173.0923291006571</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -8549,7 +8549,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-34.724550476631705,173.09253654497016</t>
+          <t>-34.724550482429905,173.09253651456424</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-34.72455848972713,173.09249452402017</t>
+          <t>-34.7245584984244,173.0924944784113</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-34.72458276085244,173.09236724488463</t>
+          <t>-34.72458276954968,173.09236719927577</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -8621,7 +8621,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-34.72458310004426,173.09236546613843</t>
+          <t>-34.72458309424609,173.09236549654437</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-34.72455246831054,173.0925261005452</t>
+          <t>-34.72455247120963,173.09252608534226</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-34.724547067292946,173.09255442363525</t>
+          <t>-34.72454707309113,173.09255439322936</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-34.724552766917334,173.09252453464157</t>
+          <t>-34.72455277561462,173.09252448903274</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-34.72457192119645,173.09242408874096</t>
+          <t>-34.724571912499194,173.0924241343498</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-34.72459614586313,173.09229705281152</t>
+          <t>-34.72459614296406,173.0922970680145</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-34.72455419907001,173.09251702438513</t>
+          <t>-34.72455419617092,173.09251703958807</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -8827,7 +8827,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-34.72455128837865,173.0925322881449</t>
+          <t>-34.724551294176834,173.092532257739</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-34.72450184402142,173.0927915742586</t>
+          <t>-34.724501838223176,173.09279160466446</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-34.72460309781937,173.09226059610094</t>
+          <t>-34.724603103617476,173.092260565695</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -8881,7 +8881,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-34.72455081582598,173.09253476622533</t>
+          <t>-34.72455080712869,173.09253481183418</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-34.72457096160005,173.092429120919</t>
+          <t>-34.72457095870097,173.09242913612198</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-34.724580859058605,173.09237721802552</t>
+          <t>-34.72458086195768,173.09237720282258</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -8943,7 +8943,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-34.7245573561823,173.09250046837357</t>
+          <t>-34.72455736198049,173.0925004379677</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-34.72458111997548,173.09237584975926</t>
+          <t>-34.724581125773646,173.09237581935335</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-34.72457409550774,173.09241268652437</t>
+          <t>-34.724574104205,173.0924126409155</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-34.72455610667349,173.09250702084478</t>
+          <t>-34.72455610377438,173.09250703604772</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -9023,7 +9023,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-34.72453747996314,173.0926046997715</t>
+          <t>-34.724537474164926,173.09260473017738</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -9041,7 +9041,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-34.724553671434876,173.09251979132176</t>
+          <t>-34.724553668535776,173.0925198065247</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-34.72454606130559,173.0925596990574</t>
+          <t>-34.72454605840646,173.09255971426035</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-34.72456443575924,173.09246334276727</t>
+          <t>-34.72456444445652,173.09246329715842</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -9103,7 +9103,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-34.72458424807786,173.09235944576653</t>
+          <t>-34.724584250976925,173.0923594305636</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-34.72459013029586,173.0923285989594</t>
+          <t>-34.724590136094,173.09232856855348</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-34.72456233971861,173.0924743345015</t>
+          <t>-34.72456233392043,173.09247436490742</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -9179,7 +9179,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-34.724569813563,173.09243514128897</t>
+          <t>-34.72456982226025,173.09243509568012</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-34.72457695110163,173.09239771161236</t>
+          <t>-34.72457694530346,173.09239774201828</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-34.72453567671948,173.09261415600145</t>
+          <t>-34.724535668022156,173.09261420161027</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-34.7245514681226,173.09253134556215</t>
+          <t>-34.724551476819876,173.09253129995332</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -9295,7 +9295,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-34.724547650011736,173.09255136784313</t>
+          <t>-34.72454764131445,173.09255141345193</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -9317,7 +9317,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-34.72456696956087,173.09245005538656</t>
+          <t>-34.7245669608636,173.09245010099545</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -9335,7 +9335,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-34.72458220422994,173.09237016385276</t>
+          <t>-34.72458220133086,173.0923701790557</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-34.724546041011884,173.09255980547803</t>
+          <t>-34.72454603811277,173.09255982068098</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-34.72454230117211,173.09257941727685</t>
+          <t>-34.72454230407121,173.09257940207394</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-34.72454161118582,173.09258303557755</t>
+          <t>-34.72454161408492,173.09258302037458</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-34.72454562064244,173.09256200990515</t>
+          <t>-34.72454561194515,173.09256205551395</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-34.72454608449837,173.09255957743386</t>
+          <t>-34.72454607870017,173.09255960783975</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -9495,7 +9495,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-34.72455067377026,173.09253551116973</t>
+          <t>-34.724550665072975,173.09253555677859</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-34.724536395697754,173.0926103856719</t>
+          <t>-34.72453639859686,173.09261037046895</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -9553,7 +9553,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-34.724535726004284,173.09261389755144</t>
+          <t>-34.72453572890338,173.09261388234847</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-34.724533690831315,173.09262457001628</t>
+          <t>-34.72453369952864,173.09262452440746</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -9593,7 +9593,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-34.72453462434382,173.09261967466924</t>
+          <t>-34.724534633041145,173.0926196290604</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-34.72458129392007,173.09237493758175</t>
+          <t>-34.72458128812192,173.0923749679877</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-34.724542176510724,173.09258007100345</t>
+          <t>-34.72454218230892,173.0925800405976</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-34.724569445379345,173.09243707206414</t>
+          <t>-34.72456943668208,173.09243711767303</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -9665,7 +9665,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-34.72454540320997,173.09256315012604</t>
+          <t>-34.724545409008165,173.09256311972013</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -9687,7 +9687,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-34.72455834187347,173.09249529937063</t>
+          <t>-34.72455833607528,173.0924953297765</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -9705,7 +9705,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-34.72453537231332,173.0926157523103</t>
+          <t>-34.72453536361599,173.09261579791914</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-34.72456049879689,173.0924839883755</t>
+          <t>-34.724560507494154,173.09248394276665</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -9745,7 +9745,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-34.7245556892041,173.09250921006944</t>
+          <t>-34.72455569790139,173.0925091644606</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -9799,7 +9799,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-34.72456078580677,173.09248248328336</t>
+          <t>-34.724560791604965,173.09248245287748</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -9839,7 +9839,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-34.724591904526676,173.0923192947466</t>
+          <t>-34.7245919016276,173.0923193099496</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -9857,7 +9857,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-34.724555544249434,173.0925099702169</t>
+          <t>-34.72455553555216,173.09251001582575</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -9879,7 +9879,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-34.724560464007816,173.0924841708109</t>
+          <t>-34.7245604669069,173.09248415560793</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -9897,7 +9897,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-34.7245737940033,173.09241426763177</t>
+          <t>-34.72457379980147,173.09241423722588</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -9915,7 +9915,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-34.724548282015135,173.09254805360084</t>
+          <t>-34.72454829071241,173.09254800799198</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -9933,7 +9933,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-34.7245625455539,173.09247325509193</t>
+          <t>-34.72456253685663,173.0924733007008</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-34.72454584387312,173.09256083927832</t>
+          <t>-34.72454583517582,173.09256088488718</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-34.72455912462805,173.09249119457408</t>
+          <t>-34.72455912752715,173.0924911793711</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-34.724554219363675,173.09251691796447</t>
+          <t>-34.72455421646458,173.09251693316745</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-34.724567618956,173.09244664992505</t>
+          <t>-34.724567610258745,173.0924466955339</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-34.724560962651246,173.09248155590333</t>
+          <t>-34.72456095395399,173.09248160151222</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -10089,7 +10089,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-34.72455612986623,173.09250689922118</t>
+          <t>-34.72455612406804,173.0925069296271</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-34.724568648131154,173.09244125287648</t>
+          <t>-34.72456864523208,173.09244126807945</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -10129,7 +10129,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-34.72456197443342,173.0924762500734</t>
+          <t>-34.724561968635236,173.0924762804793</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -10147,7 +10147,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-34.72454630482993,173.09255842201</t>
+          <t>-34.724546301930815,173.09255843721294</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-34.724552088529045,173.09252809213137</t>
+          <t>-34.72455208562996,173.09252810733432</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -10187,7 +10187,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-34.72456171931356,173.0924775879331</t>
+          <t>-34.724561725111755,173.09247755752722</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-34.72456627667933,173.09245368889236</t>
+          <t>-34.724566270881176,173.09245371929828</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -10227,7 +10227,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-34.724580401004474,173.09237962009294</t>
+          <t>-34.724580395206324,173.09237965049883</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-34.72458515258895,173.0923547024431</t>
+          <t>-34.72458514389174,173.09235474805197</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -10271,7 +10271,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-34.72457417088385,173.09241229124754</t>
+          <t>-34.724574165085684,173.09241232165343</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -10311,7 +10311,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-34.72456036253966,173.0924847029142</t>
+          <t>-34.724560365438755,173.09248468771122</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-34.72453194556828,173.09263372218655</t>
+          <t>-34.7245319542656,173.09263367657772</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-34.72454731081723,173.09255314658782</t>
+          <t>-34.72454731661543,173.0925531161819</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -10369,7 +10369,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-34.724539149847296,173.0925959428765</t>
+          <t>-34.72453915854461,173.09259589726767</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -10387,7 +10387,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-34.72454477700437,173.09256643396216</t>
+          <t>-34.724544779903475,173.09256641875922</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -10405,7 +10405,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-34.724550183822956,173.09253808046782</t>
+          <t>-34.724550178024764,173.0925381108737</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-34.724588886594425,173.09233512102986</t>
+          <t>-34.72458887789722,173.09233516663878</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-34.724573669342824,173.09241492135888</t>
+          <t>-34.72457367804005,173.09241487575</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-34.72458744285665,173.09234269210444</t>
+          <t>-34.72458743705852,173.09234272251038</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -10543,7 +10543,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-34.72455786352337,173.09249780785734</t>
+          <t>-34.72455786932155,173.09249777745146</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-34.724547794966654,173.0925506076958</t>
+          <t>-34.724547803663945,173.09255056208696</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -10583,7 +10583,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-34.724558997068065,173.09249186350388</t>
+          <t>-34.724559005765336,173.09249181789502</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-34.72458631221832,173.09234862125905</t>
+          <t>-34.72458632091554,173.0923485756502</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -10623,7 +10623,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-34.72455099556995,173.09253382364258</t>
+          <t>-34.72455098977176,173.0925338540485</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-34.724534137293844,173.09262222876333</t>
+          <t>-34.724534145991164,173.0926221831545</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -10659,7 +10659,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-34.724561017733954,173.09248126704728</t>
+          <t>-34.72456101483487,173.09248128225025</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -10677,7 +10677,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-34.72455137825061,173.09253181685355</t>
+          <t>-34.724551375351524,173.0925318320565</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -10699,7 +10699,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-34.724571625490036,173.09242563944238</t>
+          <t>-34.72457162838911,173.09242562423938</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-34.72455600810434,173.09250753774504</t>
+          <t>-34.724556002306144,173.09250756815095</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-34.724564563319085,173.0924626738374</t>
+          <t>-34.72456456621818,173.09246265863445</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -10779,7 +10779,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-34.72455779104608,173.0924981879311</t>
+          <t>-34.72455778814698,173.09249820313406</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-34.72455871585623,173.09249333819005</t>
+          <t>-34.72455872165441,173.09249330778417</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-34.72455974213435,173.09248795634562</t>
+          <t>-34.724559736336175,173.09248798675154</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -10845,7 +10845,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-34.72455685753845,173.0925030832809</t>
+          <t>-34.72455685463937,173.09250309848383</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -10867,7 +10867,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-34.724564615502665,173.09246240018425</t>
+          <t>-34.7245646068054,173.0924624457931</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -10889,7 +10889,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-34.724532565977476,173.09263046875728</t>
+          <t>-34.72453256307836,173.09263048396025</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -10907,7 +10907,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-34.724545159685576,173.09256442717344</t>
+          <t>-34.72454516548378,173.09256439676753</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-34.72454144593698,173.09258390214532</t>
+          <t>-34.724541451735185,173.09258387173946</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-34.724539781851895,173.09259262863492</t>
+          <t>-34.7245397876501,173.09259259822903</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -10987,7 +10987,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-34.72454989971147,173.09253957035662</t>
+          <t>-34.724549893913284,173.0925396007625</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-34.724556964804876,173.09250252077177</t>
+          <t>-34.7245569561076,173.09250256638063</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -11049,7 +11049,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-34.724540692170294,173.0925878549107</t>
+          <t>-34.724540700867614,173.09258780930188</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -11067,7 +11067,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-34.72453565352663,173.09261427762496</t>
+          <t>-34.724535647728416,173.09261430803087</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -11085,7 +11085,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-34.72457718302796,173.09239649537582</t>
+          <t>-34.72457718882612,173.0923964649699</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-34.72453866859603,173.09259846656505</t>
+          <t>-34.72453867149514,173.0925984513621</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-34.72453957891465,173.09259369284095</t>
+          <t>-34.72453958471286,173.09259366243506</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -11179,7 +11179,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-34.72458298118217,173.09236608945974</t>
+          <t>-34.72458297248494,173.09236613506863</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-34.72454571051454,173.09256153861384</t>
+          <t>-34.72454571341364,173.09256152341086</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-34.7245442667627,173.09256910968048</t>
+          <t>-34.72454427256091,173.09256907927463</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-34.72454118211865,173.09258528561324</t>
+          <t>-34.724541187916856,173.09258525520735</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-34.724571199324856,173.09242787427672</t>
+          <t>-34.724571202223935,173.09242785907378</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -11285,7 +11285,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-34.724538694687965,173.09259832973856</t>
+          <t>-34.724538691788865,173.0925983449415</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -11303,7 +11303,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-34.7245507984314,173.092534857443</t>
+          <t>-34.72455080712869,173.09253481183418</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-34.72454939236949,173.0925422308723</t>
+          <t>-34.724549386571304,173.09254226127823</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -11343,7 +11343,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-34.72453979634743,173.0925925526202</t>
+          <t>-34.7245397876501,173.09259259822903</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-34.724570605012815,173.09243099088243</t>
+          <t>-34.72457061371007,173.09243094527355</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-34.724597331581194,173.0922908347992</t>
+          <t>-34.7245973402784,173.0922907891903</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-34.724559889987965,173.09248718099514</t>
+          <t>-34.724559898685236,173.0924871353863</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-34.72455607478346,173.09250718807724</t>
+          <t>-34.72455608348074,173.09250714246838</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -11459,7 +11459,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-34.724617230724284,173.09218648162664</t>
+          <t>-34.724617227825235,173.09218649682964</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-34.7245958095714,173.09229881635534</t>
+          <t>-34.72459581826859,173.09229877074642</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -11503,7 +11503,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-34.72456352254666,173.09246813169722</t>
+          <t>-34.72456353124391,173.09246808608833</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -11547,7 +11547,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-34.72453492295182,173.09261810876626</t>
+          <t>-34.7245349171536,173.09261813917215</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -11565,7 +11565,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-34.7245547267051,173.0925142574485</t>
+          <t>-34.724554723806,173.09251427265144</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -11587,7 +11587,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-34.72455085061513,173.09253458378996</t>
+          <t>-34.724550847716046,173.0925345989929</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -11609,7 +11609,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-34.72453959051107,173.09259363202918</t>
+          <t>-34.72453958471286,173.09259366243506</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">

--- a/data/nzd0014/nzd0014.xlsx
+++ b/data/nzd0014/nzd0014.xlsx
@@ -7123,13 +7123,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1161</v>
+        <v>0.0784</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1709</v>
+        <v>0.1298</v>
       </c>
       <c r="I2" t="n">
         <v>0.01874337809980859</v>
@@ -7207,7 +7207,7 @@
         <v>0.01</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0103</v>
+        <v>0.0108</v>
       </c>
       <c r="I3" t="n">
         <v>-1.877366107938466</v>

--- a/data/nzd0014/nzd0014.xlsx
+++ b/data/nzd0014/nzd0014.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>372.71</v>
+        <v>373.25</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>381.9</v>
+        <v>379.61</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373.45</v>
+        <v>372.74</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>386.35</v>
+        <v>385.18</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>366.59</v>
+        <v>369.22</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>374.31</v>
+        <v>374.4</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.85</v>
+        <v>375.59</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>382.95</v>
+        <v>380.66</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>376.27</v>
+        <v>378.81</v>
       </c>
       <c r="C10" t="n">
         <v>476.5</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>371.35</v>
+        <v>373.64</v>
       </c>
       <c r="C11" t="n">
         <v>452.4</v>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>359.12</v>
+        <v>357.41</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>367.07</v>
+        <v>368.87</v>
       </c>
       <c r="C13" t="n">
         <v>476.36</v>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.44</v>
+        <v>376.75</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>363.09</v>
+        <v>361.6</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>358.49</v>
+        <v>357.55</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>360.06</v>
+        <v>359.72</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>357.43</v>
+        <v>360.06</v>
       </c>
       <c r="C18" t="n">
         <v>454.39</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>379.24</v>
+        <v>381.27</v>
       </c>
       <c r="C19" t="n">
         <v>457.8</v>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.47</v>
+        <v>377.3</v>
       </c>
       <c r="C20" t="n">
         <v>417.89</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>364.66</v>
+        <v>363.72</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.77</v>
+        <v>374.03</v>
       </c>
       <c r="C22" t="n">
         <v>389.48</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>372.89</v>
+        <v>375.06</v>
       </c>
       <c r="C24" t="n">
         <v>463.22</v>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>382.25</v>
+        <v>384.91</v>
       </c>
       <c r="C25" t="n">
         <v>483.09</v>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>378.55</v>
+        <v>381.44</v>
       </c>
       <c r="C26" t="n">
         <v>490.19</v>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>375.43</v>
+        <v>376.06</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>373.8</v>
+        <v>372</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.84</v>
+        <v>378.18</v>
       </c>
       <c r="C29" t="n">
         <v>434.25</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>347.69</v>
+        <v>349.12</v>
       </c>
       <c r="C30" t="n">
         <v>409.52</v>
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>375.59</v>
+        <v>375.93</v>
       </c>
       <c r="C31" t="n">
         <v>424.68</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>357.02</v>
+        <v>356.96</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>384.51</v>
+        <v>387.71</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>370.4</v>
+        <v>369.49</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>370.75</v>
+        <v>371.61</v>
       </c>
       <c r="C35" t="n">
         <v>417.49</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>389.38</v>
+        <v>387.81</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>383.86</v>
+        <v>382.55</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.5</v>
+        <v>382.87</v>
       </c>
       <c r="C38" t="n">
         <v>403.77</v>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>370.12</v>
+        <v>368.01</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>383.59</v>
+        <v>386.3</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>388.2</v>
+        <v>386.46</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>372.94</v>
+        <v>372.91</v>
       </c>
       <c r="C42" t="n">
         <v>380.37</v>
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>364.39</v>
+        <v>365.88</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>388.02</v>
+        <v>386.71</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>346.9</v>
+        <v>350.3</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>374.53</v>
+        <v>373.87</v>
       </c>
       <c r="C46" t="n">
         <v>364.21</v>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>367.54</v>
+        <v>369.71</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>365.86</v>
+        <v>367.55</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>383.8</v>
+        <v>382.23</v>
       </c>
       <c r="C49" t="n">
         <v>336.51</v>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>379.66</v>
+        <v>380.09</v>
       </c>
       <c r="C51" t="n">
         <v>436.06</v>
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>372.7</v>
+        <v>370.56</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>387.3</v>
+        <v>389.21</v>
       </c>
       <c r="C53" t="n">
         <v>456.39</v>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>384.01</v>
+        <v>386.9</v>
       </c>
       <c r="C54" t="n">
         <v>486.84</v>
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>365.4</v>
+        <v>367.86</v>
       </c>
       <c r="C55" t="n">
         <v>446.63</v>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>377.54</v>
+        <v>378.8</v>
       </c>
       <c r="C56" t="n">
         <v>427.08</v>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>360.6</v>
+        <v>359.69</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>381.12</v>
+        <v>382.63</v>
       </c>
       <c r="C58" t="n">
         <v>442.8</v>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>374.05</v>
+        <v>373.14</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>368.73</v>
+        <v>369.44</v>
       </c>
       <c r="C60" t="n">
         <v>412.45</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>372.62</v>
+        <v>373.13</v>
       </c>
       <c r="C61" t="n">
         <v>407.64</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>362.27</v>
+        <v>365.44</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>356.67</v>
+        <v>357.93</v>
       </c>
       <c r="C63" t="n">
         <v>419.04</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>376.16</v>
+        <v>374.22</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>372.21</v>
+        <v>370.5</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>360.25</v>
+        <v>358.54</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>360.09</v>
+        <v>363.43</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>375.18</v>
+        <v>375.81</v>
       </c>
       <c r="C70" t="n">
         <v>410.51</v>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>377.84</v>
+        <v>376.7</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>375.03</v>
+        <v>375.32</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>365.6</v>
+        <v>363.91</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>353.66</v>
+        <v>351.83</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>378.08</v>
+        <v>376.88</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>376.64</v>
+        <v>377.24</v>
       </c>
       <c r="C77" t="n">
         <v>406.22</v>
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>374.33</v>
+        <v>373.1</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>375.76</v>
+        <v>376.42</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>400.13</v>
+        <v>398.47</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>350.23</v>
+        <v>348.29</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>376</v>
+        <v>377.11</v>
       </c>
       <c r="C83" t="n">
         <v>426.42</v>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>366.07</v>
+        <v>365.04</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>361.19</v>
+        <v>363.42</v>
       </c>
       <c r="C85" t="n">
         <v>448.32</v>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>372.77</v>
+        <v>371.63</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>361.06</v>
+        <v>362.52</v>
       </c>
       <c r="C87" t="n">
         <v>422.66</v>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>364.52</v>
+        <v>365.41</v>
       </c>
       <c r="C88" t="n">
         <v>419.23</v>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>373.39</v>
+        <v>372.36</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>382.57</v>
+        <v>384.71</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>374.59</v>
+        <v>374.76</v>
       </c>
       <c r="C91" t="n">
         <v>390.58</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>378.34</v>
+        <v>378.71</v>
       </c>
       <c r="C92" t="n">
         <v>404.7</v>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>369.28</v>
+        <v>367.77</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>359.52</v>
+        <v>362.75</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>356.62</v>
+        <v>358.08</v>
       </c>
       <c r="C95" t="n">
         <v>421.53</v>
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>370.32</v>
+        <v>368.66</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>367.09</v>
+        <v>365.29</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>366.63</v>
+        <v>367.92</v>
       </c>
       <c r="C98" t="n">
         <v>428.75</v>
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>363.12</v>
+        <v>361.46</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>383.46</v>
+        <v>380.97</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>375.67</v>
+        <v>376.96</v>
       </c>
       <c r="C102" t="n">
         <v>431.1</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>375.2</v>
+        <v>374.6</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>377.56</v>
+        <v>378.47</v>
       </c>
       <c r="C104" t="n">
         <v>429.71</v>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>368.04</v>
+        <v>366.15</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>360.53</v>
+        <v>363.1</v>
       </c>
       <c r="C106" t="n">
         <v>462.13</v>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>378.35</v>
+        <v>377.52</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>380.19</v>
+        <v>380.62</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>380.53</v>
+        <v>382.36</v>
       </c>
       <c r="C109" t="n">
         <v>454.43</v>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>386.38</v>
+        <v>388.18</v>
       </c>
       <c r="C110" t="n">
         <v>457.9</v>
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>379.2</v>
+        <v>380.6</v>
       </c>
       <c r="C111" t="n">
         <v>439.08</v>
@@ -2311,7 +2311,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>378.56</v>
+        <v>376.67</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>378.33</v>
+        <v>377.47</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>376.07</v>
+        <v>376.58</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>383.1</v>
+        <v>384.93</v>
       </c>
       <c r="C115" t="n">
         <v>453.1</v>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>383.43</v>
+        <v>381.06</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>384.43</v>
+        <v>385.72</v>
       </c>
       <c r="C118" t="n">
         <v>427.5</v>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>383.97</v>
+        <v>386.86</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>360.98</v>
+        <v>364.12</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>380.25</v>
+        <v>379.31</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>366.82</v>
+        <v>365.13</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>378.66</v>
+        <v>378.92</v>
       </c>
       <c r="C123" t="n">
         <v>399.26</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>372.29</v>
+        <v>370.83</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>383.61</v>
+        <v>382.32</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
@@ -2541,7 +2541,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>371.22</v>
+        <v>370.91</v>
       </c>
       <c r="C126" t="n">
         <v>381.86</v>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>373.59</v>
+        <v>372.48</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>378.4</v>
+        <v>377.6</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>371.08</v>
+        <v>369.74</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>358.36</v>
+        <v>358.96</v>
       </c>
       <c r="C131" t="n">
         <v>400.36</v>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>355.75</v>
+        <v>359.12</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>373.67</v>
+        <v>373.78</v>
       </c>
       <c r="C133" t="n">
         <v>385.8</v>
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>371.24</v>
+        <v>370.07</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>364.67</v>
+        <v>362.53</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>377.24</v>
+        <v>376.53</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
@@ -2723,7 +2723,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>370.22</v>
+        <v>369.93</v>
       </c>
       <c r="C137" t="n">
         <v>377.41</v>
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>378.45</v>
+        <v>379.56</v>
       </c>
       <c r="C138" t="n">
         <v>410.1</v>
@@ -2759,7 +2759,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>374.22</v>
+        <v>372.82</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>371.9</v>
+        <v>370.33</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>374.32</v>
+        <v>374.49</v>
       </c>
       <c r="C141" t="n">
         <v>377.45</v>
@@ -2809,7 +2809,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>378.91</v>
+        <v>380.91</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>367.72</v>
+        <v>370.23</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>371</v>
+        <v>373.11</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>373.38</v>
+        <v>373.12</v>
       </c>
       <c r="C145" t="n">
         <v>378.42</v>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>367.21</v>
+        <v>365.58</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>370.5</v>
+        <v>368.44</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>378.22</v>
+        <v>377.99</v>
       </c>
       <c r="C148" t="n">
         <v>388.04</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>375.37</v>
+        <v>373.94</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
@@ -2941,7 +2941,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>370.62</v>
+        <v>368.68</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>368.38</v>
+        <v>369.12</v>
       </c>
       <c r="C151" t="n">
         <v>411.99</v>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>361.42</v>
+        <v>363.56</v>
       </c>
       <c r="C152" t="n">
         <v>462.38</v>
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>359.08</v>
+        <v>362.39</v>
       </c>
       <c r="C153" t="n">
         <v>487.4</v>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>364.49</v>
+        <v>366.83</v>
       </c>
       <c r="C154" t="n">
         <v>459.81</v>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>365.48</v>
+        <v>362.88</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>371.29</v>
+        <v>370.72</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
@@ -3061,7 +3061,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>385.29</v>
+        <v>386.98</v>
       </c>
       <c r="C157" t="n">
         <v>496.08</v>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>377.72</v>
+        <v>376.98</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>381.74</v>
+        <v>383.63</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>378.97</v>
+        <v>380</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>376.31</v>
+        <v>375.25</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>366.39</v>
+        <v>364.39</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>357.24</v>
+        <v>356.75</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
@@ -3175,7 +3175,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>364.73</v>
+        <v>366.82</v>
       </c>
       <c r="C164" t="n">
         <v>452.72</v>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>357.95</v>
+        <v>361.09</v>
       </c>
       <c r="C165" t="n">
         <v>482.27</v>
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>351.39</v>
+        <v>353.99</v>
       </c>
       <c r="C166" t="n">
         <v>461.77</v>
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>372.52</v>
+        <v>370.58</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>377.48</v>
+        <v>378.17</v>
       </c>
       <c r="C169" t="n">
         <v>413.61</v>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>371.96</v>
+        <v>371.25</v>
       </c>
       <c r="C170" t="n">
         <v>387.58</v>
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>358.5</v>
+        <v>357.39</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>375.91</v>
+        <v>378.25</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>384.21</v>
+        <v>386.1</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
@@ -3345,7 +3345,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>370.97</v>
+        <v>368.34</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>375.72</v>
+        <v>375.29</v>
       </c>
       <c r="C175" t="n">
         <v>372.97</v>
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>365.74</v>
+        <v>365.37</v>
       </c>
       <c r="C176" t="n">
         <v>364.93</v>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>372.54</v>
+        <v>371.34</v>
       </c>
       <c r="C177" t="n">
         <v>328.68</v>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>373.44</v>
+        <v>375.98</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>369.22</v>
+        <v>367.65</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>372.56</v>
+        <v>371.93</v>
       </c>
       <c r="C180" t="n">
         <v>354.46</v>
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>372.1</v>
+        <v>371.76</v>
       </c>
       <c r="C181" t="n">
         <v>366.13</v>
@@ -3483,7 +3483,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>371.6</v>
+        <v>371.74</v>
       </c>
       <c r="C182" t="n">
         <v>389.92</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>373.02</v>
+        <v>373.19</v>
       </c>
       <c r="C183" t="n">
         <v>389.47</v>
@@ -3519,7 +3519,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>369.2</v>
+        <v>368.71</v>
       </c>
       <c r="C184" t="n">
         <v>363.26</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>384.99</v>
+        <v>382.76</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
@@ -3553,7 +3553,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>378.78</v>
+        <v>377.84</v>
       </c>
       <c r="C186" t="n">
         <v>363.91</v>
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>380.61</v>
+        <v>381.07</v>
       </c>
       <c r="C187" t="n">
         <v>403.36</v>
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>381.43</v>
+        <v>380.69</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
@@ -3605,7 +3605,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>387.15</v>
+        <v>386.15</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>376.45</v>
+        <v>375.39</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>381.21</v>
+        <v>382.81</v>
       </c>
       <c r="C191" t="n">
         <v>439.39</v>
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>372.97</v>
+        <v>373.68</v>
       </c>
       <c r="C192" t="n">
         <v>412.23</v>
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>380.98</v>
+        <v>380.27</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>383.47</v>
+        <v>382.01</v>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>363</v>
+        <v>365.46</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>365.85</v>
+        <v>366.25</v>
       </c>
       <c r="C196" t="n">
         <v>385.39</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>379.48</v>
+        <v>382.68</v>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>381.98</v>
+        <v>380.81</v>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>381.53</v>
+        <v>383.19</v>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>360.15</v>
+        <v>359.86</v>
       </c>
       <c r="C200" t="n">
         <v>357.24</v>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>378.51</v>
+        <v>378.34</v>
       </c>
       <c r="C201" t="n">
         <v>382.16</v>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>379.22</v>
+        <v>379.88</v>
       </c>
       <c r="C202" t="n">
         <v>411.2</v>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>380.74</v>
+        <v>380.2</v>
       </c>
       <c r="C203" t="n">
         <v>373.28</v>
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>365.95</v>
+        <v>367.98</v>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
@@ -3875,7 +3875,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>381.97</v>
+        <v>383.74</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>376</v>
+        <v>376.29</v>
       </c>
       <c r="C206" t="n">
         <v>382.68</v>
@@ -3909,7 +3909,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>376.7</v>
+        <v>375.64</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>381.43</v>
+        <v>383.94</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>366.24</v>
+        <v>364.13</v>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>381.71</v>
+        <v>382.71</v>
       </c>
       <c r="C210" t="n">
         <v>420.37</v>
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>353.07</v>
+        <v>355.76</v>
       </c>
       <c r="C211" t="n">
         <v>450.45</v>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>371.52</v>
+        <v>371.61</v>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>373.4</v>
+        <v>372.09</v>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
@@ -4025,7 +4025,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>343.27</v>
+        <v>345.64</v>
       </c>
       <c r="C214" t="n">
         <v>432.91</v>
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>353.82</v>
+        <v>355.11</v>
       </c>
       <c r="C215" t="n">
         <v>408.41</v>
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>369.73</v>
+        <v>369.22</v>
       </c>
       <c r="C216" t="n">
         <v>370.78</v>
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>374.8</v>
+        <v>374.2</v>
       </c>
       <c r="C217" t="n">
         <v>366.23</v>
@@ -4097,7 +4097,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>383.83</v>
+        <v>381.17</v>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
@@ -4113,7 +4113,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>374.07</v>
+        <v>373.04</v>
       </c>
       <c r="C219" t="n">
         <v>351.85</v>
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>375.98</v>
+        <v>376.15</v>
       </c>
       <c r="C220" t="n">
         <v>377.88</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>381.53</v>
+        <v>381.27</v>
       </c>
       <c r="C221" t="n">
         <v>366.63</v>
@@ -4157,6 +4157,24 @@
       <c r="D221" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-19 22:17:50+00:00</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>373.74</v>
+      </c>
+      <c r="C222" t="n">
+        <v>363.93</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6959,6 +6977,16 @@
       </c>
       <c r="B278" t="n">
         <v>-0.09</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-10-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>-0.24</v>
       </c>
     </row>
   </sheetData>
@@ -7123,39 +7151,43 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0784</v>
+        <v>0.0781</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1298</v>
+        <v>0.1291</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01874337809980859</v>
+        <v>0.008727162818138873</v>
       </c>
       <c r="J2" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K2" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002648221685296326</v>
+        <v>5.967336563827974e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>7.151166085980697</v>
+        <v>7.129618172794601</v>
       </c>
       <c r="N2" t="n">
-        <v>82.5588205282918</v>
+        <v>79.83956893890529</v>
       </c>
       <c r="O2" t="n">
-        <v>9.086188448865222</v>
+        <v>8.935299040261903</v>
       </c>
       <c r="P2" t="n">
-        <v>372.358477219704</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+        <v>372.6829352656346</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Hidden</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.0885333592061 -34.72531378355838, 173.09841884187497 -34.72342860624765)</t>
@@ -7210,28 +7242,28 @@
         <v>0.0108</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.877366107938466</v>
+        <v>-1.932050004452273</v>
       </c>
       <c r="J3" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K3" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1547389560599077</v>
+        <v>0.1638243213143273</v>
       </c>
       <c r="M3" t="n">
-        <v>27.83325350331103</v>
+        <v>27.82125621680477</v>
       </c>
       <c r="N3" t="n">
-        <v>1175.648381294784</v>
+        <v>1173.851029033023</v>
       </c>
       <c r="O3" t="n">
-        <v>34.28772931085965</v>
+        <v>34.26150943891735</v>
       </c>
       <c r="P3" t="n">
-        <v>445.0228986232729</v>
+        <v>445.5528212588123</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -7269,7 +7301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7307,7 +7339,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-34.72455748374235,173.09249979944377</t>
+          <t>-34.72455638788548,173.0925055461587</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -7325,7 +7357,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-34.72453883384497,173.0925975999973</t>
+          <t>-34.72454348110639,173.09257322967852</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -7343,7 +7375,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-34.7245559820125,173.09250767457158</t>
+          <t>-34.72455742286141,173.09250011870574</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -7361,7 +7393,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-34.7245298031265,173.09264495715914</t>
+          <t>-34.72453217749696,173.09263250595131</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -7379,7 +7411,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-34.72456990343459,173.09243466999737</t>
+          <t>-34.72456456621818,173.09246265863445</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -7397,7 +7429,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-34.72455423675824,173.09251682674682</t>
+          <t>-34.724554054115316,173.09251778453256</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -7415,7 +7447,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-34.72454908216608,173.09254385758763</t>
+          <t>-34.72455163916924,173.09253044858826</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -7433,7 +7465,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-34.72453670300294,173.09260877416003</t>
+          <t>-34.724541350266605,173.0925844038425</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -7451,7 +7483,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-34.724550259199475,173.09253768519116</t>
+          <t>-34.72454510460269,173.0925647160294</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7473,7 +7505,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-34.72456024367697,173.09248532623516</t>
+          <t>-34.72455559643313,173.09250969656384</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7495,7 +7527,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-34.724585062717665,173.09235517373483</t>
+          <t>-34.72458853290772,173.09233697579114</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -7513,7 +7545,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-34.72456892934235,173.09243977818997</t>
+          <t>-34.7245652764945,173.09245893391108</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7535,7 +7567,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-34.72454991420695,173.09253949434188</t>
+          <t>-34.724549285102896,173.09254279338134</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -7553,7 +7585,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-34.724577006184134,173.0923974227562</t>
+          <t>-34.72458002992262,173.09238156607157</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -7571,7 +7603,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-34.724586341209054,173.09234846922948</t>
+          <t>-34.72458824879868,173.09233846568134</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -7589,7 +7621,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-34.72458315512668,173.09236517728223</t>
+          <t>-34.724583845106494,173.0923615589779</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -7607,7 +7639,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-34.72458849232071,173.0923371886326</t>
+          <t>-34.72458315512668,173.09236517728223</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7629,7 +7661,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-34.7245442319735,173.09256929211583</t>
+          <t>-34.724540112349686,173.0925908954994</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7651,7 +7683,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-34.72454985332592,173.09253981360376</t>
+          <t>-34.724548168950314,173.09254864651575</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -7673,7 +7705,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-34.72457382009503,173.09241413080517</t>
+          <t>-34.72457572769006,173.0924041272601</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -7691,7 +7723,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-34.724555332615644,173.09251108003218</t>
+          <t>-34.72455480498062,173.09251384696887</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7731,7 +7763,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-34.72455711845676,173.09250171501546</t>
+          <t>-34.72455271473361,173.09252480829466</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7753,7 +7785,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-34.72453812356441,173.09260132471826</t>
+          <t>-34.724532725428425,173.09262963259553</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -7775,7 +7807,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-34.72454563223885,173.09256194909335</t>
+          <t>-34.72453976735638,173.09259270464963</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -7797,7 +7829,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-34.72455196386796,173.09252874585812</t>
+          <t>-34.72455068536665,173.09253545035796</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -7815,7 +7847,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-34.72455527173468,173.09251139929412</t>
+          <t>-34.72455892459079,173.09249224357765</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -7833,7 +7865,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-34.72454910245976,173.09254375116697</t>
+          <t>-34.72454638310558,173.09255801153046</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7855,7 +7887,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-34.7246082581468,173.09223353481892</t>
+          <t>-34.724605356188114,173.09224875298975</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7877,7 +7909,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-34.72455163916924,173.09253044858826</t>
+          <t>-34.724550949184405,173.09253406688975</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7899,7 +7931,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-34.72458932435418,173.0923328253827</t>
+          <t>-34.72458944611517,173.09233218685833</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -7917,7 +7949,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-34.72453353717862,173.09262537577214</t>
+          <t>-34.72452704317292,173.09265943035712</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -7935,7 +7967,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-34.72456217157147,173.0924752162727</t>
+          <t>-34.72456401829065,173.0924655319924</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -7953,7 +7985,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-34.724561461294634,173.09247894099576</t>
+          <t>-34.72455971604255,173.09248809317216</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7975,7 +8007,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-34.72452365410992,173.09267720259155</t>
+          <t>-34.724526840235086,173.09266049456284</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -7993,7 +8025,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-34.724534856272356,173.0926184584339</t>
+          <t>-34.72453751475241,173.09260451733618</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -8011,7 +8043,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-34.72453761622107,173.0926039852332</t>
+          <t>-34.72453686535285,173.09260792279528</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8033,7 +8065,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-34.72456273979283,173.0924722364942</t>
+          <t>-34.72456702174441,173.09244978173342</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -8051,7 +8083,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-34.7245354042035,173.09261558507797</t>
+          <t>-34.72452990459535,173.09264442505628</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -8069,7 +8101,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-34.72452604877746,173.092664644965</t>
+          <t>-34.72452957989504,173.0926461277855</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -8087,7 +8119,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-34.724557016988534,173.0925022471187</t>
+          <t>-34.72455707786947,173.09250192785674</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8109,7 +8141,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-34.72457436802135,173.0924112574465</t>
+          <t>-34.724571344279,173.09242711412898</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -8127,7 +8159,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-34.724526414065615,173.09266272939476</t>
+          <t>-34.72452907255072,173.0926487882999</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -8145,7 +8177,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-34.72460986132595,173.09222512757722</t>
+          <t>-34.72460296156344,173.09226131064037</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -8163,7 +8195,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-34.72455379029773,173.09251916800088</t>
+          <t>-34.72455512967911,173.0925121442386</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8185,7 +8217,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-34.72456797554348,173.09244477996177</t>
+          <t>-34.72456357183114,173.09246787324702</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -8203,7 +8235,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-34.724571384866174,173.0924269012876</t>
+          <t>-34.724567955249874,173.09244488638245</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -8221,7 +8253,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-34.72453497803484,173.09261781991037</t>
+          <t>-34.724538164151866,173.0926011118771</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -8261,7 +8293,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-34.72454337963785,173.09257376178155</t>
+          <t>-34.72454250700834,173.09257833786785</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -8283,7 +8315,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-34.72455750403599,173.09249969302311</t>
+          <t>-34.72456184687349,173.09247691900325</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -8301,7 +8333,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-34.72452787521794,173.09265506711372</t>
+          <t>-34.72452399910448,173.092675393442</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -8323,7 +8355,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-34.72453455186615,173.09262005474275</t>
+          <t>-34.724528686969016,173.0926508102908</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -8345,7 +8377,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-34.72457231837073,173.0924220059361</t>
+          <t>-34.72456732614838,173.09244818542334</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -8367,7 +8399,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-34.72454768190181,173.0925512006107</t>
+          <t>-34.72454512489638,173.09256460960876</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8389,7 +8421,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-34.724582059276145,173.0923709240007</t>
+          <t>-34.72458390598706,173.09236123971576</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -8407,7 +8439,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-34.72454041675551,173.09258929919034</t>
+          <t>-34.72453735240253,173.09260536870096</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -8429,7 +8461,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-34.724554764393325,173.09251405981016</t>
+          <t>-34.72455661111561,173.0925043755316</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -8447,7 +8479,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-34.72456556060499,173.0924574440217</t>
+          <t>-34.72456411975872,173.09246499988907</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -8469,7 +8501,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-34.72455766638513,173.09249884165794</t>
+          <t>-34.72455663140924,173.09250426911095</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -8491,7 +8523,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-34.72457867025524,173.09238869625875</t>
+          <t>-34.724572237196426,173.09242243161887</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -8509,7 +8541,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-34.724590034626544,173.0923291006571</t>
+          <t>-34.72458747764552,173.09234250966892</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -8549,7 +8581,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-34.724550482429905,173.09253651456424</t>
+          <t>-34.72455441940116,173.09251586896104</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -8567,7 +8599,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-34.7245584984244,173.0924944784113</t>
+          <t>-34.724561968635236,173.0924762804793</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -8603,7 +8635,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-34.72458276954968,173.09236719927577</t>
+          <t>-34.72458623974149,173.09234900133305</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -8621,7 +8653,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-34.72458309424609,173.09236549654437</t>
+          <t>-34.72457631620324,173.0924010410599</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -8639,7 +8671,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-34.72455247120963,173.09252608534226</t>
+          <t>-34.724551192708475,173.09253278984215</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8661,7 +8693,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-34.72454707309113,173.09255439322936</t>
+          <t>-34.724549386571304,173.09254226127823</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -8679,7 +8711,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-34.72455277561462,173.09252448903274</t>
+          <t>-34.7245521870983,173.09252757523114</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -8715,7 +8747,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-34.724571912499194,173.0924241343498</t>
+          <t>-34.724575342112416,173.09240614925326</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -8733,7 +8765,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-34.72459614296406,173.0922970680145</t>
+          <t>-34.7245998566668,173.0922775930168</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -8751,7 +8783,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-34.72454658604253,173.09255694732428</t>
+          <t>-34.72454902128504,173.0925441768495</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -8769,7 +8801,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-34.72454950833338,173.09254162275442</t>
+          <t>-34.72454829071241,173.09254800799198</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8791,7 +8823,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-34.72455419617092,173.09251703958807</t>
+          <t>-34.72455669229019,173.092503949849</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -8827,7 +8859,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-34.724551294176834,173.092532257739</t>
+          <t>-34.72454995479432,173.09253928150062</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -8845,7 +8877,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-34.724501838223176,173.09279160466446</t>
+          <t>-34.724505207008974,173.09277393885995</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -8863,7 +8895,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-34.724603103617476,173.092260565695</t>
+          <t>-34.72460704054199,173.09223992006554</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -8881,7 +8913,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-34.72455080712869,173.09253481183418</t>
+          <t>-34.72454855453033,173.0925466245239</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -8903,7 +8935,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-34.72457095870097,173.09242913612198</t>
+          <t>-34.72457304893937,173.09241817479136</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -8921,7 +8953,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-34.72458086195768,173.09237720282258</t>
+          <t>-34.72457633649681,173.09240093463922</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -8943,7 +8975,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-34.72455736198049,173.0925004379677</t>
+          <t>-34.72455967545527,173.0924883060135</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -8961,7 +8993,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-34.724581125773646,173.09237581935335</t>
+          <t>-34.72457816291654,173.09239135677632</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -8983,7 +9015,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-34.724574104205,173.0924126409155</t>
+          <t>-34.72457229807714,173.0924221123568</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9005,7 +9037,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-34.72455610377438,173.09250703604772</t>
+          <t>-34.72455819401981,173.09249607472108</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -9023,7 +9055,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-34.724537474164926,173.09260473017738</t>
+          <t>-34.72453313130353,173.09262750418384</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -9041,7 +9073,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-34.724553668535776,173.0925198065247</t>
+          <t>-34.72455332354353,173.09252161567554</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -9063,7 +9095,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-34.72454605840646,173.09255971426035</t>
+          <t>-34.72454530753968,173.0925636518232</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -9085,7 +9117,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-34.72456444445652,173.09246329715842</t>
+          <t>-34.72456750879076,173.09244722763725</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -9103,7 +9135,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-34.724584250976925,173.0923594305636</t>
+          <t>-34.72457769616491,173.09239380445243</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -9121,7 +9153,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-34.724590136094,173.09232856855348</t>
+          <t>-34.724587173242945,173.0923441059798</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -9143,7 +9175,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-34.72456233392043,173.09247436490742</t>
+          <t>-34.724565702660236,173.09245669907702</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -9161,7 +9193,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-34.724568888755165,173.0924399910313</t>
+          <t>-34.72457254160005,173.09242083530853</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -9179,7 +9211,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-34.72456982226025,173.09243509568012</t>
+          <t>-34.7245672043868,173.09244882394736</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -9201,7 +9233,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-34.72457694530346,173.09239774201828</t>
+          <t>-34.724580314032174,173.09238007618168</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -9237,7 +9269,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-34.724535668022156,173.09261420161027</t>
+          <t>-34.724540721161326,173.09258770288125</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -9255,7 +9287,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-34.724551476819876,173.09253129995332</t>
+          <t>-34.724548858935584,173.0925450282145</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -9277,7 +9309,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-34.7245524306223,173.09252629818351</t>
+          <t>-34.724553648242114,173.09251991294533</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -9295,7 +9327,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-34.72454764131445,173.09255141345193</t>
+          <t>-34.724545794588416,173.09256109772838</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -9317,7 +9349,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-34.7245669608636,173.09245010099545</t>
+          <t>-34.7245707963523,173.09242998748744</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -9335,7 +9367,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-34.72458220133086,173.0923701790557</t>
+          <t>-34.72457698589058,173.09239752917688</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -9357,7 +9389,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-34.72454603811277,173.09255982068098</t>
+          <t>-34.724547722489206,173.09255098776944</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -9375,7 +9407,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-34.72454230407121,173.09257940207394</t>
+          <t>-34.72454143144147,173.09258397816006</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -9393,7 +9425,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-34.72454161408492,173.09258302037458</t>
+          <t>-34.72453790033335,173.09260249534486</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -9415,7 +9447,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-34.724529742245196,173.09264527642088</t>
+          <t>-34.72452608936504,173.09266443212385</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -9437,7 +9469,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-34.724544313148314,173.09256886643337</t>
+          <t>-34.72454147202891,173.09258376531884</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -9459,7 +9491,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-34.72454561194515,173.09256205551395</t>
+          <t>-34.72454944745234,173.0925419420163</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -9477,7 +9509,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-34.72454607870017,173.09255960783975</t>
+          <t>-34.72454782395763,173.09255045566636</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -9495,7 +9527,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-34.724550665072975,173.09253555677859</t>
+          <t>-34.72454963009547,173.09254098423068</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -9513,7 +9545,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-34.72453639859686,173.09261037046895</t>
+          <t>-34.72453268484092,173.09262984543673</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -9553,7 +9585,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-34.72453572890338,173.09261388234847</t>
+          <t>-34.724540538517836,173.0925886606667</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -9571,7 +9603,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-34.72453369952864,173.09262452440746</t>
+          <t>-34.72453108163383,173.09263825266274</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -9593,7 +9625,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-34.724534633041145,173.0926196290604</t>
+          <t>-34.72452876814412,173.0926503846085</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -9611,7 +9643,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-34.72458128812192,173.0923749679877</t>
+          <t>-34.724574915947585,173.09240838408783</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -9629,7 +9661,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-34.72454218230892,173.0925800405976</t>
+          <t>-34.724544089917565,173.09257003706014</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -9647,7 +9679,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-34.72456943668208,173.09243711767303</t>
+          <t>-34.72457286629722,173.09241913257756</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -9665,7 +9697,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-34.724545409008165,173.09256311972013</t>
+          <t>-34.724544881371976,173.09256588665616</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -9687,7 +9719,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-34.72455833607528,173.0924953297765</t>
+          <t>-34.72456129894564,173.09247979236102</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -9705,7 +9737,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-34.72453536361599,173.09261579791914</t>
+          <t>-34.724537981508284,173.09260206966246</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -9723,7 +9755,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-34.724560507494154,173.09248394276665</t>
+          <t>-34.72456113659662,173.09248064372628</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -9745,7 +9777,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-34.72455569790139,173.0925091644606</t>
+          <t>-34.72455795049612,173.09249735176886</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -9763,7 +9795,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-34.7245459366443,173.09256035278406</t>
+          <t>-34.72454756013969,173.09255183913444</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -9799,7 +9831,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-34.724560791604965,173.09248245287748</t>
+          <t>-34.724563510950304,173.09246819250902</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -9817,7 +9849,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-34.7245866050247,173.09234708576005</t>
+          <t>-34.72458538741394,173.09235347100335</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -9839,7 +9871,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-34.7245919016276,173.0923193099496</t>
+          <t>-34.724585062717665,173.09235517373483</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -9857,7 +9889,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-34.72455553555216,173.09251001582575</t>
+          <t>-34.724555312321996,173.0925111864528</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -9879,7 +9911,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-34.7245604669069,173.09248415560793</t>
+          <t>-34.724562841260926,173.09247170439087</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -9897,7 +9929,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-34.72457379980147,173.09241423722588</t>
+          <t>-34.724578142623,173.092391463197</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -9915,7 +9947,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-34.72454829071241,173.09254800799198</t>
+          <t>-34.72454973156385,173.09254045212754</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -9933,7 +9965,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-34.72456253685663,173.0924733007008</t>
+          <t>-34.724563125371574,173.09247021450162</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -9955,7 +9987,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-34.72454583517582,173.09256088488718</t>
+          <t>-34.72454358257492,173.09257269757546</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -9977,7 +10009,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-34.72455441940116,173.09251586896104</t>
+          <t>-34.72455726051227,173.09250097007092</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -9995,7 +10027,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-34.72455912752715,173.0924911793711</t>
+          <t>-34.7245623136268,173.09247447132805</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -10013,7 +10045,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-34.72455421646458,173.09251693316745</t>
+          <t>-34.72455387147237,173.0925187423183</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -10035,7 +10067,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-34.72454490166567,173.09256578023553</t>
+          <t>-34.72454084292364,173.09258706435762</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -10053,7 +10085,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-34.724567610258745,173.0924466955339</t>
+          <t>-34.72456251656302,173.09247340712147</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -10071,7 +10103,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-34.72456095395399,173.09248160151222</t>
+          <t>-34.724556671996524,173.09250405626966</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -10089,7 +10121,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-34.72455612406804,173.0925069296271</t>
+          <t>-34.724556651702905,173.09250416269032</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -10111,7 +10143,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-34.72456864523208,173.09244126807945</t>
+          <t>-34.724571953086354,173.09242392150844</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -10129,7 +10161,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-34.724561968635236,173.0924762804793</t>
+          <t>-34.72456614911954,173.0924543578223</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -10147,7 +10179,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-34.724546301930815,173.09255843721294</t>
+          <t>-34.72454676868576,173.09255598953868</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -10169,7 +10201,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-34.72455208562996,173.09252810733432</t>
+          <t>-34.724554987623534,173.0925128891831</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -10187,7 +10219,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-34.724561725111755,173.09247755752722</t>
+          <t>-34.72456566207302,173.09245691191836</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -10205,7 +10237,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-34.724566270881176,173.09245371929828</t>
+          <t>-34.72456476915428,173.09246159442776</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -10227,7 +10259,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-34.724580395206324,173.09237965049883</t>
+          <t>-34.724576052387,173.09240242452893</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -10249,7 +10281,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-34.72458514389174,173.09235474805197</t>
+          <t>-34.72457842673268,173.09238997330718</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -10271,7 +10303,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-34.724574165085684,173.09241232165343</t>
+          <t>-34.7245694163885,173.09243722409371</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -10293,7 +10325,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-34.72457215602212,173.0924228573016</t>
+          <t>-34.724577432348745,173.0923951879215</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -10311,7 +10343,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-34.724560365438755,173.09248468771122</t>
+          <t>-34.72456152217552,173.0924786217338</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -10329,7 +10361,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-34.7245319542656,173.09263367657772</t>
+          <t>-34.724528524618805,173.0926516616554</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -10351,7 +10383,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-34.72454731661543,173.0925531161819</t>
+          <t>-34.72454881834822,173.09254524105575</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -10369,7 +10401,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-34.72453915854461,173.09259589726767</t>
+          <t>-34.72453532302852,173.09261601076034</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -10387,7 +10419,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-34.724544779903475,173.09256641875922</t>
+          <t>-34.72454268965173,173.09257738008236</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -10405,7 +10437,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-34.724550178024764,173.0925381108737</t>
+          <t>-34.724552329153966,173.09252683028672</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -10423,7 +10455,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-34.7245703093063,173.09243254158378</t>
+          <t>-34.72457436802135,173.0924112574465</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -10441,7 +10473,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-34.72458887789722,173.09233516663878</t>
+          <t>-34.72458987227858,173.092329952023</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -10459,7 +10491,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-34.72457367804005,173.09241487575</t>
+          <t>-34.72456943668208,173.09243711767303</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -10481,7 +10513,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-34.72458743705852,173.09234272251038</t>
+          <t>-34.724581064893044,173.0923761386155</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -10503,7 +10535,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-34.72460074957848,173.09227291050345</t>
+          <t>-34.72459547327963,173.09230057989913</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -10543,7 +10575,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-34.72455786932155,173.09249777745146</t>
+          <t>-34.724561806286246,173.09247713184456</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -10561,7 +10593,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-34.724547803663945,173.09255056208696</t>
+          <t>-34.724546403399295,173.09255790510983</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -10583,7 +10615,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-34.724559005765336,173.09249181789502</t>
+          <t>-34.72456044661327,173.09248426202862</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -10605,7 +10637,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-34.72458632091554,173.0923485756502</t>
+          <t>-34.724588573494714,173.09233676294969</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -10623,7 +10655,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-34.72455098977176,173.0925338540485</t>
+          <t>-34.72454624104974,173.0925587564748</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -10641,7 +10673,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-34.724534145991164,173.0926221831545</t>
+          <t>-34.724530310470726,173.09264229664473</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -10659,7 +10691,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-34.72456101483487,173.09248128225025</t>
+          <t>-34.724566352055575,173.0924532936156</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -10677,7 +10709,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-34.724551375351524,173.0925318320565</t>
+          <t>-34.72455224797929,173.09252725596926</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -10699,7 +10731,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-34.72457162838911,173.09242562423938</t>
+          <t>-34.72457237925145,173.09242168667404</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -10721,7 +10753,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-34.72455782873426,173.09249799029277</t>
+          <t>-34.724560263970595,173.09248521981453</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -10743,7 +10775,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-34.724556002306144,173.09250756815095</t>
+          <t>-34.724550847716046,173.0925345989929</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -10761,7 +10793,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-34.72456456621818,173.09246265863445</t>
+          <t>-34.72456775231394,173.0924459505892</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -10779,7 +10811,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-34.72455778814698,173.09249820313406</t>
+          <t>-34.724559066646236,173.09249149863308</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -10801,7 +10833,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-34.72455872165441,173.09249330778417</t>
+          <t>-34.72455941163803,173.092489689482</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -10823,7 +10855,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-34.724559736336175,173.09248798675154</t>
+          <t>-34.72455945222531,173.09248947664068</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -10845,7 +10877,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-34.72455685463937,173.09250309848383</t>
+          <t>-34.724556509647364,173.09250490763483</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -10867,7 +10899,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-34.7245646068054,173.0924624457931</t>
+          <t>-34.72456560119221,173.0924572311804</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -10889,7 +10921,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-34.72453256307836,173.09263048396025</t>
+          <t>-34.72453708858396,173.0926067521687</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -10907,7 +10939,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-34.72454516548378,173.09256439676753</t>
+          <t>-34.72454707309113,173.09255439322936</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -10929,7 +10961,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-34.724541451735185,173.09258387173946</t>
+          <t>-34.72454051822413,173.09258876708734</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -10951,7 +10983,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-34.7245397876501,173.09259259822903</t>
+          <t>-34.724541289385456,173.0925847231043</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -10969,7 +11001,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-34.72452817962461,173.09265347080515</t>
+          <t>-34.72453020900189,173.0926428287476</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -10987,7 +11019,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-34.724549893913284,173.0925396007625</t>
+          <t>-34.72455204504263,173.0925283201756</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -11005,7 +11037,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-34.72454023411202,173.09259025697577</t>
+          <t>-34.72453698711528,173.09260728427168</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -11027,7 +11059,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-34.7245569561076,173.09250256638063</t>
+          <t>-34.72455551525852,173.0925101222464</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -11049,7 +11081,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-34.724540700867614,173.09258780930188</t>
+          <t>-34.7245421417215,173.0925802534388</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -11067,7 +11099,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-34.724535647728416,173.09261430803087</t>
+          <t>-34.72453861061394,173.09259877062388</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -11085,7 +11117,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-34.72457718882612,173.0923964649699</t>
+          <t>-34.724572196609266,173.09242264446024</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -11103,7 +11135,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-34.72457140515974,173.09242679486692</t>
+          <t>-34.72457059341648,173.09243105169423</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -11125,7 +11157,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-34.724543744924574,173.09257184621055</t>
+          <t>-34.72453725093385,173.09260590080393</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -11143,7 +11175,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-34.72453867149514,173.0925984513621</t>
+          <t>-34.724541045860846,173.09258600015158</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -11161,7 +11193,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-34.72453958471286,173.09259366243506</t>
+          <t>-34.724536215953194,173.09261132825426</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -11179,7 +11211,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-34.72458297248494,173.09236613506863</t>
+          <t>-34.72458356099717,173.09236304886792</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -11201,7 +11233,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-34.72454571341364,173.09256152341086</t>
+          <t>-34.72454605840646,173.09255971426035</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -11223,7 +11255,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-34.72454427256091,173.09256907927463</t>
+          <t>-34.72454293317626,173.09257610303501</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -11245,7 +11277,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-34.724541187916856,173.09258525520735</t>
+          <t>-34.724542283777495,173.09257950849454</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -11267,7 +11299,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-34.724571202223935,173.09242785907378</t>
+          <t>-34.7245670826252,173.09244946247142</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -11285,7 +11317,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-34.724538691788865,173.0925983449415</t>
+          <t>-34.72453509979732,173.09261718138683</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -11303,7 +11335,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-34.72455080712869,173.09253481183418</t>
+          <t>-34.724550218612116,173.09253789803245</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -11325,7 +11357,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-34.724549386571304,173.09254226127823</t>
+          <t>-34.72455153770088,173.0925309806914</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -11343,7 +11375,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-34.7245397876501,173.09259259822903</t>
+          <t>-34.72453469392238,173.0926193097986</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -11361,7 +11393,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-34.72457061371007,173.09243094527355</t>
+          <t>-34.72457489565403,173.09240849050852</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -11379,7 +11411,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-34.72453921942579,173.0925955780059</t>
+          <t>-34.72453719005264,173.09260622006573</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -11401,7 +11433,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-34.7245973402784,173.0922907891903</t>
+          <t>-34.72459188133411,173.09231941637032</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -11423,7 +11455,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-34.724559898685236,173.0924871353863</t>
+          <t>-34.72455971604255,173.09248809317216</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -11441,7 +11473,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-34.72455608348074,173.09250714246838</t>
+          <t>-34.724558741948044,173.09249320136348</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -11459,7 +11491,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-34.724617227825235,173.09218649682964</t>
+          <t>-34.72461241829404,173.0922117185582</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -11481,7 +11513,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-34.72459581826859,173.09229877074642</t>
+          <t>-34.72459320041049,173.09231249902234</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -11503,7 +11535,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-34.72456353124391,173.09246808608833</t>
+          <t>-34.72456456621818,173.09246265863445</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -11525,7 +11557,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-34.724553242368884,173.0925220413581</t>
+          <t>-34.72455445998848,173.09251565611976</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -11547,7 +11579,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-34.7245349171536,173.09261813917215</t>
+          <t>-34.7245403152869,173.09258983129337</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -11565,7 +11597,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-34.724554723806,173.09251427265144</t>
+          <t>-34.72455681405207,173.09250331132512</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -11587,7 +11619,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-34.724550847716046,173.0925345989929</t>
+          <t>-34.72455050272358,173.09253640814364</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -11609,7 +11641,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-34.72453958471286,173.09259366243506</t>
+          <t>-34.724540112349686,173.0925908954994</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -11620,6 +11652,28 @@
       <c r="D221" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-19 22:17:50+00:00</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>-34.724555393496615,173.09251076077027</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>-34.725282539526845,173.0926049003723</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0014/nzd0014.xlsx
+++ b/data/nzd0014/nzd0014.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>373.25</v>
+        <v>373.35</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>379.61</v>
+        <v>379.19</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.74</v>
+        <v>372.61</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>385.18</v>
+        <v>384.96</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369.22</v>
+        <v>369.7</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>374.4</v>
+        <v>374.42</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>375.59</v>
+        <v>375.36</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>380.66</v>
+        <v>380.24</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>378.81</v>
+        <v>379.28</v>
       </c>
       <c r="C10" t="n">
         <v>476.5</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>373.64</v>
+        <v>374.06</v>
       </c>
       <c r="C11" t="n">
         <v>452.4</v>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>357.41</v>
+        <v>357.09</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>368.87</v>
+        <v>369.2</v>
       </c>
       <c r="C13" t="n">
         <v>476.36</v>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.75</v>
+        <v>376.81</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>361.6</v>
+        <v>361.33</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>357.55</v>
+        <v>357.38</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>359.72</v>
+        <v>359.66</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>360.06</v>
+        <v>360.54</v>
       </c>
       <c r="C18" t="n">
         <v>454.39</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>381.27</v>
+        <v>381.64</v>
       </c>
       <c r="C19" t="n">
         <v>457.8</v>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>377.3</v>
+        <v>377.45</v>
       </c>
       <c r="C20" t="n">
         <v>417.89</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>363.72</v>
+        <v>363.55</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>374.03</v>
+        <v>374.08</v>
       </c>
       <c r="C22" t="n">
         <v>389.48</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>375.06</v>
+        <v>375.46</v>
       </c>
       <c r="C24" t="n">
         <v>463.22</v>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>384.91</v>
+        <v>385.4</v>
       </c>
       <c r="C25" t="n">
         <v>483.09</v>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>381.44</v>
+        <v>381.97</v>
       </c>
       <c r="C26" t="n">
         <v>490.19</v>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>376.06</v>
+        <v>376.18</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>372</v>
+        <v>371.67</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>378.18</v>
+        <v>378.43</v>
       </c>
       <c r="C29" t="n">
         <v>434.25</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>349.12</v>
+        <v>349.38</v>
       </c>
       <c r="C30" t="n">
         <v>409.52</v>
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>375.93</v>
+        <v>375.99</v>
       </c>
       <c r="C31" t="n">
         <v>424.68</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>356.96</v>
+        <v>356.95</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>387.71</v>
+        <v>388.3</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>369.49</v>
+        <v>369.32</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>371.61</v>
+        <v>371.77</v>
       </c>
       <c r="C35" t="n">
         <v>417.49</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>387.81</v>
+        <v>387.52</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>382.55</v>
+        <v>382.31</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.87</v>
+        <v>382.94</v>
       </c>
       <c r="C38" t="n">
         <v>403.77</v>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>368.01</v>
+        <v>367.62</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>386.3</v>
+        <v>386.8</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>386.46</v>
+        <v>386.14</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>372.91</v>
+        <v>372.9</v>
       </c>
       <c r="C42" t="n">
         <v>380.37</v>
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>365.88</v>
+        <v>366.15</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>386.71</v>
+        <v>386.47</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>350.3</v>
+        <v>350.93</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>373.87</v>
+        <v>373.75</v>
       </c>
       <c r="C46" t="n">
         <v>364.21</v>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>369.71</v>
+        <v>370.11</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>367.55</v>
+        <v>367.86</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>382.23</v>
+        <v>381.94</v>
       </c>
       <c r="C49" t="n">
         <v>336.51</v>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>380.09</v>
+        <v>380.17</v>
       </c>
       <c r="C51" t="n">
         <v>436.06</v>
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>370.56</v>
+        <v>370.17</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>389.21</v>
+        <v>389.56</v>
       </c>
       <c r="C53" t="n">
         <v>456.39</v>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>386.9</v>
+        <v>387.43</v>
       </c>
       <c r="C54" t="n">
         <v>486.84</v>
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>367.86</v>
+        <v>368.31</v>
       </c>
       <c r="C55" t="n">
         <v>446.63</v>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>378.8</v>
+        <v>379.03</v>
       </c>
       <c r="C56" t="n">
         <v>427.08</v>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>359.69</v>
+        <v>359.52</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>382.63</v>
+        <v>382.91</v>
       </c>
       <c r="C58" t="n">
         <v>442.8</v>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>373.14</v>
+        <v>372.97</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>369.44</v>
+        <v>369.57</v>
       </c>
       <c r="C60" t="n">
         <v>412.45</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>373.13</v>
+        <v>373.22</v>
       </c>
       <c r="C61" t="n">
         <v>407.64</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>365.44</v>
+        <v>366.02</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>357.93</v>
+        <v>358.16</v>
       </c>
       <c r="C63" t="n">
         <v>419.04</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>374.22</v>
+        <v>373.86</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>370.5</v>
+        <v>370.18</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>358.54</v>
+        <v>358.22</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>363.43</v>
+        <v>364.05</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>375.81</v>
+        <v>375.93</v>
       </c>
       <c r="C70" t="n">
         <v>410.51</v>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>376.7</v>
+        <v>376.49</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>375.32</v>
+        <v>375.37</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>363.91</v>
+        <v>363.6</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>351.83</v>
+        <v>351.49</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>376.88</v>
+        <v>376.66</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>377.24</v>
+        <v>377.35</v>
       </c>
       <c r="C77" t="n">
         <v>406.22</v>
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>373.1</v>
+        <v>372.87</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>376.42</v>
+        <v>376.54</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>398.47</v>
+        <v>398.16</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>348.29</v>
+        <v>347.93</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>377.11</v>
+        <v>377.32</v>
       </c>
       <c r="C83" t="n">
         <v>426.42</v>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>365.04</v>
+        <v>364.85</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>363.42</v>
+        <v>363.83</v>
       </c>
       <c r="C85" t="n">
         <v>448.32</v>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>371.63</v>
+        <v>371.42</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>362.52</v>
+        <v>362.79</v>
       </c>
       <c r="C87" t="n">
         <v>422.66</v>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>365.41</v>
+        <v>365.57</v>
       </c>
       <c r="C88" t="n">
         <v>419.23</v>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>372.36</v>
+        <v>372.17</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>384.71</v>
+        <v>385.1</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>374.76</v>
+        <v>374.79</v>
       </c>
       <c r="C91" t="n">
         <v>390.58</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>378.71</v>
+        <v>378.78</v>
       </c>
       <c r="C92" t="n">
         <v>404.7</v>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>367.77</v>
+        <v>367.49</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>362.75</v>
+        <v>363.34</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>358.08</v>
+        <v>358.35</v>
       </c>
       <c r="C95" t="n">
         <v>421.53</v>
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>368.66</v>
+        <v>368.35</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>365.29</v>
+        <v>364.96</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>367.92</v>
+        <v>368.16</v>
       </c>
       <c r="C98" t="n">
         <v>428.75</v>
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>361.46</v>
+        <v>361.15</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>380.97</v>
+        <v>380.51</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>376.96</v>
+        <v>377.2</v>
       </c>
       <c r="C102" t="n">
         <v>431.1</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>374.6</v>
+        <v>374.49</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>378.47</v>
+        <v>378.64</v>
       </c>
       <c r="C104" t="n">
         <v>429.71</v>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>366.15</v>
+        <v>365.8</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>363.1</v>
+        <v>363.57</v>
       </c>
       <c r="C106" t="n">
         <v>462.13</v>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>377.52</v>
+        <v>377.37</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>380.62</v>
+        <v>380.7</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>382.36</v>
+        <v>382.7</v>
       </c>
       <c r="C109" t="n">
         <v>454.43</v>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>388.18</v>
+        <v>388.51</v>
       </c>
       <c r="C110" t="n">
         <v>457.9</v>
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>380.6</v>
+        <v>380.86</v>
       </c>
       <c r="C111" t="n">
         <v>439.08</v>
@@ -2311,7 +2311,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>376.67</v>
+        <v>376.32</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>377.47</v>
+        <v>377.31</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>376.58</v>
+        <v>376.67</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>384.93</v>
+        <v>385.27</v>
       </c>
       <c r="C115" t="n">
         <v>453.1</v>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>381.06</v>
+        <v>380.62</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>385.72</v>
+        <v>385.96</v>
       </c>
       <c r="C118" t="n">
         <v>427.5</v>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>386.86</v>
+        <v>387.39</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>364.12</v>
+        <v>364.7</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>379.31</v>
+        <v>379.14</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>365.13</v>
+        <v>364.82</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>378.92</v>
+        <v>378.97</v>
       </c>
       <c r="C123" t="n">
         <v>399.26</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>370.83</v>
+        <v>370.56</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>382.32</v>
+        <v>382.08</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
@@ -2541,7 +2541,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>370.91</v>
+        <v>370.85</v>
       </c>
       <c r="C126" t="n">
         <v>381.86</v>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>372.48</v>
+        <v>372.27</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>377.6</v>
+        <v>377.45</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>369.74</v>
+        <v>369.49</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>358.96</v>
+        <v>359.07</v>
       </c>
       <c r="C131" t="n">
         <v>400.36</v>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>359.12</v>
+        <v>359.74</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>373.78</v>
+        <v>373.8</v>
       </c>
       <c r="C133" t="n">
         <v>385.8</v>
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>370.07</v>
+        <v>369.85</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>362.53</v>
+        <v>362.14</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>376.53</v>
+        <v>376.4</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
@@ -2723,7 +2723,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>369.93</v>
+        <v>369.88</v>
       </c>
       <c r="C137" t="n">
         <v>377.41</v>
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>379.56</v>
+        <v>379.77</v>
       </c>
       <c r="C138" t="n">
         <v>410.1</v>
@@ -2759,7 +2759,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>372.82</v>
+        <v>372.56</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>370.33</v>
+        <v>370.04</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>374.49</v>
+        <v>374.52</v>
       </c>
       <c r="C141" t="n">
         <v>377.45</v>
@@ -2809,7 +2809,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>380.91</v>
+        <v>381.28</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>370.23</v>
+        <v>370.69</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>373.11</v>
+        <v>373.5</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>373.12</v>
+        <v>373.07</v>
       </c>
       <c r="C145" t="n">
         <v>378.42</v>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>365.58</v>
+        <v>365.28</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>368.44</v>
+        <v>368.06</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>377.99</v>
+        <v>377.95</v>
       </c>
       <c r="C148" t="n">
         <v>388.04</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>373.94</v>
+        <v>373.68</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
@@ -2941,7 +2941,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>368.68</v>
+        <v>368.32</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>369.12</v>
+        <v>369.26</v>
       </c>
       <c r="C151" t="n">
         <v>411.99</v>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>363.56</v>
+        <v>363.95</v>
       </c>
       <c r="C152" t="n">
         <v>462.38</v>
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>362.39</v>
+        <v>363</v>
       </c>
       <c r="C153" t="n">
         <v>487.4</v>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>366.83</v>
+        <v>367.26</v>
       </c>
       <c r="C154" t="n">
         <v>459.81</v>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>362.88</v>
+        <v>362.4</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>370.72</v>
+        <v>370.61</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
@@ -3061,7 +3061,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>386.98</v>
+        <v>387.29</v>
       </c>
       <c r="C157" t="n">
         <v>496.08</v>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>376.98</v>
+        <v>376.84</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>383.63</v>
+        <v>383.98</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>380</v>
+        <v>380.19</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>375.25</v>
+        <v>375.06</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>364.39</v>
+        <v>364.02</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>356.75</v>
+        <v>356.66</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
@@ -3175,7 +3175,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>366.82</v>
+        <v>367.2</v>
       </c>
       <c r="C164" t="n">
         <v>452.72</v>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>361.09</v>
+        <v>361.67</v>
       </c>
       <c r="C165" t="n">
         <v>482.27</v>
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>353.99</v>
+        <v>354.47</v>
       </c>
       <c r="C166" t="n">
         <v>461.77</v>
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>370.58</v>
+        <v>370.22</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>378.17</v>
+        <v>378.3</v>
       </c>
       <c r="C169" t="n">
         <v>413.61</v>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>371.25</v>
+        <v>371.12</v>
       </c>
       <c r="C170" t="n">
         <v>387.58</v>
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>357.39</v>
+        <v>357.18</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>378.25</v>
+        <v>378.68</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>386.1</v>
+        <v>386.45</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
@@ -3345,7 +3345,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>368.34</v>
+        <v>367.86</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>375.29</v>
+        <v>375.21</v>
       </c>
       <c r="C175" t="n">
         <v>372.97</v>
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>365.37</v>
+        <v>365.3</v>
       </c>
       <c r="C176" t="n">
         <v>364.93</v>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>371.34</v>
+        <v>371.12</v>
       </c>
       <c r="C177" t="n">
         <v>328.68</v>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>375.98</v>
+        <v>376.45</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>367.65</v>
+        <v>367.36</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>371.93</v>
+        <v>371.81</v>
       </c>
       <c r="C180" t="n">
         <v>354.46</v>
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>371.76</v>
+        <v>371.7</v>
       </c>
       <c r="C181" t="n">
         <v>366.13</v>
@@ -3483,7 +3483,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>371.74</v>
+        <v>371.77</v>
       </c>
       <c r="C182" t="n">
         <v>389.92</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>373.19</v>
+        <v>373.22</v>
       </c>
       <c r="C183" t="n">
         <v>389.47</v>
@@ -3519,7 +3519,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>368.71</v>
+        <v>368.62</v>
       </c>
       <c r="C184" t="n">
         <v>363.26</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>382.76</v>
+        <v>382.35</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
@@ -3553,7 +3553,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>377.84</v>
+        <v>377.67</v>
       </c>
       <c r="C186" t="n">
         <v>363.91</v>
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>381.07</v>
+        <v>381.15</v>
       </c>
       <c r="C187" t="n">
         <v>403.36</v>
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>380.69</v>
+        <v>380.55</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
@@ -3605,7 +3605,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>386.15</v>
+        <v>385.97</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>375.39</v>
+        <v>375.2</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>382.81</v>
+        <v>383.1</v>
       </c>
       <c r="C191" t="n">
         <v>439.39</v>
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>373.68</v>
+        <v>373.81</v>
       </c>
       <c r="C192" t="n">
         <v>412.23</v>
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>380.27</v>
+        <v>380.14</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>382.01</v>
+        <v>381.74</v>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>365.46</v>
+        <v>365.91</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>366.25</v>
+        <v>366.32</v>
       </c>
       <c r="C196" t="n">
         <v>385.39</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>382.68</v>
+        <v>383.27</v>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>380.81</v>
+        <v>380.59</v>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>383.19</v>
+        <v>383.5</v>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>359.86</v>
+        <v>359.81</v>
       </c>
       <c r="C200" t="n">
         <v>357.24</v>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>378.34</v>
+        <v>378.31</v>
       </c>
       <c r="C201" t="n">
         <v>382.16</v>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>379.88</v>
+        <v>380</v>
       </c>
       <c r="C202" t="n">
         <v>411.2</v>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>380.2</v>
+        <v>380.1</v>
       </c>
       <c r="C203" t="n">
         <v>373.28</v>
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>367.98</v>
+        <v>368.35</v>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
@@ -3875,7 +3875,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>383.74</v>
+        <v>384.07</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>376.29</v>
+        <v>376.34</v>
       </c>
       <c r="C206" t="n">
         <v>382.68</v>
@@ -3909,7 +3909,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>375.64</v>
+        <v>375.45</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>383.94</v>
+        <v>384.4</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>364.13</v>
+        <v>363.74</v>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>382.71</v>
+        <v>382.89</v>
       </c>
       <c r="C210" t="n">
         <v>420.37</v>
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>355.76</v>
+        <v>356.25</v>
       </c>
       <c r="C211" t="n">
         <v>450.45</v>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>371.61</v>
+        <v>371.63</v>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>372.09</v>
+        <v>371.85</v>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
@@ -4025,7 +4025,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>345.64</v>
+        <v>346.08</v>
       </c>
       <c r="C214" t="n">
         <v>432.91</v>
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>355.11</v>
+        <v>355.35</v>
       </c>
       <c r="C215" t="n">
         <v>408.41</v>
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>369.22</v>
+        <v>369.13</v>
       </c>
       <c r="C216" t="n">
         <v>370.78</v>
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>374.2</v>
+        <v>374.09</v>
       </c>
       <c r="C217" t="n">
         <v>366.23</v>
@@ -4097,7 +4097,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>381.17</v>
+        <v>380.68</v>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
@@ -4113,7 +4113,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>373.04</v>
+        <v>372.85</v>
       </c>
       <c r="C219" t="n">
         <v>351.85</v>
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>376.15</v>
+        <v>376.18</v>
       </c>
       <c r="C220" t="n">
         <v>377.88</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>381.27</v>
+        <v>381.22</v>
       </c>
       <c r="C221" t="n">
         <v>366.63</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>373.74</v>
+        <v>373.61</v>
       </c>
       <c r="C222" t="n">
         <v>363.93</v>
@@ -7160,7 +7160,7 @@
         <v>0.1291</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008727162818138873</v>
+        <v>0.006641399395491432</v>
       </c>
       <c r="J2" t="n">
         <v>221</v>
@@ -7169,19 +7169,19 @@
         <v>211</v>
       </c>
       <c r="L2" t="n">
-        <v>5.967336563827974e-05</v>
+        <v>3.449472232364137e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>7.129618172794601</v>
+        <v>7.14739010540274</v>
       </c>
       <c r="N2" t="n">
-        <v>79.83956893890529</v>
+        <v>79.988957848155</v>
       </c>
       <c r="O2" t="n">
-        <v>8.935299040261903</v>
+        <v>8.943654613643966</v>
       </c>
       <c r="P2" t="n">
-        <v>372.6829352656346</v>
+        <v>372.7445835489301</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-34.72455638788548,173.0925055461587</t>
+          <t>-34.72455618494899,173.09250661036515</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -7357,7 +7357,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-34.72454348110639,173.09257322967852</t>
+          <t>-34.72454433344202,173.09256876001274</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-34.72455742286141,173.09250011870574</t>
+          <t>-34.72455768667878,173.0924987352373</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-34.72453217749696,173.09263250595131</t>
+          <t>-34.72453262395965,173.09263016469848</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-34.72456456621818,173.09246265863445</t>
+          <t>-34.72456359212475,173.09246776682633</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-34.724554054115316,173.09251778453256</t>
+          <t>-34.72455401352799,173.09251799737385</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-34.72455163916924,173.09253044858826</t>
+          <t>-34.72455210592363,173.0925280009137</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-34.724541350266605,173.0925844038425</t>
+          <t>-34.72454220260264,173.09257993417697</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-34.72454510460269,173.0925647160294</t>
+          <t>-34.72454415079869,173.09256971779828</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-34.72455559643313,173.09250969656384</t>
+          <t>-34.72455474409967,173.09251416623079</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-34.72458853290772,173.09233697579114</t>
+          <t>-34.7245891822997,173.0923335703278</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -7545,7 +7545,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-34.7245652764945,173.09245893391108</t>
+          <t>-34.7245646068054,173.0924624457931</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7567,7 +7567,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-34.724549285102896,173.09254279338134</t>
+          <t>-34.72454916334081,173.0925434319051</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -7585,7 +7585,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-34.72458002992262,173.09238156607157</t>
+          <t>-34.724580577848165,173.0923786927125</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-34.72458824879868,173.09233846568134</t>
+          <t>-34.72458859378821,173.09233665652894</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-34.724583845106494,173.0923615589779</t>
+          <t>-34.72458396686762,173.09236092045361</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-34.72458315512668,173.09236517728223</t>
+          <t>-34.724582181037334,173.09237028547645</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-34.724540112349686,173.0925908954994</t>
+          <t>-34.724539361481874,173.09259483306167</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-34.724548168950314,173.09254864651575</t>
+          <t>-34.724547864545016,173.0925502428251</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-34.72457572769006,173.0924041272601</t>
+          <t>-34.724576072680556,173.09240231810827</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-34.72455480498062,173.09251384696887</t>
+          <t>-34.724554703512354,173.09251437907207</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-34.72455271473361,173.09252480829466</t>
+          <t>-34.724551902986946,173.09252906512003</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-34.724532725428425,173.09262963259553</t>
+          <t>-34.72453173103424,173.09263484720412</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -7807,7 +7807,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-34.72453976735638,173.09259270464963</t>
+          <t>-34.724538691788865,173.0925983449415</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-34.72455068536665,173.09253545035796</t>
+          <t>-34.72455044184254,173.09253672740553</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-34.72455892459079,173.09249224357765</t>
+          <t>-34.724559594280734,173.0924887316961</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-34.72454638310558,173.09255801153046</t>
+          <t>-34.72454587576321,173.09256067204592</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-34.724605356188114,173.09224875298975</t>
+          <t>-34.72460482855906,173.09225151992976</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-34.724550949184405,173.09253406688975</t>
+          <t>-34.72455082742237,173.09253470541353</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-34.72458944611517,173.09233218685833</t>
+          <t>-34.72458946640866,173.09233208043761</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-34.72452704317292,173.09265943035712</t>
+          <t>-34.72452584583959,173.09266570917063</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-34.72456401829065,173.0924655319924</t>
+          <t>-34.72456436328207,173.0924637228411</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-34.72455971604255,173.09248809317216</t>
+          <t>-34.72455939134441,173.09248979590262</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-34.724526840235086,173.09266049456284</t>
+          <t>-34.724527428754776,173.0926574083663</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-34.72453751475241,173.09260451733618</t>
+          <t>-34.72453800180201,173.09260196324186</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -8043,7 +8043,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-34.72453686535285,173.09260792279528</t>
+          <t>-34.72453672329668,173.09260866773943</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-34.72456702174441,173.09244978173342</t>
+          <t>-34.72456781319471,173.09244563132714</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -8083,7 +8083,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-34.72452990459535,173.09264442505628</t>
+          <t>-34.724528889906765,173.09264974608507</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-34.72452957989504,173.0926461277855</t>
+          <t>-34.724530229295645,173.09264272232704</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-34.72455707786947,173.09250192785674</t>
+          <t>-34.72455709816311,173.0925018214361</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-34.724571344279,173.09242711412898</t>
+          <t>-34.7245707963523,173.09242998748744</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-34.72452907255072,173.0926487882999</t>
+          <t>-34.72452955960125,173.0926462342061</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -8177,7 +8177,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-34.72460296156344,173.09226131064037</t>
+          <t>-34.724601683076855,173.09226801514845</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-34.72455512967911,173.0925121442386</t>
+          <t>-34.72455537320295,173.0925108671909</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-34.72456357183114,173.09246787324702</t>
+          <t>-34.72456276008645,173.0924721300735</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-34.724567955249874,173.09244488638245</t>
+          <t>-34.72456732614838,173.09244818542334</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-34.724538164151866,173.0926011118771</t>
+          <t>-34.72453875267005,173.09259802567968</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-34.72454250700834,173.09257833786785</t>
+          <t>-34.72454234465862,173.0925791892327</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-34.72456184687349,173.09247691900325</t>
+          <t>-34.724562638324734,173.0924727685975</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -8333,7 +8333,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-34.72452399910448,173.092675393442</t>
+          <t>-34.72452328882154,173.09267911816164</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-34.724528686969016,173.0926508102908</t>
+          <t>-34.724527611398806,173.09265645058116</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-34.72456732614838,173.09244818542334</t>
+          <t>-34.724566412936376,173.0924529743536</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-34.72454512489638,173.09256460960876</t>
+          <t>-34.72454465814125,173.09256705728293</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-34.72458390598706,173.09236123971576</t>
+          <t>-34.724584250976925,173.0923594305636</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-34.72453735240253,173.09260536870096</t>
+          <t>-34.72453678417789,173.09260834847763</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-34.72455661111561,173.0925043755316</t>
+          <t>-34.7245569561076,173.09250256638063</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-34.72456411975872,173.09246499988907</t>
+          <t>-34.72456385594174,173.09246638335773</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-34.72455663140924,173.09250426911095</t>
+          <t>-34.72455644876642,173.09250522689675</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-34.724572237196426,173.09242243161887</t>
+          <t>-34.72457106016887,173.09242860401855</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-34.72458747764552,173.09234250966892</t>
+          <t>-34.72458701089486,173.09234495734557</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-34.72455441940116,173.09251586896104</t>
+          <t>-34.72455514997277,173.09251203781798</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -8599,7 +8599,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-34.724561968635236,173.0924762804793</t>
+          <t>-34.72456261803111,173.09247287501816</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-34.72458623974149,173.09234900133305</t>
+          <t>-34.724586889133825,173.09234559586992</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-34.72457631620324,173.0924010410599</t>
+          <t>-34.724575058002536,173.092407639143</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-34.724551192708475,173.09253278984215</t>
+          <t>-34.724550949184405,173.09253406688975</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-34.724549386571304,173.09254226127823</t>
+          <t>-34.72454981273857,173.09254002644502</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-34.7245521870983,173.09252757523114</t>
+          <t>-34.72455208562996,173.09252810733432</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -8747,7 +8747,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-34.724575342112416,173.09240614925326</t>
+          <t>-34.72457597121277,173.09240285021173</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-34.7245998566668,173.0922775930168</t>
+          <t>-34.72460054664403,173.09227397471102</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-34.72454902128504,173.0925441768495</t>
+          <t>-34.724549467746016,173.0925418355957</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-34.72454829071241,173.09254800799198</t>
+          <t>-34.72454806748188,173.09254917861887</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-34.72455669229019,173.092503949849</t>
+          <t>-34.724557159044046,173.09250150217414</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-34.72454995479432,173.09253928150062</t>
+          <t>-34.72454971127017,173.09254055854817</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-34.724505207008974,173.09277393885995</t>
+          <t>-34.72450583611929,173.09277063982398</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -8895,7 +8895,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-34.72460704054199,173.09223992006554</t>
+          <t>-34.72460777110492,173.0922360889176</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-34.72454855453033,173.0925466245239</t>
+          <t>-34.72454812836294,173.09254885935698</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-34.72457304893937,173.09241817479136</t>
+          <t>-34.724573434517225,173.09241615279828</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-34.72457633649681,173.09240093463922</t>
+          <t>-34.724575504460894,173.09240529788772</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-34.72455967545527,173.0924883060135</t>
+          <t>-34.724560101621556,173.09248607117976</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-34.72457816291654,173.09239135677632</t>
+          <t>-34.72457761499071,173.09239423013523</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -9015,7 +9015,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-34.72457229807714,173.0924221123568</t>
+          <t>-34.72457197337993,173.09242381508776</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9037,7 +9037,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-34.72455819401981,173.09249607472108</t>
+          <t>-34.724558579598956,173.0924940527287</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-34.72453313130353,173.09262750418384</t>
+          <t>-34.724532339847045,173.09263165458665</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-34.72455332354353,173.09252161567554</t>
+          <t>-34.724553262662546,173.09252193493745</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-34.72454530753968,173.0925636518232</t>
+          <t>-34.72454516548378,173.09256439676753</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -9117,7 +9117,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-34.72456750879076,173.09244722763725</t>
+          <t>-34.72456807701145,173.09244424785837</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-34.72457769616491,173.09239380445243</t>
+          <t>-34.72457649884526,173.09240008327365</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-34.724587173242945,173.0923441059798</t>
+          <t>-34.724586625318196,173.09234697933934</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-34.724565702660236,173.09245669907702</t>
+          <t>-34.72456633176196,173.09245340003628</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-34.72457254160005,173.09242083530853</t>
+          <t>-34.72457321128795,173.09241732342585</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-34.7245672043868,173.09244882394736</t>
+          <t>-34.7245667173404,173.09245137804353</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-34.724580314032174,173.09238007618168</t>
+          <t>-34.72458094313182,173.09237677713975</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -9269,7 +9269,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-34.724540721161326,173.09258770288125</t>
+          <t>-34.724541654672336,173.09258280753338</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -9287,7 +9287,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-34.724548858935584,173.0925450282145</t>
+          <t>-34.72454837188717,173.0925475823095</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-34.724553648242114,173.09251991294533</t>
+          <t>-34.72455387147237,173.0925187423183</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-34.724545794588416,173.09256109772838</t>
+          <t>-34.72454544959556,173.0925629068789</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -9349,7 +9349,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-34.7245707963523,173.09242998748744</t>
+          <t>-34.72457150662763,173.0924262627635</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -9367,7 +9367,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-34.72457698589058,173.09239752917688</t>
+          <t>-34.72457603209346,173.09240253094964</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-34.724547722489206,173.09255098776944</t>
+          <t>-34.7245480268945,173.0925493914601</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-34.72454143144147,173.09258397816006</t>
+          <t>-34.72454126909173,173.0925848295249</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -9425,7 +9425,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-34.72453790033335,173.09260249534486</t>
+          <t>-34.72453721034636,173.09260611364513</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -9447,7 +9447,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-34.72452608936504,173.09266443212385</t>
+          <t>-34.72452541967001,173.09266794400253</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-34.72454147202891,173.09258376531884</t>
+          <t>-34.72454094439223,173.0925865322546</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-34.72454944745234,173.0925419420163</t>
+          <t>-34.72455015773107,173.09253821729433</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-34.72454782395763,173.09255045566636</t>
+          <t>-34.72454814865662,173.09254875293638</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -9527,7 +9527,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-34.72454963009547,173.09254098423068</t>
+          <t>-34.72454944745234,173.0925419420163</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-34.72453268484092,173.09262984543673</t>
+          <t>-34.72453199485313,173.09263346373655</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -9585,7 +9585,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-34.724540538517836,173.0925886606667</t>
+          <t>-34.72454143144147,173.09258397816006</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-34.72453108163383,173.09263825266274</t>
+          <t>-34.72453059458347,173.09264080675663</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-34.72452876814412,173.0926503846085</t>
+          <t>-34.72452769257392,173.09265602489887</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-34.724574915947585,173.09240838408783</t>
+          <t>-34.72457373892076,173.09241455648794</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-34.724544089917565,173.09257003706014</t>
+          <t>-34.72454443491052,173.09256822790968</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-34.72457286629722,173.09241913257756</t>
+          <t>-34.724573495397934,173.09241583353622</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -9697,7 +9697,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-34.724544881371976,173.09256588665616</t>
+          <t>-34.724544779903475,173.09256641875922</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -9719,7 +9719,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-34.72456129894564,173.09247979236102</t>
+          <t>-34.72456184687349,173.09247691900325</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -9737,7 +9737,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-34.724537981508284,173.09260206966246</t>
+          <t>-34.72453846855784,173.09259951556808</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -9755,7 +9755,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-34.72456113659662,173.09248064372628</t>
+          <t>-34.724561258358385,173.09248000520236</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -9777,7 +9777,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-34.72455795049612,173.09249735176886</t>
+          <t>-34.724558376662564,173.09249511693523</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-34.72454756013969,173.09255183913444</t>
+          <t>-34.724547864545016,173.0925502428251</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-34.724563510950304,173.09246819250902</t>
+          <t>-34.72456401829065,173.0924655319924</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-34.72458538741394,173.09235347100335</t>
+          <t>-34.724585164185264,173.09235464163126</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-34.724585062717665,173.09235517373483</t>
+          <t>-34.72458380451945,173.09236177181936</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-34.724555312321996,173.0925111864528</t>
+          <t>-34.72455527173468,173.09251139929412</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-34.724562841260926,173.09247170439087</t>
+          <t>-34.724563287720514,173.0924693631363</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -9929,7 +9929,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-34.724578142623,173.092391463197</t>
+          <t>-34.72457893407132,173.0923873127896</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -9947,7 +9947,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-34.72454973156385,173.09254045212754</t>
+          <t>-34.72454999538166,173.09253906865936</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-34.724563125371574,173.09247021450162</t>
+          <t>-34.72456322683966,173.0924696823983</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-34.72454358257492,173.09257269757546</t>
+          <t>-34.72454315640705,173.0925749324083</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-34.72455726051227,173.09250097007092</t>
+          <t>-34.72455778814698,173.09249820313406</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -10027,7 +10027,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-34.7245623136268,173.09247447132805</t>
+          <t>-34.72456290214178,173.09247138512887</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -10045,7 +10045,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-34.72455387147237,173.0925187423183</t>
+          <t>-34.7245538105914,173.09251906158022</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-34.72454084292364,173.09258706435762</t>
+          <t>-34.72454009205596,173.09259100192</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -10085,7 +10085,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-34.72456251656302,173.09247340712147</t>
+          <t>-34.724561583056385,173.09247830247182</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -10103,7 +10103,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-34.724556671996524,173.09250405626966</t>
+          <t>-34.724555880544244,173.09250820667484</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-34.724556651702905,173.09250416269032</t>
+          <t>-34.724556753171136,173.09250363058706</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-34.724571953086354,173.09242392150844</t>
+          <t>-34.72457256189362,173.09242072888787</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-34.72456614911954,173.0924543578223</t>
+          <t>-34.724566920276395,173.0924503138368</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -10179,7 +10179,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-34.72454676868576,173.09255598953868</t>
+          <t>-34.72454684986053,173.0925555638562</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-34.724554987623534,173.0925128891831</t>
+          <t>-34.72455551525852,173.0925101222464</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-34.72456566207302,173.09245691191836</t>
+          <t>-34.72456639264278,173.09245308077425</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -10237,7 +10237,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-34.72456476915428,173.09246159442776</t>
+          <t>-34.724564485043736,173.0924630843171</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -10259,7 +10259,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-34.724576052387,173.09240242452893</t>
+          <t>-34.72457526093817,173.09240657493606</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -10281,7 +10281,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-34.72457842673268,173.09238997330718</t>
+          <t>-34.72457718882612,173.0923964649699</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -10303,7 +10303,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-34.7245694163885,173.09243722409371</t>
+          <t>-34.7245685437641,173.09244180018283</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-34.724577432348745,173.0923951879215</t>
+          <t>-34.72457840643913,173.0923900797279</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-34.72456152217552,173.0924786217338</t>
+          <t>-34.72456174540538,173.09247745110653</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-34.724528524618805,173.0926516616554</t>
+          <t>-34.72452789551172,173.09265496069315</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-34.72454881834822,173.09254524105575</t>
+          <t>-34.72454910245976,173.09254375116697</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -10401,7 +10401,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-34.72453532302852,173.09261601076034</t>
+          <t>-34.7245346127474,173.09261973548098</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -10419,7 +10419,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-34.72454268965173,173.09257738008236</t>
+          <t>-34.72454230407121,173.09257940207394</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-34.724552329153966,173.09252683028672</t>
+          <t>-34.72455271473361,173.09252480829466</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-34.72457436802135,173.0924112574465</t>
+          <t>-34.72457511888323,173.0924073198809</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -10473,7 +10473,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-34.72458987227858,173.092329952023</t>
+          <t>-34.72459005492003,173.0923289942364</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-34.72456943668208,173.09243711767303</t>
+          <t>-34.72456866552566,173.09244116165877</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-34.724581064893044,173.0923761386155</t>
+          <t>-34.72457988786783,173.0923823110165</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-34.72459547327963,173.09230057989913</t>
+          <t>-34.724594499192996,173.09230568809485</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -10575,7 +10575,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-34.724561806286246,173.09247713184456</t>
+          <t>-34.72456253685663,173.0924733007008</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -10593,7 +10593,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-34.724546403399295,173.09255790510983</t>
+          <t>-34.724546139581264,173.0925592885779</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-34.72456044661327,173.09248426202862</t>
+          <t>-34.72456071043045,173.09248287856008</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-34.724588573494714,173.09233676294969</t>
+          <t>-34.72458899965821,173.09233452811438</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-34.72454624104974,173.0925587564748</t>
+          <t>-34.72454536842077,173.09256333256138</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -10673,7 +10673,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-34.724530310470726,173.09264229664473</t>
+          <t>-34.72452960018881,173.09264602136494</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-34.724566352055575,173.0924532936156</t>
+          <t>-34.72456732614838,173.09244818542334</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-34.72455224797929,173.09252725596926</t>
+          <t>-34.724552410328634,173.09252640460417</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-34.72457237925145,173.09242168667404</t>
+          <t>-34.72457252130647,173.09242094172924</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -10753,7 +10753,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-34.724560263970595,173.09248521981453</t>
+          <t>-34.72456071043045,173.09248287856008</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -10775,7 +10775,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-34.724550847716046,173.0925345989929</t>
+          <t>-34.724549893913284,173.0925396007625</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -10793,7 +10793,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-34.72456775231394,173.0924459505892</t>
+          <t>-34.724568340828185,173.0924428643896</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -10811,7 +10811,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-34.724559066646236,173.09249149863308</t>
+          <t>-34.72455931016987,173.09249022158525</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-34.72455941163803,173.092489689482</t>
+          <t>-34.72455953339984,173.09248905095808</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-34.72455945222531,173.09248947664068</t>
+          <t>-34.72455939134441,173.09248979590262</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -10877,7 +10877,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-34.724556509647364,173.09250490763483</t>
+          <t>-34.72455644876642,173.09250522689675</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -10899,7 +10899,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-34.72456560119221,173.0924572311804</t>
+          <t>-34.724565783834656,173.09245627339436</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-34.72453708858396,173.0926067521687</t>
+          <t>-34.72453792062708,173.09260238892426</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -10939,7 +10939,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-34.72454707309113,173.09255439322936</t>
+          <t>-34.724547418083866,173.09255258407882</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-34.72454051822413,173.09258876708734</t>
+          <t>-34.72454035587435,173.09258961845214</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-34.724541289385456,173.0925847231043</t>
+          <t>-34.72454157349749,173.0925832332158</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-34.72453020900189,173.0926428287476</t>
+          <t>-34.724530574289695,173.0926409131772</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -11019,7 +11019,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-34.72455204504263,173.0925283201756</t>
+          <t>-34.7245524306223,173.09252629818351</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -11037,7 +11037,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-34.72453698711528,173.09260728427168</t>
+          <t>-34.72453639859686,173.09261037046895</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -11059,7 +11059,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-34.72455551525852,173.0925101222464</t>
+          <t>-34.72455525144103,173.09251150571475</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-34.7245421417215,173.0925802534388</t>
+          <t>-34.72454240553976,173.09257886997088</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -11099,7 +11099,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-34.72453861061394,173.09259877062388</t>
+          <t>-34.72453915854461,173.09259589726767</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -11117,7 +11117,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-34.724572196609266,173.09242264446024</t>
+          <t>-34.72457128339826,173.09242743339104</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-34.72457059341648,173.09243105169423</t>
+          <t>-34.7245704513614,173.092431796639</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-34.72453725093385,173.09260590080393</t>
+          <t>-34.72453605360326,173.092612179619</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-34.724541045860846,173.09258600015158</t>
+          <t>-34.72454149232262,173.09258365889823</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -11193,7 +11193,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-34.724536215953194,173.09261132825426</t>
+          <t>-34.72453558684719,173.09261462729265</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -11211,7 +11211,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-34.72458356099717,173.09236304886792</t>
+          <t>-34.72458366246479,173.09236251676433</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-34.72454605840646,173.09255971426035</t>
+          <t>-34.72454611928757,173.09255939499852</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -11255,7 +11255,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-34.72454293317626,173.09257610303501</t>
+          <t>-34.72454268965173,173.09257738008236</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -11277,7 +11277,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-34.724542283777495,173.09257950849454</t>
+          <t>-34.72454248671462,173.09257844428845</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -11299,7 +11299,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-34.7245670826252,173.09244946247142</t>
+          <t>-34.72456633176196,173.09245340003628</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-34.72453509979732,173.09261718138683</t>
+          <t>-34.72453443010365,173.0926206932663</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-34.724550218612116,173.09253789803245</t>
+          <t>-34.724550117143735,173.0925384301356</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -11357,7 +11357,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-34.72455153770088,173.0925309806914</t>
+          <t>-34.72455192328061,173.0925289586994</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -11375,7 +11375,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-34.72453469392238,173.0926193097986</t>
+          <t>-34.72453376040989,173.09262420514568</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-34.72457489565403,173.09240849050852</t>
+          <t>-34.724575687102934,173.09240434010147</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-34.72453719005264,173.09260622006573</t>
+          <t>-34.72453682476537,173.09260813563643</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -11433,7 +11433,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-34.72459188133411,173.09231941637032</t>
+          <t>-34.7245908869532,173.09232463098635</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -11455,7 +11455,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-34.72455971604255,173.09248809317216</t>
+          <t>-34.72455967545527,173.0924883060135</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-34.724558741948044,173.09249320136348</t>
+          <t>-34.724559228995325,173.09249064726785</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -11491,7 +11491,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-34.72461241829404,173.0922117185582</t>
+          <t>-34.72461152538471,173.09221640107287</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-34.72459320041049,173.09231249902234</t>
+          <t>-34.72459271336695,173.09231505312007</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -11535,7 +11535,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-34.72456456621818,173.09246265863445</t>
+          <t>-34.72456474886067,173.09246170084845</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -11557,7 +11557,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-34.72455445998848,173.09251565611976</t>
+          <t>-34.7245546832187,173.09251448549273</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -11579,7 +11579,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-34.7245403152869,173.09258983129337</t>
+          <t>-34.72454130967917,173.09258461668372</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -11597,7 +11597,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-34.72455681405207,173.09250331132512</t>
+          <t>-34.72455719963133,173.09250128933286</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -11619,7 +11619,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-34.72455050272358,173.09253640814364</t>
+          <t>-34.72455044184254,173.09253672740553</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-34.724540112349686,173.0925908954994</t>
+          <t>-34.7245402138183,173.09259036339637</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -11663,7 +11663,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-34.724555393496615,173.09251076077027</t>
+          <t>-34.724555657314085,173.0925093773019</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">

--- a/data/nzd0014/nzd0014.xlsx
+++ b/data/nzd0014/nzd0014.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>379.19</v>
+        <v>376.27</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.61</v>
+        <v>375.9</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>384.96</v>
+        <v>378.78</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369.7</v>
+        <v>375.76</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>374.42</v>
+        <v>375.42</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>375.36</v>
+        <v>376.11</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>380.24</v>
+        <v>376.94</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>379.28</v>
+        <v>375.8</v>
       </c>
       <c r="C10" t="n">
         <v>476.5</v>
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.06</v>
+        <v>376.67</v>
       </c>
       <c r="C11" t="n">
-        <v>452.4</v>
+        <v>464.45</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -629,9 +629,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>357.09</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>370.14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>464.45</v>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>L7</t>
@@ -645,7 +647,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>369.2</v>
+        <v>363.14</v>
       </c>
       <c r="C13" t="n">
         <v>476.36</v>
@@ -663,9 +665,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.81</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>367.7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>476.36</v>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>L7</t>
@@ -679,9 +683,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>361.33</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>369.11</v>
+      </c>
+      <c r="C15" t="n">
+        <v>476.36</v>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>L7</t>
@@ -695,9 +701,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>357.38</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>366.18</v>
+      </c>
+      <c r="C16" t="n">
+        <v>476.36</v>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>L7</t>
@@ -711,9 +719,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>359.66</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>364.88</v>
+      </c>
+      <c r="C17" t="n">
+        <v>476.36</v>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>L7</t>
@@ -727,10 +737,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>360.54</v>
+        <v>364.15</v>
       </c>
       <c r="C18" t="n">
-        <v>454.39</v>
+        <v>465.38</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -745,10 +755,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>381.64</v>
+        <v>366.23</v>
       </c>
       <c r="C19" t="n">
-        <v>457.8</v>
+        <v>456.1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -763,10 +773,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>377.45</v>
+        <v>373.21</v>
       </c>
       <c r="C20" t="n">
-        <v>417.89</v>
+        <v>443.36</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -781,9 +791,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>363.55</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>370.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>417.89</v>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>L7</t>
@@ -814,9 +826,11 @@
           <t>2004-02-04 22:06:41+00:00</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>374.08</v>
+      </c>
       <c r="C23" t="n">
-        <v>407.42</v>
+        <v>398.45</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -831,10 +845,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>375.46</v>
+        <v>374.77</v>
       </c>
       <c r="C24" t="n">
-        <v>463.22</v>
+        <v>420.04</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -849,10 +863,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>385.4</v>
+        <v>378.31</v>
       </c>
       <c r="C25" t="n">
-        <v>483.09</v>
+        <v>435.8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -867,10 +881,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>381.97</v>
+        <v>379.23</v>
       </c>
       <c r="C26" t="n">
-        <v>490.19</v>
+        <v>446.68</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -885,9 +899,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>376.18</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>379.75</v>
+      </c>
+      <c r="C27" t="n">
+        <v>460.98</v>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>L5</t>
@@ -901,9 +917,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>371.67</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>378.14</v>
+      </c>
+      <c r="C28" t="n">
+        <v>460.98</v>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>L7</t>
@@ -917,10 +935,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>378.43</v>
+        <v>378.19</v>
       </c>
       <c r="C29" t="n">
-        <v>434.25</v>
+        <v>467.69</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -935,10 +953,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>349.38</v>
+        <v>368.92</v>
       </c>
       <c r="C30" t="n">
-        <v>409.52</v>
+        <v>421.88</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -953,10 +971,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>375.99</v>
+        <v>368.87</v>
       </c>
       <c r="C31" t="n">
-        <v>424.68</v>
+        <v>422.82</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -971,9 +989,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>356.95</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
+        <v>366.48</v>
+      </c>
+      <c r="C32" t="n">
+        <v>422.82</v>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>L7</t>
@@ -987,9 +1007,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>388.3</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
+        <v>369.81</v>
+      </c>
+      <c r="C33" t="n">
+        <v>422.82</v>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1003,9 +1025,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>369.32</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
+        <v>369.73</v>
+      </c>
+      <c r="C34" t="n">
+        <v>422.82</v>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1019,10 +1043,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>371.77</v>
+        <v>370.02</v>
       </c>
       <c r="C35" t="n">
-        <v>417.49</v>
+        <v>421.49</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1037,9 +1061,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>387.52</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
+        <v>371.32</v>
+      </c>
+      <c r="C36" t="n">
+        <v>417.23</v>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1053,9 +1079,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>382.31</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
+        <v>372.69</v>
+      </c>
+      <c r="C37" t="n">
+        <v>417.23</v>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1069,10 +1097,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.94</v>
+        <v>380.36</v>
       </c>
       <c r="C38" t="n">
-        <v>403.77</v>
+        <v>410.63</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1087,9 +1115,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>367.62</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+        <v>378.54</v>
+      </c>
+      <c r="C39" t="n">
+        <v>410.63</v>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1103,9 +1133,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>386.8</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>378.33</v>
+      </c>
+      <c r="C40" t="n">
+        <v>410.63</v>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1119,9 +1151,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>386.14</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
+        <v>379.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>410.63</v>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1135,10 +1169,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>372.9</v>
+        <v>380.89</v>
       </c>
       <c r="C42" t="n">
-        <v>380.37</v>
+        <v>392.07</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1153,9 +1187,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>366.15</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
+        <v>379.05</v>
+      </c>
+      <c r="C43" t="n">
+        <v>392.07</v>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1169,9 +1205,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>386.47</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
+        <v>379.87</v>
+      </c>
+      <c r="C44" t="n">
+        <v>392.07</v>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1185,9 +1223,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>350.93</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>369.11</v>
+      </c>
+      <c r="C45" t="n">
+        <v>380.37</v>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1201,10 +1241,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>373.75</v>
+        <v>370.04</v>
       </c>
       <c r="C46" t="n">
-        <v>364.21</v>
+        <v>372.29</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1219,9 +1259,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>370.11</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
+        <v>370.05</v>
+      </c>
+      <c r="C47" t="n">
+        <v>372.29</v>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1235,9 +1277,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>367.86</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
+        <v>365.66</v>
+      </c>
+      <c r="C48" t="n">
+        <v>364.21</v>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1251,10 +1295,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>381.94</v>
+        <v>368.92</v>
       </c>
       <c r="C49" t="n">
-        <v>336.51</v>
+        <v>350.36</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1268,9 +1312,11 @@
           <t>2006-06-17 22:07:34+00:00</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>368.92</v>
+      </c>
       <c r="C50" t="n">
-        <v>401.64</v>
+        <v>367.45</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1285,10 +1331,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>380.17</v>
+        <v>370.79</v>
       </c>
       <c r="C51" t="n">
-        <v>436.06</v>
+        <v>384.61</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1303,9 +1349,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>370.17</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
+        <v>370.7</v>
+      </c>
+      <c r="C52" t="n">
+        <v>384.61</v>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1319,10 +1367,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>389.56</v>
+        <v>373.06</v>
       </c>
       <c r="C53" t="n">
-        <v>456.39</v>
+        <v>398.96</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1337,10 +1385,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>387.43</v>
+        <v>378.18</v>
       </c>
       <c r="C54" t="n">
-        <v>486.84</v>
+        <v>423.49</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1355,10 +1403,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>368.31</v>
+        <v>379.13</v>
       </c>
       <c r="C55" t="n">
-        <v>446.63</v>
+        <v>445.51</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1373,10 +1421,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>379.03</v>
+        <v>379.11</v>
       </c>
       <c r="C56" t="n">
-        <v>427.08</v>
+        <v>442.44</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1391,9 +1439,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>359.52</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+        <v>368.95</v>
+      </c>
+      <c r="C57" t="n">
+        <v>436.86</v>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1407,10 +1457,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>382.91</v>
+        <v>372.44</v>
       </c>
       <c r="C58" t="n">
-        <v>442.8</v>
+        <v>438.84</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1425,9 +1475,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>372.97</v>
-      </c>
-      <c r="C59" t="inlineStr"/>
+        <v>371.8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>442.8</v>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1441,10 +1493,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>369.57</v>
+        <v>375.15</v>
       </c>
       <c r="C60" t="n">
-        <v>412.45</v>
+        <v>427.62</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1459,10 +1511,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>373.22</v>
+        <v>374.67</v>
       </c>
       <c r="C61" t="n">
-        <v>407.64</v>
+        <v>420.96</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1477,9 +1529,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>366.02</v>
-      </c>
-      <c r="C62" t="inlineStr"/>
+        <v>370.44</v>
+      </c>
+      <c r="C62" t="n">
+        <v>410.04</v>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1493,10 +1547,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>358.16</v>
+        <v>367.99</v>
       </c>
       <c r="C63" t="n">
-        <v>419.04</v>
+        <v>413.04</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1510,9 +1564,11 @@
           <t>2008-06-22 22:07:15+00:00</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>358.16</v>
+      </c>
       <c r="C64" t="n">
-        <v>444.11</v>
+        <v>431.58</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1529,7 +1585,9 @@
       <c r="B65" t="n">
         <v>373.86</v>
       </c>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>444.11</v>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1543,9 +1601,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>370.18</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
+        <v>372.02</v>
+      </c>
+      <c r="C66" t="n">
+        <v>444.11</v>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1558,9 +1618,11 @@
           <t>2008-11-13 22:06:43+00:00</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>372.02</v>
+      </c>
       <c r="C67" t="n">
-        <v>421.73</v>
+        <v>432.92</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1575,9 +1637,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>358.22</v>
-      </c>
-      <c r="C68" t="inlineStr"/>
+        <v>367.42</v>
+      </c>
+      <c r="C68" t="n">
+        <v>432.92</v>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1591,9 +1655,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>364.05</v>
-      </c>
-      <c r="C69" t="inlineStr"/>
+        <v>366.58</v>
+      </c>
+      <c r="C69" t="n">
+        <v>432.92</v>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1607,10 +1673,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>375.93</v>
+        <v>368.45</v>
       </c>
       <c r="C70" t="n">
-        <v>410.51</v>
+        <v>416.12</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1625,9 +1691,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>376.49</v>
-      </c>
-      <c r="C71" t="inlineStr"/>
+        <v>368.97</v>
+      </c>
+      <c r="C71" t="n">
+        <v>416.12</v>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1641,9 +1709,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>375.37</v>
-      </c>
-      <c r="C72" t="inlineStr"/>
+        <v>370.01</v>
+      </c>
+      <c r="C72" t="n">
+        <v>416.12</v>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1656,9 +1726,11 @@
           <t>2009-06-09 22:08:01+00:00</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>372.96</v>
+      </c>
       <c r="C73" t="n">
-        <v>433.5</v>
+        <v>422</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1673,9 +1745,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>363.6</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
+        <v>369.49</v>
+      </c>
+      <c r="C74" t="n">
+        <v>433.5</v>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1689,9 +1763,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>351.49</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
+        <v>363.49</v>
+      </c>
+      <c r="C75" t="n">
+        <v>433.5</v>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1705,7 +1781,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>376.66</v>
+        <v>363.92</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
@@ -1721,7 +1797,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>377.35</v>
+        <v>367.28</v>
       </c>
       <c r="C77" t="n">
         <v>406.22</v>
@@ -1739,9 +1815,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>372.87</v>
-      </c>
-      <c r="C78" t="inlineStr"/>
+        <v>368.39</v>
+      </c>
+      <c r="C78" t="n">
+        <v>406.22</v>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1754,9 +1832,11 @@
           <t>2010-05-27 22:09:43+00:00</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="n">
+        <v>375.63</v>
+      </c>
       <c r="C79" t="n">
-        <v>396.25</v>
+        <v>401.24</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1771,9 +1851,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>376.54</v>
-      </c>
-      <c r="C80" t="inlineStr"/>
+        <v>375.86</v>
+      </c>
+      <c r="C80" t="n">
+        <v>401.24</v>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1787,9 +1869,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>398.16</v>
-      </c>
-      <c r="C81" t="inlineStr"/>
+        <v>387.35</v>
+      </c>
+      <c r="C81" t="n">
+        <v>396.25</v>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1803,9 +1887,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>347.93</v>
-      </c>
-      <c r="C82" t="inlineStr"/>
+        <v>374.21</v>
+      </c>
+      <c r="C82" t="n">
+        <v>396.25</v>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1819,7 +1905,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>377.32</v>
+        <v>374.99</v>
       </c>
       <c r="C83" t="n">
         <v>426.42</v>
@@ -1837,9 +1923,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>364.85</v>
-      </c>
-      <c r="C84" t="inlineStr"/>
+        <v>372.07</v>
+      </c>
+      <c r="C84" t="n">
+        <v>426.42</v>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1853,10 +1941,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>363.83</v>
+        <v>370.42</v>
       </c>
       <c r="C85" t="n">
-        <v>448.32</v>
+        <v>437.37</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1871,9 +1959,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>371.42</v>
-      </c>
-      <c r="C86" t="inlineStr"/>
+        <v>370.59</v>
+      </c>
+      <c r="C86" t="n">
+        <v>437.37</v>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1887,10 +1977,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>362.79</v>
+        <v>369.47</v>
       </c>
       <c r="C87" t="n">
-        <v>422.66</v>
+        <v>432.47</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1905,10 +1995,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>365.57</v>
+        <v>368.98</v>
       </c>
       <c r="C88" t="n">
-        <v>419.23</v>
+        <v>429.16</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1923,9 +2013,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>372.17</v>
-      </c>
-      <c r="C89" t="inlineStr"/>
+        <v>368.28</v>
+      </c>
+      <c r="C89" t="n">
+        <v>429.16</v>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1939,9 +2031,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>385.1</v>
-      </c>
-      <c r="C90" t="inlineStr"/>
+        <v>370.15</v>
+      </c>
+      <c r="C90" t="n">
+        <v>430.07</v>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1955,7 +2049,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>374.79</v>
+        <v>377.35</v>
       </c>
       <c r="C91" t="n">
         <v>390.58</v>
@@ -1973,10 +2067,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>378.78</v>
+        <v>377.71</v>
       </c>
       <c r="C92" t="n">
-        <v>404.7</v>
+        <v>397.64</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -1991,9 +2085,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>367.49</v>
-      </c>
-      <c r="C93" t="inlineStr"/>
+        <v>375.67</v>
+      </c>
+      <c r="C93" t="n">
+        <v>397.64</v>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2007,9 +2103,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>363.34</v>
-      </c>
-      <c r="C94" t="inlineStr"/>
+        <v>371.1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>397.64</v>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2023,10 +2121,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>358.35</v>
+        <v>366.99</v>
       </c>
       <c r="C95" t="n">
-        <v>421.53</v>
+        <v>413.12</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2057,7 +2155,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>364.96</v>
+        <v>366.65</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
@@ -2073,7 +2171,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>368.16</v>
+        <v>367.16</v>
       </c>
       <c r="C98" t="n">
         <v>428.75</v>
@@ -2091,9 +2189,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>361.15</v>
-      </c>
-      <c r="C99" t="inlineStr"/>
+        <v>364.76</v>
+      </c>
+      <c r="C99" t="n">
+        <v>428.75</v>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2106,9 +2206,11 @@
           <t>2013-05-11 22:19:31+00:00</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="n">
+        <v>364.76</v>
+      </c>
       <c r="C100" t="n">
-        <v>457.4</v>
+        <v>443.07</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2123,9 +2225,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>380.51</v>
-      </c>
-      <c r="C101" t="inlineStr"/>
+        <v>369.94</v>
+      </c>
+      <c r="C101" t="n">
+        <v>443.07</v>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2139,10 +2243,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>377.2</v>
+        <v>371.75</v>
       </c>
       <c r="C102" t="n">
-        <v>431.1</v>
+        <v>439.08</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2157,9 +2261,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>374.49</v>
-      </c>
-      <c r="C103" t="inlineStr"/>
+        <v>372.3</v>
+      </c>
+      <c r="C103" t="n">
+        <v>439.08</v>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2173,10 +2279,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>378.64</v>
+        <v>374.4</v>
       </c>
       <c r="C104" t="n">
-        <v>429.71</v>
+        <v>439.4</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2191,9 +2297,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>365.8</v>
-      </c>
-      <c r="C105" t="inlineStr"/>
+        <v>372.96</v>
+      </c>
+      <c r="C105" t="n">
+        <v>439.4</v>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2207,10 +2315,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>363.57</v>
+        <v>371.62</v>
       </c>
       <c r="C106" t="n">
-        <v>462.13</v>
+        <v>445.08</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2225,9 +2333,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>377.37</v>
-      </c>
-      <c r="C107" t="inlineStr"/>
+        <v>368.91</v>
+      </c>
+      <c r="C107" t="n">
+        <v>462.13</v>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2241,7 +2351,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>380.7</v>
+        <v>379.03</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
@@ -2257,7 +2367,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>382.7</v>
+        <v>380.26</v>
       </c>
       <c r="C109" t="n">
         <v>454.43</v>
@@ -2275,10 +2385,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>388.51</v>
+        <v>382.32</v>
       </c>
       <c r="C110" t="n">
-        <v>457.9</v>
+        <v>456.16</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2293,10 +2403,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>380.86</v>
+        <v>382.03</v>
       </c>
       <c r="C111" t="n">
-        <v>439.08</v>
+        <v>450.47</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2311,9 +2421,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>376.32</v>
-      </c>
-      <c r="C112" t="inlineStr"/>
+        <v>381.82</v>
+      </c>
+      <c r="C112" t="n">
+        <v>450.47</v>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2327,7 +2439,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>377.31</v>
+        <v>376.81</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
@@ -2343,7 +2455,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>376.67</v>
+        <v>376.99</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
@@ -2359,7 +2471,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>385.27</v>
+        <v>379.75</v>
       </c>
       <c r="C115" t="n">
         <v>453.1</v>
@@ -2376,9 +2488,11 @@
           <t>2015-08-05 22:17:13+00:00</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
+      <c r="B116" t="n">
+        <v>379.75</v>
+      </c>
       <c r="C116" t="n">
-        <v>435.19</v>
+        <v>444.14</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2393,9 +2507,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>380.62</v>
-      </c>
-      <c r="C117" t="inlineStr"/>
+        <v>380.85</v>
+      </c>
+      <c r="C117" t="n">
+        <v>444.14</v>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2409,10 +2525,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>385.96</v>
+        <v>383.95</v>
       </c>
       <c r="C118" t="n">
-        <v>427.5</v>
+        <v>438.6</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2427,9 +2543,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>387.39</v>
-      </c>
-      <c r="C119" t="inlineStr"/>
+        <v>384.81</v>
+      </c>
+      <c r="C119" t="n">
+        <v>438.6</v>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2443,9 +2561,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>364.7</v>
-      </c>
-      <c r="C120" t="inlineStr"/>
+        <v>380.79</v>
+      </c>
+      <c r="C120" t="n">
+        <v>438.6</v>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2459,9 +2579,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>379.14</v>
-      </c>
-      <c r="C121" t="inlineStr"/>
+        <v>379.56</v>
+      </c>
+      <c r="C121" t="n">
+        <v>427.5</v>
+      </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2475,9 +2597,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>364.82</v>
-      </c>
-      <c r="C122" t="inlineStr"/>
+        <v>377.11</v>
+      </c>
+      <c r="C122" t="n">
+        <v>427.5</v>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2491,7 +2615,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>378.97</v>
+        <v>374.31</v>
       </c>
       <c r="C123" t="n">
         <v>399.26</v>
@@ -2509,9 +2633,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>370.56</v>
-      </c>
-      <c r="C124" t="inlineStr"/>
+        <v>373.37</v>
+      </c>
+      <c r="C124" t="n">
+        <v>399.26</v>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2525,9 +2651,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>382.08</v>
-      </c>
-      <c r="C125" t="inlineStr"/>
+        <v>374.11</v>
+      </c>
+      <c r="C125" t="n">
+        <v>399.26</v>
+      </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2541,10 +2669,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>370.85</v>
+        <v>375.62</v>
       </c>
       <c r="C126" t="n">
-        <v>381.86</v>
+        <v>390.56</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2559,9 +2687,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>372.27</v>
-      </c>
-      <c r="C127" t="inlineStr"/>
+        <v>371.56</v>
+      </c>
+      <c r="C127" t="n">
+        <v>381.86</v>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2575,7 +2705,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>377.45</v>
+        <v>374.86</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
@@ -2590,7 +2720,9 @@
           <t>2017-09-27 22:17:48+00:00</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
+      <c r="B129" t="n">
+        <v>374.86</v>
+      </c>
       <c r="C129" t="n">
         <v>397.72</v>
       </c>
@@ -2607,9 +2739,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>369.49</v>
-      </c>
-      <c r="C130" t="inlineStr"/>
+        <v>373.47</v>
+      </c>
+      <c r="C130" t="n">
+        <v>397.72</v>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2623,10 +2757,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>359.07</v>
+        <v>364.28</v>
       </c>
       <c r="C131" t="n">
-        <v>400.36</v>
+        <v>399.04</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2641,9 +2775,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>359.74</v>
-      </c>
-      <c r="C132" t="inlineStr"/>
+        <v>362.77</v>
+      </c>
+      <c r="C132" t="n">
+        <v>399.04</v>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2657,10 +2793,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>373.8</v>
+        <v>365.52</v>
       </c>
       <c r="C133" t="n">
-        <v>385.8</v>
+        <v>393.08</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2675,9 +2811,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>369.85</v>
-      </c>
-      <c r="C134" t="inlineStr"/>
+        <v>366.39</v>
+      </c>
+      <c r="C134" t="n">
+        <v>393.08</v>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2691,9 +2829,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>362.14</v>
-      </c>
-      <c r="C135" t="inlineStr"/>
+        <v>364.92</v>
+      </c>
+      <c r="C135" t="n">
+        <v>393.08</v>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2707,9 +2847,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>376.4</v>
-      </c>
-      <c r="C136" t="inlineStr"/>
+        <v>366.83</v>
+      </c>
+      <c r="C136" t="n">
+        <v>393.08</v>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2723,10 +2865,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>369.88</v>
+        <v>368.63</v>
       </c>
       <c r="C137" t="n">
-        <v>377.41</v>
+        <v>381.61</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2741,10 +2883,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>379.77</v>
+        <v>370.23</v>
       </c>
       <c r="C138" t="n">
-        <v>410.1</v>
+        <v>391.1</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2759,9 +2901,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>372.56</v>
-      </c>
-      <c r="C139" t="inlineStr"/>
+        <v>372.15</v>
+      </c>
+      <c r="C139" t="n">
+        <v>393.75</v>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2775,9 +2919,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>370.04</v>
-      </c>
-      <c r="C140" t="inlineStr"/>
+        <v>373.73</v>
+      </c>
+      <c r="C140" t="n">
+        <v>393.75</v>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2791,10 +2937,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>374.52</v>
+        <v>373.35</v>
       </c>
       <c r="C141" t="n">
-        <v>377.45</v>
+        <v>388.32</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2809,9 +2955,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>381.28</v>
-      </c>
-      <c r="C142" t="inlineStr"/>
+        <v>374.6</v>
+      </c>
+      <c r="C142" t="n">
+        <v>377.45</v>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2825,9 +2973,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>370.69</v>
-      </c>
-      <c r="C143" t="inlineStr"/>
+        <v>373.82</v>
+      </c>
+      <c r="C143" t="n">
+        <v>377.45</v>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2841,9 +2991,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="C144" t="inlineStr"/>
+        <v>373.76</v>
+      </c>
+      <c r="C144" t="n">
+        <v>377.45</v>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2857,10 +3009,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>373.07</v>
+        <v>373.67</v>
       </c>
       <c r="C145" t="n">
-        <v>378.42</v>
+        <v>377.94</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2875,9 +3027,11 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>365.28</v>
-      </c>
-      <c r="C146" t="inlineStr"/>
+        <v>372.63</v>
+      </c>
+      <c r="C146" t="n">
+        <v>377.94</v>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2891,9 +3045,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>368.06</v>
-      </c>
-      <c r="C147" t="inlineStr"/>
+        <v>372.34</v>
+      </c>
+      <c r="C147" t="n">
+        <v>377.94</v>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2907,10 +3063,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>377.95</v>
+        <v>372.83</v>
       </c>
       <c r="C148" t="n">
-        <v>388.04</v>
+        <v>383.23</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -2925,9 +3081,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>373.68</v>
-      </c>
-      <c r="C149" t="inlineStr"/>
+        <v>373.23</v>
+      </c>
+      <c r="C149" t="n">
+        <v>388.04</v>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2941,9 +3099,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>368.32</v>
-      </c>
-      <c r="C150" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="C150" t="n">
+        <v>388.04</v>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2957,7 +3117,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>369.26</v>
+        <v>370.42</v>
       </c>
       <c r="C151" t="n">
         <v>411.99</v>
@@ -2975,10 +3135,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>363.95</v>
+        <v>368.8</v>
       </c>
       <c r="C152" t="n">
-        <v>462.38</v>
+        <v>437.19</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -2993,10 +3153,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>363</v>
+        <v>367.64</v>
       </c>
       <c r="C153" t="n">
-        <v>487.4</v>
+        <v>453.92</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3011,10 +3171,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>367.26</v>
+        <v>367.58</v>
       </c>
       <c r="C154" t="n">
-        <v>459.81</v>
+        <v>455.39</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3029,9 +3189,11 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>362.4</v>
-      </c>
-      <c r="C155" t="inlineStr"/>
+        <v>365.17</v>
+      </c>
+      <c r="C155" t="n">
+        <v>455.39</v>
+      </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3045,9 +3207,11 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>370.61</v>
-      </c>
-      <c r="C156" t="inlineStr"/>
+        <v>366.08</v>
+      </c>
+      <c r="C156" t="n">
+        <v>455.39</v>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3061,10 +3225,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>387.29</v>
+        <v>370.11</v>
       </c>
       <c r="C157" t="n">
-        <v>496.08</v>
+        <v>481.1</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3079,9 +3243,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>376.84</v>
-      </c>
-      <c r="C158" t="inlineStr"/>
+        <v>378.25</v>
+      </c>
+      <c r="C158" t="n">
+        <v>496.08</v>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3095,7 +3261,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>383.98</v>
+        <v>380.41</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
@@ -3111,7 +3277,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>380.19</v>
+        <v>380.34</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
@@ -3127,7 +3293,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>375.06</v>
+        <v>379.02</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
@@ -3143,7 +3309,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>364.02</v>
+        <v>376.02</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
@@ -3159,7 +3325,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>356.66</v>
+        <v>371.98</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
@@ -3175,7 +3341,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>367.2</v>
+        <v>368.63</v>
       </c>
       <c r="C164" t="n">
         <v>452.72</v>
@@ -3193,10 +3359,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>361.67</v>
+        <v>361.84</v>
       </c>
       <c r="C165" t="n">
-        <v>482.27</v>
+        <v>467.5</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3211,10 +3377,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>354.47</v>
+        <v>360</v>
       </c>
       <c r="C166" t="n">
-        <v>461.77</v>
+        <v>465.59</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3228,9 +3394,11 @@
           <t>2022-02-21 22:17:43+00:00</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr"/>
+      <c r="B167" t="n">
+        <v>361.11</v>
+      </c>
       <c r="C167" t="n">
-        <v>447.36</v>
+        <v>461.03</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3245,9 +3413,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>370.22</v>
-      </c>
-      <c r="C168" t="inlineStr"/>
+        <v>362.12</v>
+      </c>
+      <c r="C168" t="n">
+        <v>463.8</v>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>L9</t>
@@ -3261,10 +3431,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>378.3</v>
+        <v>366.17</v>
       </c>
       <c r="C169" t="n">
-        <v>413.61</v>
+        <v>451.25</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3279,10 +3449,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>371.12</v>
+        <v>367.16</v>
       </c>
       <c r="C170" t="n">
-        <v>387.58</v>
+        <v>438.52</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3297,9 +3467,11 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>357.18</v>
-      </c>
-      <c r="C171" t="inlineStr"/>
+        <v>365.49</v>
+      </c>
+      <c r="C171" t="n">
+        <v>438.52</v>
+      </c>
       <c r="D171" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3313,9 +3485,11 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>378.68</v>
-      </c>
-      <c r="C172" t="inlineStr"/>
+        <v>368.33</v>
+      </c>
+      <c r="C172" t="n">
+        <v>427.58</v>
+      </c>
       <c r="D172" t="inlineStr">
         <is>
           <t>L9</t>
@@ -3329,9 +3503,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>386.45</v>
-      </c>
-      <c r="C173" t="inlineStr"/>
+        <v>373.66</v>
+      </c>
+      <c r="C173" t="n">
+        <v>416.18</v>
+      </c>
       <c r="D173" t="inlineStr">
         <is>
           <t>L9</t>
@@ -3345,9 +3521,11 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>367.86</v>
-      </c>
-      <c r="C174" t="inlineStr"/>
+        <v>372.83</v>
+      </c>
+      <c r="C174" t="n">
+        <v>416.18</v>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3361,10 +3539,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>375.21</v>
+        <v>373.13</v>
       </c>
       <c r="C175" t="n">
-        <v>372.97</v>
+        <v>391.39</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3379,10 +3557,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>365.3</v>
+        <v>373.7</v>
       </c>
       <c r="C176" t="n">
-        <v>364.93</v>
+        <v>368.95</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3397,10 +3575,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>371.12</v>
+        <v>369.87</v>
       </c>
       <c r="C177" t="n">
-        <v>328.68</v>
+        <v>355.53</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3415,9 +3593,11 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>376.45</v>
-      </c>
-      <c r="C178" t="inlineStr"/>
+        <v>372.02</v>
+      </c>
+      <c r="C178" t="n">
+        <v>355.53</v>
+      </c>
       <c r="D178" t="inlineStr">
         <is>
           <t>L9</t>
@@ -3431,9 +3611,11 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>367.36</v>
-      </c>
-      <c r="C179" t="inlineStr"/>
+        <v>371.09</v>
+      </c>
+      <c r="C179" t="n">
+        <v>355.53</v>
+      </c>
       <c r="D179" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3447,10 +3629,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>371.81</v>
+        <v>371.21</v>
       </c>
       <c r="C180" t="n">
-        <v>354.46</v>
+        <v>355.26</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3465,10 +3647,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>371.7</v>
+        <v>371.28</v>
       </c>
       <c r="C181" t="n">
-        <v>366.13</v>
+        <v>357.43</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3483,10 +3665,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>371.77</v>
+        <v>370.79</v>
       </c>
       <c r="C182" t="n">
-        <v>389.92</v>
+        <v>360.82</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3501,10 +3683,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>373.22</v>
+        <v>371.09</v>
       </c>
       <c r="C183" t="n">
-        <v>389.47</v>
+        <v>365.6</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3519,10 +3701,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>368.62</v>
+        <v>370.82</v>
       </c>
       <c r="C184" t="n">
-        <v>363.26</v>
+        <v>365.26</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3537,9 +3719,11 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>382.35</v>
-      </c>
-      <c r="C185" t="inlineStr"/>
+        <v>371.97</v>
+      </c>
+      <c r="C185" t="n">
+        <v>365.26</v>
+      </c>
       <c r="D185" t="inlineStr">
         <is>
           <t>L9</t>
@@ -3553,10 +3737,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>377.67</v>
+        <v>372.49</v>
       </c>
       <c r="C186" t="n">
-        <v>363.91</v>
+        <v>365.1</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3571,10 +3755,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>381.15</v>
+        <v>373.21</v>
       </c>
       <c r="C187" t="n">
-        <v>403.36</v>
+        <v>369.35</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3589,9 +3773,11 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>380.55</v>
-      </c>
-      <c r="C188" t="inlineStr"/>
+        <v>373.77</v>
+      </c>
+      <c r="C188" t="n">
+        <v>369.35</v>
+      </c>
       <c r="D188" t="inlineStr">
         <is>
           <t>L9</t>
@@ -3605,9 +3791,11 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>385.97</v>
-      </c>
-      <c r="C189" t="inlineStr"/>
+        <v>375.36</v>
+      </c>
+      <c r="C189" t="n">
+        <v>369.9</v>
+      </c>
       <c r="D189" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3621,9 +3809,11 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>375.2</v>
-      </c>
-      <c r="C190" t="inlineStr"/>
+        <v>377.39</v>
+      </c>
+      <c r="C190" t="n">
+        <v>381.98</v>
+      </c>
       <c r="D190" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3637,10 +3827,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>383.1</v>
+        <v>378.65</v>
       </c>
       <c r="C191" t="n">
-        <v>439.39</v>
+        <v>391.88</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3655,10 +3845,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>373.81</v>
+        <v>379.98</v>
       </c>
       <c r="C192" t="n">
-        <v>412.23</v>
+        <v>404.72</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3673,9 +3863,11 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>380.14</v>
-      </c>
-      <c r="C193" t="inlineStr"/>
+        <v>379.99</v>
+      </c>
+      <c r="C193" t="n">
+        <v>404.72</v>
+      </c>
       <c r="D193" t="inlineStr">
         <is>
           <t>L9</t>
@@ -3689,9 +3881,11 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>381.74</v>
-      </c>
-      <c r="C194" t="inlineStr"/>
+        <v>380.17</v>
+      </c>
+      <c r="C194" t="n">
+        <v>404.72</v>
+      </c>
       <c r="D194" t="inlineStr">
         <is>
           <t>L9</t>
@@ -3705,9 +3899,11 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>365.91</v>
-      </c>
-      <c r="C195" t="inlineStr"/>
+        <v>378.52</v>
+      </c>
+      <c r="C195" t="n">
+        <v>404.72</v>
+      </c>
       <c r="D195" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3721,10 +3917,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>366.32</v>
+        <v>376.52</v>
       </c>
       <c r="C196" t="n">
-        <v>385.39</v>
+        <v>412.34</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3739,9 +3935,11 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>383.27</v>
-      </c>
-      <c r="C197" t="inlineStr"/>
+        <v>376.19</v>
+      </c>
+      <c r="C197" t="n">
+        <v>412.34</v>
+      </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>L9</t>
@@ -3755,9 +3953,11 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>380.59</v>
-      </c>
-      <c r="C198" t="inlineStr"/>
+        <v>376.68</v>
+      </c>
+      <c r="C198" t="n">
+        <v>412.34</v>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3771,9 +3971,11 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>383.5</v>
-      </c>
-      <c r="C199" t="inlineStr"/>
+        <v>376.91</v>
+      </c>
+      <c r="C199" t="n">
+        <v>398.81</v>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>L9</t>
@@ -3787,10 +3989,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>359.81</v>
+        <v>375.01</v>
       </c>
       <c r="C200" t="n">
-        <v>357.24</v>
+        <v>384.95</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3805,10 +4007,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>378.31</v>
+        <v>375.51</v>
       </c>
       <c r="C201" t="n">
-        <v>382.16</v>
+        <v>374.93</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3823,10 +4025,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>380</v>
+        <v>375.49</v>
       </c>
       <c r="C202" t="n">
-        <v>411.2</v>
+        <v>384</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3841,10 +4043,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>380.1</v>
+        <v>375.96</v>
       </c>
       <c r="C203" t="n">
-        <v>373.28</v>
+        <v>381.85</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -3859,9 +4061,11 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>368.35</v>
-      </c>
-      <c r="C204" t="inlineStr"/>
+        <v>374.62</v>
+      </c>
+      <c r="C204" t="n">
+        <v>381.85</v>
+      </c>
       <c r="D204" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3875,9 +4079,11 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>384.07</v>
-      </c>
-      <c r="C205" t="inlineStr"/>
+        <v>376.43</v>
+      </c>
+      <c r="C205" t="n">
+        <v>381.85</v>
+      </c>
       <c r="D205" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3891,10 +4097,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>376.34</v>
+        <v>377.43</v>
       </c>
       <c r="C206" t="n">
-        <v>382.68</v>
+        <v>381.31</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -3909,9 +4115,11 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>375.45</v>
-      </c>
-      <c r="C207" t="inlineStr"/>
+        <v>376.65</v>
+      </c>
+      <c r="C207" t="n">
+        <v>381.31</v>
+      </c>
       <c r="D207" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3925,9 +4133,11 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>384.4</v>
-      </c>
-      <c r="C208" t="inlineStr"/>
+        <v>377.03</v>
+      </c>
+      <c r="C208" t="n">
+        <v>381.31</v>
+      </c>
       <c r="D208" t="inlineStr">
         <is>
           <t>L9</t>
@@ -3941,9 +4151,11 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>363.74</v>
-      </c>
-      <c r="C209" t="inlineStr"/>
+        <v>375.82</v>
+      </c>
+      <c r="C209" t="n">
+        <v>381.31</v>
+      </c>
       <c r="D209" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3957,10 +4169,10 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>382.89</v>
+        <v>376.46</v>
       </c>
       <c r="C210" t="n">
-        <v>420.37</v>
+        <v>401.52</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -3975,10 +4187,10 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>356.25</v>
+        <v>374.73</v>
       </c>
       <c r="C211" t="n">
-        <v>450.45</v>
+        <v>417.83</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -3993,9 +4205,11 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>371.63</v>
-      </c>
-      <c r="C212" t="inlineStr"/>
+        <v>372.39</v>
+      </c>
+      <c r="C212" t="n">
+        <v>435.41</v>
+      </c>
       <c r="D212" t="inlineStr">
         <is>
           <t>L9</t>
@@ -4009,9 +4223,11 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>371.85</v>
-      </c>
-      <c r="C213" t="inlineStr"/>
+        <v>370.65</v>
+      </c>
+      <c r="C213" t="n">
+        <v>435.41</v>
+      </c>
       <c r="D213" t="inlineStr">
         <is>
           <t>L8</t>
@@ -4025,10 +4241,10 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>346.08</v>
+        <v>365.74</v>
       </c>
       <c r="C214" t="n">
-        <v>432.91</v>
+        <v>434.58</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4043,10 +4259,10 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>355.35</v>
+        <v>364.01</v>
       </c>
       <c r="C215" t="n">
-        <v>408.41</v>
+        <v>428.03</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4061,10 +4277,10 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>369.13</v>
+        <v>361.71</v>
       </c>
       <c r="C216" t="n">
-        <v>370.78</v>
+        <v>415.64</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4079,10 +4295,10 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>374.09</v>
+        <v>364.69</v>
       </c>
       <c r="C217" t="n">
-        <v>366.23</v>
+        <v>394.58</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4097,9 +4313,11 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>380.68</v>
-      </c>
-      <c r="C218" t="inlineStr"/>
+        <v>366.97</v>
+      </c>
+      <c r="C218" t="n">
+        <v>394.58</v>
+      </c>
       <c r="D218" t="inlineStr">
         <is>
           <t>L9</t>
@@ -4113,10 +4331,10 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>372.85</v>
+        <v>367.15</v>
       </c>
       <c r="C219" t="n">
-        <v>351.85</v>
+        <v>386.04</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4131,10 +4349,10 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>376.18</v>
+        <v>368.28</v>
       </c>
       <c r="C220" t="n">
-        <v>377.88</v>
+        <v>384.68</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4149,10 +4367,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>381.22</v>
+        <v>369.71</v>
       </c>
       <c r="C221" t="n">
-        <v>366.63</v>
+        <v>382.1</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4167,10 +4385,10 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>373.61</v>
+        <v>375.39</v>
       </c>
       <c r="C222" t="n">
-        <v>363.93</v>
+        <v>366.22</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -7160,28 +7378,28 @@
         <v>0.1291</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006641399395491432</v>
+        <v>-0.0181220292280576</v>
       </c>
       <c r="J2" t="n">
         <v>221</v>
       </c>
       <c r="K2" t="n">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L2" t="n">
-        <v>3.449472232364137e-05</v>
+        <v>0.0007561320028743879</v>
       </c>
       <c r="M2" t="n">
-        <v>7.14739010540274</v>
+        <v>4.217116912907265</v>
       </c>
       <c r="N2" t="n">
-        <v>79.988957848155</v>
+        <v>26.61647127585926</v>
       </c>
       <c r="O2" t="n">
-        <v>8.943654613643966</v>
+        <v>5.159115357874764</v>
       </c>
       <c r="P2" t="n">
-        <v>372.7445835489301</v>
+        <v>372.8063492817006</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -7242,28 +7460,28 @@
         <v>0.0108</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.932050004452273</v>
+        <v>-1.586190562366219</v>
       </c>
       <c r="J3" t="n">
         <v>221</v>
       </c>
       <c r="K3" t="n">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1638243213143273</v>
+        <v>0.1449847934406915</v>
       </c>
       <c r="M3" t="n">
-        <v>27.82125621680477</v>
+        <v>24.47744792378697</v>
       </c>
       <c r="N3" t="n">
-        <v>1173.851029033023</v>
+        <v>860.4430289194559</v>
       </c>
       <c r="O3" t="n">
-        <v>34.26150943891735</v>
+        <v>29.33330920505656</v>
       </c>
       <c r="P3" t="n">
-        <v>445.5528212588123</v>
+        <v>438.5231715543178</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -7357,7 +7575,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-34.72454433344202,173.09256876001274</t>
+          <t>-34.724550259199475,173.09253768519116</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -7375,7 +7593,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-34.72455768667878,173.0924987352373</t>
+          <t>-34.724551010065426,173.09253374762787</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -7393,7 +7611,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-34.72453262395965,173.09263016469848</t>
+          <t>-34.72454516548378,173.09256439676753</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -7411,7 +7629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-34.72456359212475,173.09246776682633</t>
+          <t>-34.724551294176834,173.092532257739</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -7429,7 +7647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-34.72455401352799,173.09251799737385</t>
+          <t>-34.72455198416162,173.0925286394375</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -7447,7 +7665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-34.72455210592363,173.0925280009137</t>
+          <t>-34.72455058389828,173.0925359824611</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -7465,7 +7683,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-34.72454220260264,173.09257993417697</t>
+          <t>-34.72454889952295,173.09254481537323</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -7483,7 +7701,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-34.72454415079869,173.09256971779828</t>
+          <t>-34.72455121300216,173.09253268342155</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7505,12 +7723,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-34.72455474409967,173.09251416623079</t>
+          <t>-34.72454944745234,173.0925419420163</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-34.72510299776417,173.0935464099406</t>
+          <t>-34.725078542829806,173.09367464733538</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -7527,10 +7745,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-34.7245891822997,173.0923335703278</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>-34.724562699205585,173.0924724493355</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-34.725078542829806,173.09367464733538</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>L7</t>
@@ -7545,7 +7767,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-34.7245646068054,173.0924624457931</t>
+          <t>-34.724576904716365,173.09239795485968</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7567,10 +7789,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-34.72454916334081,173.0925434319051</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>-34.72456765084594,173.09244648269257</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-34.72505437188652,173.09380139476065</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>L7</t>
@@ -7585,10 +7811,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-34.724580577848165,173.0923786927125</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>-34.72456478944788,173.0924614880071</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-34.72505437188652,173.09380139476065</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>L7</t>
@@ -7603,10 +7833,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-34.72458859378821,173.09233665652894</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>-34.72457073547156,173.09243030674946</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-34.72505437188652,173.09380139476065</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>L7</t>
@@ -7621,10 +7855,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-34.72458396686762,173.09236092045361</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>-34.72457337363652,173.09241647206036</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-34.72505437188652,173.09380139476065</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>L7</t>
@@ -7639,12 +7877,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-34.724582181037334,173.09237028547645</t>
+          <t>-34.724574855066905,173.09240870334992</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-34.725098959157755,173.09356758773964</t>
+          <t>-34.72507665543092,173.09368454449216</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -7661,12 +7899,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-34.724539361481874,173.09259483306167</t>
+          <t>-34.724570634003655,173.0924308388529</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-34.72509203872314,173.0936038773302</t>
+          <t>-34.72509548879454,173.09358578574623</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -7683,12 +7921,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-34.724547864545016,173.0925502428251</t>
+          <t>-34.724556469060076,173.09250512047612</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-34.72517303351409,173.09317915039287</t>
+          <t>-34.725121343949986,173.09345020523944</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -7705,10 +7943,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-34.724576072680556,173.09240231810827</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>-34.724561968635236,173.0924762804793</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-34.72517303351409,173.09317915039287</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>L7</t>
@@ -7743,10 +7985,14 @@
           <t>2004-02-04 22:06:41+00:00</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>-34.724554703512354,173.09251437907207</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-34.725194281463914,173.0930677272776</t>
+          <t>-34.725212485213824,173.0929722673138</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -7763,12 +8009,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-34.724551902986946,173.09252906512003</t>
+          <t>-34.72455330324986,173.09252172209617</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-34.7250810390658,173.0936615575467</t>
+          <t>-34.72516867026441,173.0932020309682</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -7785,12 +8031,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-34.72453173103424,173.09263484720412</t>
+          <t>-34.72454611928757,173.09255939499852</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-34.72504071352022,173.09387301606893</t>
+          <t>-34.72513668649837,173.09336975083272</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -7807,12 +8053,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-34.724538691788865,173.0925983449415</t>
+          <t>-34.7245442522672,173.0925691856952</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-34.725026304202586,173.09394857492723</t>
+          <t>-34.7251146062003,173.09348553705942</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -7829,10 +8075,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-34.72455044184254,173.09253672740553</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>-34.72454319699447,173.0925747195671</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-34.72508558505296,173.09363771923032</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>L5</t>
@@ -7847,10 +8097,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-34.724559594280734,173.0924887316961</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>-34.72454646428038,173.09255758584797</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-34.72508558505296,173.09363771923032</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>L7</t>
@@ -7865,12 +8119,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-34.72454587576321,173.09256067204592</t>
+          <t>-34.72454636281189,173.09255811795109</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-34.72513983212011,173.0933532555472</t>
+          <t>-34.72507196737214,173.0937091277506</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -7887,12 +8141,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-34.72460482855906,173.09225151992976</t>
+          <t>-34.724565175026456,173.09245946601442</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-34.72519001970564,173.09309007575803</t>
+          <t>-34.72516493613103,173.09322161248193</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -7909,12 +8163,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-34.72455082742237,173.09253470541353</t>
+          <t>-34.7245652764945,173.09245893391108</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-34.72515925374813,173.09325141043416</t>
+          <t>-34.72516302847473,173.09323161608063</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -7931,10 +8185,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-34.72458946640866,173.09233208043761</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>-34.72457012666405,173.09243349936992</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-34.72516302847473,173.09323161608063</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>L7</t>
@@ -7949,10 +8207,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-34.72452584583959,173.09266570917063</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>-34.72456336889498,173.09246893745365</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>-34.72516302847473,173.09323161608063</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>L5</t>
@@ -7967,10 +8229,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-34.72456436328207,173.0924637228411</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>-34.72456353124391,173.09246808608833</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>-34.72516302847473,173.09323161608063</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>L7</t>
@@ -7985,12 +8251,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-34.72455939134441,173.09248979590262</t>
+          <t>-34.72456294272901,173.09247117228756</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-34.725173845281,173.09317489354137</t>
+          <t>-34.72516572760523,173.0932174620525</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -8007,10 +8273,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-34.724527428754776,173.0926574083663</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>-34.724560304557855,173.0924850069732</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-34.72517437292942,173.0931721265879</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>L5</t>
@@ -8025,10 +8295,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-34.72453800180201,173.09260196324186</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>-34.72455752432963,173.0924995866025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-34.72517437292942,173.0931721265879</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>L5</t>
@@ -8043,12 +8317,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-34.72453672329668,173.09260866773943</t>
+          <t>-34.72454195907808,173.09258121122429</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-34.72520168879592,173.0930288834847</t>
+          <t>-34.72518776706033,173.09310188852533</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -8065,10 +8339,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-34.72456781319471,173.09244563132714</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>-34.72454565253255,173.09256184267272</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>-34.72518776706033,173.09310188852533</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8083,10 +8361,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-34.724528889906765,173.09264974608507</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>-34.72454607870017,173.09255960783975</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-34.72518776706033,173.09310188852533</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>L5</t>
@@ -8101,10 +8383,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-34.724530229295645,173.09264272232704</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>-34.72454411021127,173.0925699306395</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>-34.72518776706033,173.09310188852533</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8119,12 +8405,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-34.72455709816311,173.0925018214361</t>
+          <t>-34.72454088351109,173.09258685151642</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-34.725249176602816,173.09277985735946</t>
+          <t>-34.72522543276298,173.09290437045783</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -8141,10 +8427,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-34.7245707963523,173.09242998748744</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>-34.72454461755386,173.09256727012414</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>-34.72522543276298,173.09290437045783</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8159,10 +8449,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-34.72452955960125,173.0926462342061</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>-34.72454295346997,173.0925759966144</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>-34.72522543276298,173.09290437045783</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>L5</t>
@@ -8177,10 +8471,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-34.724601683076855,173.09226801514845</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>-34.72456478944788,173.0924614880071</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>-34.725249176602816,173.09277985735946</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>L5</t>
@@ -8195,12 +8493,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-34.72455537320295,173.0925108671909</t>
+          <t>-34.72456290214178,173.09247138512887</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-34.725281971303964,173.09260788017616</t>
+          <t>-34.72526557398372,173.09269386878486</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -8217,10 +8515,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-34.72456276008645,173.0924721300735</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>-34.724562881848165,173.09247149154956</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>-34.72526557398372,173.09269386878486</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>L5</t>
@@ -8235,10 +8537,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-34.72456732614838,173.09244818542334</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>-34.724571790737734,173.09242477287393</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>-34.725281971303964,173.09260788017616</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8253,12 +8559,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-34.72453875267005,173.09259802567968</t>
+          <t>-34.724565175026456,173.09245946601442</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-34.72533818442878,173.09231309223657</t>
+          <t>-34.72531007795553,173.09246048625647</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -8273,10 +8579,14 @@
           <t>2006-06-17 22:07:34+00:00</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>-34.724565175026456,173.09245946601442</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-34.72520601142504,173.09300621573385</t>
+          <t>-34.725275396148184,173.09264236076098</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -8293,12 +8603,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-34.72454234465862,173.0925791892327</t>
+          <t>-34.72456138012014,173.0924793666784</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-34.725136158845466,173.09337251778368</t>
+          <t>-34.725240572012304,173.0928249800632</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -8315,10 +8625,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-34.724562638324734,173.0924727685975</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>-34.724561562762766,173.09247840889248</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>-34.725240572012304,173.0928249800632</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8333,12 +8647,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-34.72452328882154,173.09267911816164</t>
+          <t>-34.72455677346478,173.09250352416643</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-34.72509490025313,173.09358887195773</t>
+          <t>-34.72521145022001,173.09297769480452</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -8355,12 +8669,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-34.724527611398806,173.09265645058116</t>
+          <t>-34.72454638310558,173.09255801153046</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-34.72503310297098,173.0939129239199</t>
+          <t>-34.72516166876177,173.09323874630493</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -8377,12 +8691,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-34.724566412936376,173.0924529743536</t>
+          <t>-34.72454445520423,173.09256812148908</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-34.72511470767252,173.09348500495375</t>
+          <t>-34.725116980649396,173.09347308578617</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -8399,12 +8713,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-34.72454465814125,173.09256705728293</t>
+          <t>-34.72454449579165,173.09256790864785</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-34.72515438312841,173.09327695153283</t>
+          <t>-34.725123211035424,173.09344041449313</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -8421,10 +8735,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-34.724584250976925,173.0923594305636</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>-34.72456511414564,173.09245978527642</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-34.72513453529769,173.09338103147883</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8439,12 +8757,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-34.72453678417789,173.09260834847763</t>
+          <t>-34.724558031670696,173.09249692608628</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-34.72512248043686,173.09344424565478</t>
+          <t>-34.72513051701439,173.09340210287286</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -8461,10 +8779,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-34.7245569561076,173.09250256638063</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>-34.72455933046349,173.0924901151646</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>-34.72512248043686,173.09344424565478</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8479,12 +8801,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-34.72456385594174,173.09246638335773</t>
+          <t>-34.724552532090634,173.09252576608037</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-34.72518407353131,173.09312125720544</t>
+          <t>-34.72515328723824,173.09328269827964</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -8501,12 +8823,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-34.72455644876642,173.09250522689675</t>
+          <t>-34.72455350618649,173.09252065788982</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-34.7251938349942,173.0930700685471</t>
+          <t>-34.72516680319812,173.09321182172528</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -8523,10 +8845,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-34.72457106016887,173.09242860401855</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>-34.72456209039696,173.09247564195533</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>-34.72518896441249,173.0930956096671</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8541,12 +8867,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-34.72458701089486,173.09234495734557</t>
+          <t>-34.724567062331595,173.09244956889208</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-34.7251706996834,173.09319138884044</t>
+          <t>-34.725182876177826,173.09312753606292</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -8561,10 +8887,14 @@
           <t>2008-06-22 22:07:15+00:00</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>-34.72458701089486,173.09234495734557</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-34.72511982186886,173.09345818682579</t>
+          <t>-34.72514525070201,173.09332484108475</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -8584,7 +8914,11 @@
           <t>-34.72455514997277,173.09251203781798</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>-34.72511982186886,173.09345818682579</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8599,10 +8933,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-34.72456261803111,173.09247287501816</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>-34.724558884003514,173.09249245641894</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>-34.72511982186886,173.09345818682579</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8615,10 +8953,14 @@
           <t>2008-11-13 22:06:43+00:00</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>-34.724558884003514,173.09249245641894</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-34.72516524054421,173.09322001616292</t>
+          <t>-34.725142531264716,173.09333910152705</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -8635,10 +8977,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-34.724586889133825,173.09234559586992</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>-34.72456821906662,173.09244350291365</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>-34.725142531264716,173.09333910152705</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>L5</t>
@@ -8653,10 +8999,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-34.724575058002536,173.092407639143</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>-34.7245699237282,173.09243456357672</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-34.725142531264716,173.09333910152705</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8671,12 +9021,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-34.724550949184405,173.09253406688975</t>
+          <t>-34.72456612882594,173.092454464243</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-34.725188010589605,173.09310061146945</t>
+          <t>-34.725176625581526,173.0931603138244</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -8693,10 +9043,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-34.72454981273857,173.09254002644502</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>-34.72456507355841,173.09245999811776</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-34.725176625581526,173.0931603138244</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8711,10 +9065,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-34.72455208562996,173.09252810733432</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>-34.72456296302263,173.09247106586693</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>-34.725176625581526,173.0931603138244</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8727,10 +9085,14 @@
           <t>2009-06-09 22:08:01+00:00</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>-34.72455697640124,173.09250245995997</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-34.725141354194356,173.09334527395703</t>
+          <t>-34.725164692600494,173.0932228895371</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -8747,10 +9109,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-34.72457597121277,173.09240285021173</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>-34.72456401829065,173.0924655319924</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>-34.725141354194356,173.09334527395703</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8765,10 +9131,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-34.72460054664403,173.09227397471102</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>-34.72457619444191,173.09240167958407</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-34.725141354194356,173.09334527395703</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8783,7 +9153,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-34.724549467746016,173.0925418355957</t>
+          <t>-34.72457532181885,173.09240625567398</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -8801,7 +9171,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-34.72454806748188,173.09254917861887</t>
+          <t>-34.72456850317692,173.0924420130242</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8823,10 +9193,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-34.724557159044046,173.09250150217414</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
+          <t>-34.72456625058756,173.09245382571893</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>-34.72519671675252,173.09305495671632</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8839,10 +9213,14 @@
           <t>2010-05-27 22:09:43+00:00</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>-34.72455155799455,173.0925308742708</t>
+        </is>
+      </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-34.72521694989022,173.09294885460724</t>
+          <t>-34.725206823185914,173.09300195887894</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -8859,10 +9237,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-34.72454971127017,173.09254055854817</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+          <t>-34.7245510912401,173.09253332194533</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-34.725206823185914,173.09300195887894</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8877,10 +9259,14 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-34.72450583611929,173.09277063982398</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>-34.72452777374904,173.09265559921658</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>-34.72521694989022,173.09294885460724</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8895,10 +9281,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-34.72460777110492,173.0922360889176</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>-34.72455443969482,173.0925157625404</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>-34.72521694989022,173.09294885460724</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8913,7 +9303,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-34.72454812836294,173.09254885935698</t>
+          <t>-34.72455285678927,173.0925240633502</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -8935,10 +9325,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-34.724573434517225,173.09241615279828</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t>-34.724558782535325,173.0924929885222</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>-34.725155722549374,173.093269927731</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>L5</t>
@@ -8953,12 +9347,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-34.724575504460894,173.09240529788772</t>
+          <t>-34.72456213098422,173.09247542911402</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-34.72511127791052,173.093502990125</t>
+          <t>-34.72513350028567,173.09338645895932</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -8975,10 +9369,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-34.724560101621556,173.09248607117976</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>-34.72456178599263,173.09247723826522</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>-34.72513350028567,173.09338645895932</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>L5</t>
@@ -8993,12 +9391,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-34.72457761499071,173.09239423013523</t>
+          <t>-34.724564058877874,173.09246531915107</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-34.72516335318225,173.09322991334045</t>
+          <t>-34.72514344450878,173.09333431257264</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -9015,12 +9413,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-34.72457197337993,173.09242381508776</t>
+          <t>-34.724565053264804,173.09246010453842</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-34.72517031409387,173.09319341084475</t>
+          <t>-34.725150161920325,173.09329908714923</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -9037,10 +9435,14 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-34.724558579598956,173.0924940527287</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>-34.724566473817184,173.09245265509156</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>-34.725150161920325,173.09329908714923</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9055,10 +9457,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-34.724532339847045,173.09263165458665</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>-34.72456267891197,173.0924725557562</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>-34.725148315140515,173.09330877148074</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9073,7 +9479,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-34.724553262662546,173.09252193493745</t>
+          <t>-34.72454806748188,173.09254917861887</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -9095,12 +9501,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-34.72454516548378,173.09256439676753</t>
+          <t>-34.72454733690911,173.0925530097613</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-34.72519980144949,173.09303878067092</t>
+          <t>-34.725214129027016,173.09296364718122</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -9117,10 +9523,14 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-34.72456807701145,173.09244424785837</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
+          <t>-34.724551476819876,173.09253129995332</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>-34.725214129027016,173.09296364718122</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9135,10 +9545,14 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-34.72457649884526,173.09240008327365</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
+          <t>-34.724560751017705,173.09248266571876</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>-34.725214129027016,173.09296364718122</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9153,12 +9567,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-34.724586625318196,173.09234697933934</t>
+          <t>-34.72456909169107,173.09243892682454</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-34.725165646428394,173.09321788773758</t>
+          <t>-34.725182713824786,173.0931283874334</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -9193,7 +9607,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-34.72457321128795,173.09241732342585</t>
+          <t>-34.72456978167308,173.09243530852146</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -9211,7 +9625,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-34.7245667173404,173.09245137804353</t>
+          <t>-34.72456874670003,173.09244073597608</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -9233,10 +9647,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-34.72458094313182,173.09237677713975</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
+          <t>-34.72457361715934,173.09241519501208</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>-34.7251509939857,173.0932947238789</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9249,10 +9667,14 @@
           <t>2013-05-11 22:19:31+00:00</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>-34.72457361715934,173.09241519501208</t>
+        </is>
+      </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-34.72509285050488,173.09359962048705</t>
+          <t>-34.72512193248786,173.093447119026</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -9269,10 +9691,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-34.724541654672336,173.09258280753338</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
+          <t>-34.72456310507796,173.09247032092225</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>-34.72512193248786,173.093447119026</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9287,12 +9713,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-34.72454837188717,173.0925475823095</t>
+          <t>-34.724559431931674,173.09248958306134</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-34.72514622482838,173.09331973286638</t>
+          <t>-34.725130029949504,173.0934046569811</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -9309,10 +9735,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-34.72455387147237,173.0925187423183</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
+          <t>-34.72455831578164,173.09249543619717</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>-34.725130029949504,173.0934046569811</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9327,12 +9757,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-34.72454544959556,173.0925629068789</t>
+          <t>-34.724554054115316,173.09251778453256</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-34.72514904573482,173.09330494031667</t>
+          <t>-34.72512938052957,173.09340806245868</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -9349,10 +9779,14 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-34.72457150662763,173.0924262627635</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
+          <t>-34.72455697640124,173.09250245995997</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>-34.72512938052957,173.09340806245868</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9367,12 +9801,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-34.72457603209346,173.09240253094964</t>
+          <t>-34.7245596957489,173.09248819959285</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-34.725083251176194,173.09364995765202</t>
+          <t>-34.725117853309854,173.09346850967702</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -9389,10 +9823,14 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-34.7245480268945,173.0925493914601</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>-34.72456519532007,173.09245935959373</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>-34.725083251176194,173.09364995765202</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9407,7 +9845,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-34.72454126909173,173.0925848295249</t>
+          <t>-34.72454465814125,173.09256705728293</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -9425,7 +9863,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-34.72453721034636,173.09260611364513</t>
+          <t>-34.72454216201521,173.0925801470182</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -9447,12 +9885,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-34.72452541967001,173.09266794400253</t>
+          <t>-34.724537981508284,173.09260206966246</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-34.725091835777675,173.09360494154097</t>
+          <t>-34.72509536702735,173.09358642427273</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -9469,12 +9907,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-34.72454094439223,173.0925865322546</t>
+          <t>-34.72453857002649,173.0925989834651</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-34.725130029949504,173.0934046569811</t>
+          <t>-34.72510691460004,173.09352587066618</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -9491,10 +9929,14 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-34.72455015773107,173.09253821729433</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
+          <t>-34.724538996194795,173.0925967486325</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>-34.72510691460004,173.09352587066618</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9509,7 +9951,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-34.72454814865662,173.09254875293638</t>
+          <t>-34.72454916334081,173.0925434319051</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -9527,7 +9969,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-34.72454944745234,173.0925419420163</t>
+          <t>-34.72454879805453,173.09254534747637</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -9545,7 +9987,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-34.72453199485313,173.09263346373655</t>
+          <t>-34.72454319699447,173.0925747195671</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -9565,10 +10007,14 @@
           <t>2015-08-05 22:17:13+00:00</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>-34.72454319699447,173.0925747195671</t>
+        </is>
+      </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-34.725137924452994,173.09336325913986</t>
+          <t>-34.725119760985606,173.09345850608923</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -9585,10 +10031,14 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-34.72454143144147,173.09258397816006</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
+          <t>-34.72454096468596,173.092586425834</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>-34.725119760985606,173.09345850608923</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9603,12 +10053,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-34.72453059458347,173.09264080675663</t>
+          <t>-34.72453467362863,173.0926194162192</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-34.72515353076941,173.0932814212248</t>
+          <t>-34.72513100407922,173.0933995487646</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -9625,10 +10075,14 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-34.72452769257392,173.09265602489887</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
+          <t>-34.72453292836599,173.0926285683897</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>-34.72513100407922,173.0933995487646</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9643,10 +10097,14 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-34.72457373892076,173.09241455648794</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
+          <t>-34.72454108644827,173.09258578731038</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>-34.72513100407922,173.0933995487646</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9661,10 +10119,14 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-34.72454443491052,173.09256822790968</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
+          <t>-34.72454358257492,173.09257269757546</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>-34.72515353076941,173.0932814212248</t>
+        </is>
+      </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9679,10 +10141,14 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-34.724573495397934,173.09241583353622</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
+          <t>-34.72454855453033,173.0925466245239</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>-34.72515353076941,173.0932814212248</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9697,7 +10163,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-34.724544779903475,173.09256641875922</t>
+          <t>-34.72455423675824,173.09251682674682</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -9719,10 +10185,14 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-34.72456184687349,173.09247691900325</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
+          <t>-34.7245561443617,173.09250682320643</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>-34.72521084140001,173.09298088744606</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9737,10 +10207,14 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-34.72453846855784,173.09259951556808</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
+          <t>-34.72455464263139,173.09251469833399</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>-34.72521084140001,173.09298088744606</t>
+        </is>
+      </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9755,12 +10229,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-34.724561258358385,173.09248000520236</t>
+          <t>-34.724551578288235,173.09253076785015</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-34.72524615282174,173.09279571415973</t>
+          <t>-34.725228497146055,173.09288830082266</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -9777,10 +10251,14 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-34.724558376662564,173.09249511693523</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
+          <t>-34.72455981751071,173.0924875610689</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>-34.72524615282174,173.09279571415973</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9795,7 +10273,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-34.724547864545016,173.0925502428251</t>
+          <t>-34.724553120606906,173.0925226798819</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -9811,7 +10289,11 @@
           <t>2017-09-27 22:17:48+00:00</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>-34.724553120606906,173.0925226798819</t>
+        </is>
+      </c>
       <c r="C129" t="inlineStr">
         <is>
           <t>-34.72521396667512,173.0929644985524</t>
@@ -9831,10 +10313,14 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-34.72456401829065,173.0924655319924</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>-34.72455594142519,173.0925078874129</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>-34.72521396667512,173.0929644985524</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9849,12 +10335,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-34.724585164185264,173.09235464163126</t>
+          <t>-34.72457459125057,173.09241008681892</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-34.725208609059294,173.09299259379793</t>
+          <t>-34.72521128786801,173.0929785461756</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -9871,10 +10357,14 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-34.72458380451945,173.09236177181936</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
+          <t>-34.72457765557781,173.09239401729383</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>-34.72521128786801,173.0929785461756</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9889,12 +10379,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-34.72455527173468,173.09251139929412</t>
+          <t>-34.724572074847806,173.09242328298433</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-34.72523815704169,173.0928376442166</t>
+          <t>-34.725223383075125,173.0929151190211</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -9911,10 +10401,14 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-34.724563287720514,173.0924693631363</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
+          <t>-34.7245703093063,173.09243254158378</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>-34.725223383075125,173.0929151190211</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9929,10 +10423,14 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-34.72457893407132,173.0923873127896</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
+          <t>-34.72457329246222,173.09241689774308</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>-34.725223383075125,173.0929151190211</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9947,10 +10445,14 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-34.72454999538166,173.09253906865936</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>-34.7245694163885,173.09243722409371</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>-34.725223383075125,173.0929151190211</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9965,12 +10467,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-34.72456322683966,173.0924696823983</t>
+          <t>-34.72456576354105,173.09245637981505</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-34.72525518357118,173.09274835659846</t>
+          <t>-34.72524666016769,173.09279305362284</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -9987,12 +10489,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-34.72454315640705,173.0925749324083</t>
+          <t>-34.72456251656302,173.09247340712147</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-34.725188842647874,173.09309624819508</t>
+          <t>-34.7252274012742,173.09289404757973</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -10009,10 +10511,14 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-34.72455778814698,173.09249820313406</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>-34.72455862018623,173.0924938398874</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>-34.72522202338067,173.09292224925582</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10027,10 +10533,14 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-34.72456290214178,173.09247138512887</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
+          <t>-34.724555413790256,173.0925106543496</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>-34.72522202338067,173.09292224925582</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10045,12 +10555,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-34.7245538105914,173.09251906158022</t>
+          <t>-34.72455618494899,173.09250661036515</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-34.72525510239599,173.09274878228447</t>
+          <t>-34.72523304298191,173.0928644624213</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -10067,10 +10577,14 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-34.72454009205596,173.09259100192</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
+          <t>-34.724553648242114,173.09251991294533</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>-34.72525510239599,173.09274878228447</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10085,10 +10599,14 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-34.724561583056385,173.09247830247182</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
+          <t>-34.724555231147384,173.0925116121354</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>-34.72525510239599,173.09274878228447</t>
+        </is>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10103,10 +10621,14 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-34.724555880544244,173.09250820667484</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>-34.7245553529093,173.09251097361155</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>-34.72525510239599,173.09274878228447</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10121,12 +10643,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-34.724556753171136,173.09250363058706</t>
+          <t>-34.72455553555216,173.09251001582575</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-34.72525313389709,173.09275910516945</t>
+          <t>-34.72525410799974,173.09275399693777</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -10143,10 +10665,14 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-34.72457256189362,173.09242072888787</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
+          <t>-34.72455764609149,173.0924989480786</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>-34.72525410799974,173.09275399693777</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10161,10 +10687,14 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-34.724566920276395,173.0924503138368</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
+          <t>-34.72455823460709,173.09249586187977</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>-34.72525410799974,173.09275399693777</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10179,12 +10709,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-34.72454684986053,173.0925555638562</t>
+          <t>-34.72455724021862,173.09250107649157</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-34.72523361121106,173.09286148262092</t>
+          <t>-34.725243372564826,173.09281029390124</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -10201,10 +10731,14 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-34.72455551525852,173.0925101222464</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
+          <t>-34.72455642847277,173.0925053333174</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>-34.72523361121106,173.09286148262092</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10219,10 +10753,14 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-34.72456639264278,173.09245308077425</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
+          <t>-34.72455892459079,173.09249224357765</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>-34.72523361121106,173.09286148262092</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10237,7 +10775,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-34.724564485043736,173.0924630843171</t>
+          <t>-34.72456213098422,173.09247542911402</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -10259,12 +10797,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-34.72457526093817,173.09240657493606</t>
+          <t>-34.72456541854974,173.0924581889664</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-34.72508274381152,173.09365261817837</t>
+          <t>-34.725133865584056,173.093384543378</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -10281,12 +10819,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-34.72457718882612,173.0923964649699</t>
+          <t>-34.72456777260752,173.0924458441685</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-34.72503196646116,173.09391888349168</t>
+          <t>-34.7250999129998,173.0935625859481</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -10303,12 +10841,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-34.7245685437641,173.09244180018283</t>
+          <t>-34.724567894369095,173.09244520564445</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-34.7250879595176,173.0936252679658</t>
+          <t>-34.72509692970591,173.09357822984893</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -10325,10 +10863,14 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-34.72457840643913,173.0923900797279</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
+          <t>-34.72457278512293,173.0924195582603</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>-34.72509692970591,173.09357822984893</t>
+        </is>
+      </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10343,10 +10885,14 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-34.72456174540538,173.09247745110653</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
+          <t>-34.72457093840739,173.09242924254264</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>-34.72509692970591,173.09357822984893</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10361,12 +10907,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-34.72452789551172,173.09265496069315</t>
+          <t>-34.72456276008645,173.0924721300735</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-34.72501435052181,173.09401125683337</t>
+          <t>-34.725044752179734,173.09385183829968</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -10383,10 +10929,14 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-34.72454910245976,173.09254375116697</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
+          <t>-34.72454624104974,173.0925587564748</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>-34.72501435052181,173.09401125683337</t>
+        </is>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10401,7 +10951,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-34.7245346127474,173.09261973548098</t>
+          <t>-34.724541857609495,173.09258174332732</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -10419,7 +10969,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-34.72454230407121,173.09257940207394</t>
+          <t>-34.724541999665504,173.09258099838306</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -10437,7 +10987,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-34.72455271473361,173.09252480829466</t>
+          <t>-34.72454467843496,173.0925669508623</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -10455,7 +11005,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-34.72457511888323,173.0924073198809</t>
+          <t>-34.72455076654135,173.0925350246754</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -10473,7 +11023,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-34.72459005492003,173.0923289942364</t>
+          <t>-34.724558965178055,173.0924920307363</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -10491,7 +11041,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-34.72456866552566,173.09244116165877</t>
+          <t>-34.72456576354105,173.09245637981505</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -10513,12 +11063,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-34.72457988786783,173.0923823110165</t>
+          <t>-34.72457954287763,173.09238412016848</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-34.72504237769193,173.09386428955122</t>
+          <t>-34.72507235297024,173.0937071057511</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -10535,12 +11085,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-34.724594499192996,173.09230568809485</t>
+          <t>-34.72458327688782,173.09236453875792</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-34.725083981781225,173.09364612649398</t>
+          <t>-34.72507622924396,173.09368677933395</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -10555,10 +11105,14 @@
           <t>2022-02-21 22:17:43+00:00</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr"/>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>-34.72458102430596,173.09237635145692</t>
+        </is>
+      </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-34.725113226178024,173.09349277369657</t>
+          <t>-34.72508548358008,173.0936382513356</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -10575,10 +11129,14 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-34.72456253685663,173.0924733007008</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr"/>
+          <t>-34.72457897465842,173.0923870999482</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>-34.72507986197908,173.0936677299675</t>
+        </is>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>L9</t>
@@ -10593,12 +11151,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-34.724546139581264,173.0925592885779</t>
+          <t>-34.72457075576515,173.0924302003288</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-34.7251817194123,173.0931336020776</t>
+          <t>-34.725105331630516,173.09353417151306</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -10615,12 +11173,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-34.72456071043045,173.09248287856008</t>
+          <t>-34.72456874670003,173.09244073597608</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-34.72523454473025,173.09285658723454</t>
+          <t>-34.72513116643416,173.09339869739517</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -10637,10 +11195,14 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-34.72458899965821,173.09233452811438</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr"/>
+          <t>-34.724572135728536,173.09242296372227</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>-34.72513116643416,173.09339869739517</t>
+        </is>
+      </c>
       <c r="D171" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10655,10 +11217,14 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-34.72454536842077,173.09256333256138</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr"/>
+          <t>-34.72456637234917,173.09245318719493</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>-34.72515336841529,173.09328227259468</t>
+        </is>
+      </c>
       <c r="D172" t="inlineStr">
         <is>
           <t>L9</t>
@@ -10673,10 +11239,14 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-34.72452960018881,173.09264602136494</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr"/>
+          <t>-34.72455555584582,173.0925099094051</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>-34.72517650381659,173.09316095235215</t>
+        </is>
+      </c>
       <c r="D173" t="inlineStr">
         <is>
           <t>L9</t>
@@ -10691,10 +11261,14 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-34.72456732614838,173.09244818542334</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr"/>
+          <t>-34.72455724021862,173.09250107649157</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>-34.72517650381659,173.09316095235215</t>
+        </is>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10709,12 +11283,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-34.724552410328634,173.09252640460417</t>
+          <t>-34.72455663140924,173.09250426911095</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-34.72526419400847,173.0927011054484</t>
+          <t>-34.72522681275033,173.09289713380107</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -10731,12 +11305,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-34.72457252130647,173.09242094172924</t>
+          <t>-34.72455547467121,173.0925103350877</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-34.72528051015907,173.09261554252882</t>
+          <t>-34.725272352091274,173.09265832399282</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -10753,12 +11327,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-34.72456071043045,173.09248287856008</t>
+          <t>-34.72456324713328,173.09246957597762</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-34.725354074146686,173.09222976402074</t>
+          <t>-34.72529958617937,173.09251550623677</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -10775,10 +11349,14 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-34.724549893913284,173.0925396007625</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr"/>
+          <t>-34.724558884003514,173.09249245641894</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>-34.72529958617937,173.09251550623677</t>
+        </is>
+      </c>
       <c r="D178" t="inlineStr">
         <is>
           <t>L9</t>
@@ -10793,10 +11371,14 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-34.724568340828185,173.0924428643896</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr"/>
+          <t>-34.72456077131133,173.0924825592981</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>-34.72529958617937,173.09251550623677</t>
+        </is>
+      </c>
       <c r="D179" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10811,12 +11393,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-34.72455931016987,173.09249022158525</t>
+          <t>-34.72456052778779,173.092483836346</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-34.7253017575935,173.092504119124</t>
+          <t>-34.725300134106405,173.09251263285321</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -10833,12 +11415,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-34.72455953339984,173.09248905095808</t>
+          <t>-34.72456038573238,173.0924845812906</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-34.72527807491654,173.09262831311597</t>
+          <t>-34.725295730394656,173.09253572634208</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -10855,12 +11437,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-34.72455939134441,173.09248979590262</t>
+          <t>-34.72456138012014,173.0924793666784</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-34.725229795956764,173.0928814898511</t>
+          <t>-34.72528885085465,173.09257180326213</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -10877,12 +11459,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-34.72455644876642,173.09250522689675</t>
+          <t>-34.72456077131133,173.0924825592981</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-34.72523070918283,173.0928767008866</t>
+          <t>-34.72527915048215,173.0926226727734</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -10899,12 +11481,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-34.724565783834656,173.09245627339436</t>
+          <t>-34.724561319239264,173.09247968594036</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-34.72528389920272,173.0925977701271</t>
+          <t>-34.725279840467515,173.09261905444035</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -10921,10 +11503,14 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-34.72453792062708,173.09260238892426</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr"/>
+          <t>-34.72455898547169,173.09249192431568</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>-34.725279840467515,173.09261905444035</t>
+        </is>
+      </c>
       <c r="D185" t="inlineStr">
         <is>
           <t>L9</t>
@@ -10939,12 +11525,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-34.724547418083866,173.09255258407882</t>
+          <t>-34.72455793020248,173.0924974581895</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-34.72528258011418,173.09260468752913</t>
+          <t>-34.72528016516645,173.0926173516954</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -10961,12 +11547,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-34.72454035587435,173.09258961845214</t>
+          <t>-34.724556469060076,173.09250512047612</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-34.72520252085163,173.0930245202089</t>
+          <t>-34.72527154034242,173.09266258085447</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -10983,10 +11569,14 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-34.72454157349749,173.0925832332158</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr"/>
+          <t>-34.724555332615644,173.09251108003218</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>-34.72527154034242,173.09266258085447</t>
+        </is>
+      </c>
       <c r="D188" t="inlineStr">
         <is>
           <t>L9</t>
@@ -11001,10 +11591,14 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-34.724530574289695,173.0926409131772</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr"/>
+          <t>-34.72455210592363,173.0925280009137</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>-34.725270424187485,173.09266843403907</t>
+        </is>
+      </c>
       <c r="D189" t="inlineStr">
         <is>
           <t>L8</t>
@@ -11019,10 +11613,14 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-34.7245524306223,173.09252629818351</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr"/>
+          <t>-34.72454798630714,173.09254960430138</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>-34.725245909295644,173.09279699121743</t>
+        </is>
+      </c>
       <c r="D190" t="inlineStr">
         <is>
           <t>L8</t>
@@ -11037,12 +11635,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-34.72453639859686,173.09261037046895</t>
+          <t>-34.72454542930186,173.0925630132995</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-34.72512940082394,173.0934079560375</t>
+          <t>-34.725225818347724,173.09290234845082</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -11059,12 +11657,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-34.72455525144103,173.09251150571475</t>
+          <t>-34.72454273023915,173.09257716724113</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-34.72518452000201,173.09311891593651</t>
+          <t>-34.725199760861386,173.09303899351366</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -11081,10 +11679,14 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-34.72454240553976,173.09257886997088</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr"/>
+          <t>-34.724542709945446,173.09257727366173</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>-34.725199760861386,173.09303899351366</t>
+        </is>
+      </c>
       <c r="D193" t="inlineStr">
         <is>
           <t>L9</t>
@@ -11099,10 +11701,14 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-34.72453915854461,173.09259589726767</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr"/>
+          <t>-34.72454234465862,173.0925791892327</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>-34.725199760861386,173.09303899351366</t>
+        </is>
+      </c>
       <c r="D194" t="inlineStr">
         <is>
           <t>L9</t>
@@ -11117,10 +11723,14 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-34.72457128339826,173.09242743339104</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr"/>
+          <t>-34.72454569311994,173.0925616298315</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>-34.725199760861386,173.09303899351366</t>
+        </is>
+      </c>
       <c r="D195" t="inlineStr">
         <is>
           <t>L8</t>
@@ -11135,12 +11745,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-34.7245704513614,173.092431796639</t>
+          <t>-34.72454975185752,173.0925403457069</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-34.72523898909055,173.09283328093693</t>
+          <t>-34.72518429676666,173.09312008657096</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -11157,10 +11767,14 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-34.72453605360326,173.092612179619</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
+          <t>-34.72455042154887,173.09253683382616</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>-34.72518429676666,173.09312008657096</t>
+        </is>
+      </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>L9</t>
@@ -11175,10 +11789,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-34.72454149232262,173.09258365889823</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
+          <t>-34.72454942715866,173.09254204843694</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>-34.72518429676666,173.09312008657096</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>L8</t>
@@ -11193,10 +11811,14 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-34.72453558684719,173.09261462729265</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr"/>
+          <t>-34.72454896040399,173.09254449611137</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>-34.725211754629974,173.09297609848375</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>L9</t>
@@ -11211,12 +11833,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-34.72458366246479,173.09236251676433</t>
+          <t>-34.72455281620194,173.09252427619145</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-34.72529611597328,173.09253370433163</t>
+          <t>-34.72523988202083,173.09282859839283</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -11233,12 +11855,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-34.72454611928757,173.09255939499852</t>
+          <t>-34.7245518015186,173.09252959722318</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-34.725245544006505,173.09279890680395</t>
+          <t>-34.72526021643029,173.09272196406548</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -11255,12 +11877,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-34.72454268965173,173.09257738008236</t>
+          <t>-34.72455184210594,173.09252938438195</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-34.725186610296085,173.0931079545407</t>
+          <t>-34.725241809937906,173.09281848835403</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -11277,12 +11899,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-34.72454248671462,173.09257844428845</t>
+          <t>-34.72455088830339,173.09253438615164</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-34.72526356490196,173.0927044045155</t>
+          <t>-34.72524617311557,173.09279560773825</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -11299,10 +11921,14 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-34.72456633176196,173.09245340003628</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
+          <t>-34.7245536076548,173.0925201257866</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>-34.72524617311557,173.09279560773825</t>
+        </is>
+      </c>
       <c r="D204" t="inlineStr">
         <is>
           <t>L8</t>
@@ -11317,10 +11943,14 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-34.72453443010365,173.0926206932663</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr"/>
+          <t>-34.72454993450063,173.09253938792125</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>-34.72524617311557,173.09279560773825</t>
+        </is>
+      </c>
       <c r="D205" t="inlineStr">
         <is>
           <t>L8</t>
@@ -11335,12 +11965,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-34.724550117143735,173.0925384301356</t>
+          <t>-34.72454790513239,173.09255002998387</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-34.72524448872657,173.09280444072044</t>
+          <t>-34.72524726898276,173.09278986097857</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -11357,10 +11987,14 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-34.72455192328061,173.0925289586994</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr"/>
+          <t>-34.724549488039706,173.09254172917505</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>-34.72524726898276,173.09278986097857</t>
+        </is>
+      </c>
       <c r="D207" t="inlineStr">
         <is>
           <t>L8</t>
@@ -11375,10 +12009,14 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-34.72453376040989,173.09262420514568</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr"/>
+          <t>-34.72454871687979,173.0925457731589</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>-34.72524726898276,173.09278986097857</t>
+        </is>
+      </c>
       <c r="D208" t="inlineStr">
         <is>
           <t>L9</t>
@@ -11393,10 +12031,14 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-34.724575687102934,173.09240434010147</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr"/>
+          <t>-34.7245511724148,173.0925328962628</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>-34.72524726898276,173.09278986097857</t>
+        </is>
+      </c>
       <c r="D209" t="inlineStr">
         <is>
           <t>L8</t>
@@ -11411,12 +12053,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-34.72453682476537,173.09260813563643</t>
+          <t>-34.72454987361961,173.09253970718314</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-34.725168000555946,173.09320554287024</t>
+          <t>-34.72520625495332,173.0930049386774</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -11433,12 +12075,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-34.7245908869532,173.09232463098635</t>
+          <t>-34.724553384424524,173.09252129641362</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-34.72510695518899,173.09352565782393</t>
+          <t>-34.72517315527914,173.09317851186515</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -11455,10 +12097,14 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-34.72455967545527,173.0924883060135</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr"/>
+          <t>-34.72455813313889,173.092496393983</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>-34.7251374779776,173.09336560040614</t>
+        </is>
+      </c>
       <c r="D212" t="inlineStr">
         <is>
           <t>L9</t>
@@ -11473,10 +12119,14 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-34.724559228995325,173.09249064726785</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr"/>
+          <t>-34.724561664230876,173.0924778767892</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>-34.7251374779776,173.09336560040614</t>
+        </is>
+      </c>
       <c r="D213" t="inlineStr">
         <is>
           <t>L8</t>
@@ -11491,12 +12141,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-34.72461152538471,173.09221640107287</t>
+          <t>-34.72457162838911,173.09242562423938</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-34.72514255155904,173.09333899510582</t>
+          <t>-34.72513916240728,173.0933567674468</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -11513,12 +12163,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-34.72459271336695,173.09231505312007</t>
+          <t>-34.7245751391768,173.0924072134602</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-34.725192272349815,173.0930782629901</t>
+          <t>-34.72515245517329,173.09328706155023</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -11535,12 +12185,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-34.72456474886067,173.09246170084845</t>
+          <t>-34.724579806693676,173.09238273669934</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-34.72526863833902,173.0926777991341</t>
+          <t>-34.72517759970102,173.09315520560216</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -11557,12 +12207,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-34.7245546832187,173.09251448549273</t>
+          <t>-34.72457375921434,173.09241445006725</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-34.7252778719796,173.09262937733155</t>
+          <t>-34.72522033898249,173.09293108223287</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -11579,10 +12229,14 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-34.72454130967917,173.09258461668372</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr"/>
+          <t>-34.724569132278255,173.0924387139832</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>-34.72522033898249,173.09293108223287</t>
+        </is>
+      </c>
       <c r="D218" t="inlineStr">
         <is>
           <t>L9</t>
@@ -11597,12 +12251,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-34.72455719963133,173.09250128933286</t>
+          <t>-34.72456876699362,173.09244062955537</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-34.72530705421601,173.09247634308005</t>
+          <t>-34.72523766998862,173.09284019833146</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -11619,12 +12273,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-34.72455044184254,173.09253672740553</t>
+          <t>-34.724566473817184,173.09245265509156</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-34.725254229762555,173.0927533584088</t>
+          <t>-34.72524042995526,173.09282572501343</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -11641,12 +12295,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-34.7245402138183,173.09259036339637</t>
+          <t>-34.72456357183114,173.09246787324702</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-34.72527706023174,173.09263363419373</t>
+          <t>-34.72524566576956,173.0927982682751</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -11663,12 +12317,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-34.724555657314085,173.0925093773019</t>
+          <t>-34.72455204504263,173.0925283201756</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-34.725282539526845,173.0926049003723</t>
+          <t>-34.72527789227328,173.09262927090998</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">

--- a/data/nzd0014/nzd0014.xlsx
+++ b/data/nzd0014/nzd0014.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4393,6 +4393,24 @@
       <c r="D222" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>376.91</v>
+      </c>
+      <c r="C223" t="n">
+        <v>366.73</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B279"/>
+  <dimension ref="A1:B280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7205,6 +7223,16 @@
       </c>
       <c r="B279" t="n">
         <v>-0.24</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>
@@ -7375,31 +7403,31 @@
         <v>0.0781</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1291</v>
+        <v>0.1292</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0181220292280576</v>
+        <v>-0.01429542000527944</v>
       </c>
       <c r="J2" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K2" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0007561320028743879</v>
+        <v>0.0004735536753751601</v>
       </c>
       <c r="M2" t="n">
-        <v>4.217116912907265</v>
+        <v>4.216856503801674</v>
       </c>
       <c r="N2" t="n">
-        <v>26.61647127585926</v>
+        <v>26.58965344144351</v>
       </c>
       <c r="O2" t="n">
-        <v>5.159115357874764</v>
+        <v>5.156515629903928</v>
       </c>
       <c r="P2" t="n">
-        <v>372.8063492817006</v>
+        <v>372.7701672161248</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -7460,28 +7488,28 @@
         <v>0.0108</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.586190562366219</v>
+        <v>-1.614403934520937</v>
       </c>
       <c r="J3" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K3" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1449847934406915</v>
+        <v>0.1500859319058779</v>
       </c>
       <c r="M3" t="n">
-        <v>24.47744792378697</v>
+        <v>24.47594634236891</v>
       </c>
       <c r="N3" t="n">
-        <v>860.4430289194559</v>
+        <v>860.6019891405891</v>
       </c>
       <c r="O3" t="n">
-        <v>29.33330920505656</v>
+        <v>29.33601863137854</v>
       </c>
       <c r="P3" t="n">
-        <v>438.5231715543178</v>
+        <v>438.8042550080158</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -7519,7 +7547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12331,6 +12359,28 @@
         </is>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>-34.72454896040399,173.09254449611137</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>-34.72527685729475,173.09263469840928</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
